--- a/src/main/java/com/example/demo/database/离退休教职工周转房第二期缴款名单（正式上交表）.xlsx
+++ b/src/main/java/com/example/demo/database/离退休教职工周转房第二期缴款名单（正式上交表）.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F1701C97-C368-49CE-98C1-3437DEC19FB6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="离退休名单" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="665">
   <si>
     <t>序号</t>
   </si>
@@ -1999,6 +1998,10 @@
   </si>
   <si>
     <t>刘  同</t>
+  </si>
+  <si>
+    <t>小结：总654人，其中，160平米79人，140平米125人，120平米148人，100平米302人；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>申请面积（平米）</t>
@@ -2016,8 +2019,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2224,7 +2227,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2266,7 +2269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2298,27 +2301,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2350,24 +2335,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2543,1412 +2510,1412 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A635" workbookViewId="0">
-      <selection activeCell="C653" sqref="C653"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="15" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
     <col min="8" max="242" width="9" style="3"/>
-    <col min="243" max="243" width="3.77734375" style="3" customWidth="1"/>
-    <col min="244" max="244" width="6.33203125" style="3" customWidth="1"/>
-    <col min="245" max="245" width="3.109375" style="3" customWidth="1"/>
-    <col min="246" max="246" width="2.88671875" style="3" customWidth="1"/>
-    <col min="247" max="247" width="4.88671875" style="3" customWidth="1"/>
-    <col min="248" max="248" width="8.21875" style="3" customWidth="1"/>
-    <col min="249" max="249" width="4.44140625" style="3" customWidth="1"/>
-    <col min="250" max="250" width="3.109375" style="3" customWidth="1"/>
-    <col min="251" max="251" width="4.6640625" style="3" customWidth="1"/>
-    <col min="252" max="252" width="5.33203125" style="3" customWidth="1"/>
-    <col min="253" max="253" width="5.109375" style="3" customWidth="1"/>
+    <col min="243" max="243" width="3.75" style="3" customWidth="1"/>
+    <col min="244" max="244" width="6.375" style="3" customWidth="1"/>
+    <col min="245" max="245" width="3.125" style="3" customWidth="1"/>
+    <col min="246" max="246" width="2.875" style="3" customWidth="1"/>
+    <col min="247" max="247" width="4.875" style="3" customWidth="1"/>
+    <col min="248" max="248" width="8.25" style="3" customWidth="1"/>
+    <col min="249" max="249" width="4.5" style="3" customWidth="1"/>
+    <col min="250" max="250" width="3.125" style="3" customWidth="1"/>
+    <col min="251" max="251" width="4.625" style="3" customWidth="1"/>
+    <col min="252" max="252" width="5.375" style="3" customWidth="1"/>
+    <col min="253" max="253" width="5.125" style="3" customWidth="1"/>
     <col min="254" max="254" width="3" style="3" customWidth="1"/>
-    <col min="255" max="255" width="3.6640625" style="3" customWidth="1"/>
-    <col min="256" max="256" width="3.21875" style="3" customWidth="1"/>
+    <col min="255" max="255" width="3.625" style="3" customWidth="1"/>
+    <col min="256" max="256" width="3.25" style="3" customWidth="1"/>
     <col min="257" max="257" width="5" style="3" customWidth="1"/>
-    <col min="258" max="258" width="4.6640625" style="3" customWidth="1"/>
-    <col min="259" max="259" width="4.21875" style="3" customWidth="1"/>
+    <col min="258" max="258" width="4.625" style="3" customWidth="1"/>
+    <col min="259" max="259" width="4.25" style="3" customWidth="1"/>
     <col min="260" max="260" width="3" style="3" customWidth="1"/>
-    <col min="261" max="261" width="6.21875" style="3" customWidth="1"/>
-    <col min="262" max="262" width="3.109375" style="3" customWidth="1"/>
-    <col min="263" max="263" width="5.33203125" style="3" customWidth="1"/>
+    <col min="261" max="261" width="6.25" style="3" customWidth="1"/>
+    <col min="262" max="262" width="3.125" style="3" customWidth="1"/>
+    <col min="263" max="263" width="5.375" style="3" customWidth="1"/>
     <col min="264" max="498" width="9" style="3"/>
-    <col min="499" max="499" width="3.77734375" style="3" customWidth="1"/>
-    <col min="500" max="500" width="6.33203125" style="3" customWidth="1"/>
-    <col min="501" max="501" width="3.109375" style="3" customWidth="1"/>
-    <col min="502" max="502" width="2.88671875" style="3" customWidth="1"/>
-    <col min="503" max="503" width="4.88671875" style="3" customWidth="1"/>
-    <col min="504" max="504" width="8.21875" style="3" customWidth="1"/>
-    <col min="505" max="505" width="4.44140625" style="3" customWidth="1"/>
-    <col min="506" max="506" width="3.109375" style="3" customWidth="1"/>
-    <col min="507" max="507" width="4.6640625" style="3" customWidth="1"/>
-    <col min="508" max="508" width="5.33203125" style="3" customWidth="1"/>
-    <col min="509" max="509" width="5.109375" style="3" customWidth="1"/>
+    <col min="499" max="499" width="3.75" style="3" customWidth="1"/>
+    <col min="500" max="500" width="6.375" style="3" customWidth="1"/>
+    <col min="501" max="501" width="3.125" style="3" customWidth="1"/>
+    <col min="502" max="502" width="2.875" style="3" customWidth="1"/>
+    <col min="503" max="503" width="4.875" style="3" customWidth="1"/>
+    <col min="504" max="504" width="8.25" style="3" customWidth="1"/>
+    <col min="505" max="505" width="4.5" style="3" customWidth="1"/>
+    <col min="506" max="506" width="3.125" style="3" customWidth="1"/>
+    <col min="507" max="507" width="4.625" style="3" customWidth="1"/>
+    <col min="508" max="508" width="5.375" style="3" customWidth="1"/>
+    <col min="509" max="509" width="5.125" style="3" customWidth="1"/>
     <col min="510" max="510" width="3" style="3" customWidth="1"/>
-    <col min="511" max="511" width="3.6640625" style="3" customWidth="1"/>
-    <col min="512" max="512" width="3.21875" style="3" customWidth="1"/>
+    <col min="511" max="511" width="3.625" style="3" customWidth="1"/>
+    <col min="512" max="512" width="3.25" style="3" customWidth="1"/>
     <col min="513" max="513" width="5" style="3" customWidth="1"/>
-    <col min="514" max="514" width="4.6640625" style="3" customWidth="1"/>
-    <col min="515" max="515" width="4.21875" style="3" customWidth="1"/>
+    <col min="514" max="514" width="4.625" style="3" customWidth="1"/>
+    <col min="515" max="515" width="4.25" style="3" customWidth="1"/>
     <col min="516" max="516" width="3" style="3" customWidth="1"/>
-    <col min="517" max="517" width="6.21875" style="3" customWidth="1"/>
-    <col min="518" max="518" width="3.109375" style="3" customWidth="1"/>
-    <col min="519" max="519" width="5.33203125" style="3" customWidth="1"/>
+    <col min="517" max="517" width="6.25" style="3" customWidth="1"/>
+    <col min="518" max="518" width="3.125" style="3" customWidth="1"/>
+    <col min="519" max="519" width="5.375" style="3" customWidth="1"/>
     <col min="520" max="754" width="9" style="3"/>
-    <col min="755" max="755" width="3.77734375" style="3" customWidth="1"/>
-    <col min="756" max="756" width="6.33203125" style="3" customWidth="1"/>
-    <col min="757" max="757" width="3.109375" style="3" customWidth="1"/>
-    <col min="758" max="758" width="2.88671875" style="3" customWidth="1"/>
-    <col min="759" max="759" width="4.88671875" style="3" customWidth="1"/>
-    <col min="760" max="760" width="8.21875" style="3" customWidth="1"/>
-    <col min="761" max="761" width="4.44140625" style="3" customWidth="1"/>
-    <col min="762" max="762" width="3.109375" style="3" customWidth="1"/>
-    <col min="763" max="763" width="4.6640625" style="3" customWidth="1"/>
-    <col min="764" max="764" width="5.33203125" style="3" customWidth="1"/>
-    <col min="765" max="765" width="5.109375" style="3" customWidth="1"/>
+    <col min="755" max="755" width="3.75" style="3" customWidth="1"/>
+    <col min="756" max="756" width="6.375" style="3" customWidth="1"/>
+    <col min="757" max="757" width="3.125" style="3" customWidth="1"/>
+    <col min="758" max="758" width="2.875" style="3" customWidth="1"/>
+    <col min="759" max="759" width="4.875" style="3" customWidth="1"/>
+    <col min="760" max="760" width="8.25" style="3" customWidth="1"/>
+    <col min="761" max="761" width="4.5" style="3" customWidth="1"/>
+    <col min="762" max="762" width="3.125" style="3" customWidth="1"/>
+    <col min="763" max="763" width="4.625" style="3" customWidth="1"/>
+    <col min="764" max="764" width="5.375" style="3" customWidth="1"/>
+    <col min="765" max="765" width="5.125" style="3" customWidth="1"/>
     <col min="766" max="766" width="3" style="3" customWidth="1"/>
-    <col min="767" max="767" width="3.6640625" style="3" customWidth="1"/>
-    <col min="768" max="768" width="3.21875" style="3" customWidth="1"/>
+    <col min="767" max="767" width="3.625" style="3" customWidth="1"/>
+    <col min="768" max="768" width="3.25" style="3" customWidth="1"/>
     <col min="769" max="769" width="5" style="3" customWidth="1"/>
-    <col min="770" max="770" width="4.6640625" style="3" customWidth="1"/>
-    <col min="771" max="771" width="4.21875" style="3" customWidth="1"/>
+    <col min="770" max="770" width="4.625" style="3" customWidth="1"/>
+    <col min="771" max="771" width="4.25" style="3" customWidth="1"/>
     <col min="772" max="772" width="3" style="3" customWidth="1"/>
-    <col min="773" max="773" width="6.21875" style="3" customWidth="1"/>
-    <col min="774" max="774" width="3.109375" style="3" customWidth="1"/>
-    <col min="775" max="775" width="5.33203125" style="3" customWidth="1"/>
+    <col min="773" max="773" width="6.25" style="3" customWidth="1"/>
+    <col min="774" max="774" width="3.125" style="3" customWidth="1"/>
+    <col min="775" max="775" width="5.375" style="3" customWidth="1"/>
     <col min="776" max="1010" width="9" style="3"/>
-    <col min="1011" max="1011" width="3.77734375" style="3" customWidth="1"/>
-    <col min="1012" max="1012" width="6.33203125" style="3" customWidth="1"/>
-    <col min="1013" max="1013" width="3.109375" style="3" customWidth="1"/>
-    <col min="1014" max="1014" width="2.88671875" style="3" customWidth="1"/>
-    <col min="1015" max="1015" width="4.88671875" style="3" customWidth="1"/>
-    <col min="1016" max="1016" width="8.21875" style="3" customWidth="1"/>
-    <col min="1017" max="1017" width="4.44140625" style="3" customWidth="1"/>
-    <col min="1018" max="1018" width="3.109375" style="3" customWidth="1"/>
-    <col min="1019" max="1019" width="4.6640625" style="3" customWidth="1"/>
-    <col min="1020" max="1020" width="5.33203125" style="3" customWidth="1"/>
-    <col min="1021" max="1021" width="5.109375" style="3" customWidth="1"/>
+    <col min="1011" max="1011" width="3.75" style="3" customWidth="1"/>
+    <col min="1012" max="1012" width="6.375" style="3" customWidth="1"/>
+    <col min="1013" max="1013" width="3.125" style="3" customWidth="1"/>
+    <col min="1014" max="1014" width="2.875" style="3" customWidth="1"/>
+    <col min="1015" max="1015" width="4.875" style="3" customWidth="1"/>
+    <col min="1016" max="1016" width="8.25" style="3" customWidth="1"/>
+    <col min="1017" max="1017" width="4.5" style="3" customWidth="1"/>
+    <col min="1018" max="1018" width="3.125" style="3" customWidth="1"/>
+    <col min="1019" max="1019" width="4.625" style="3" customWidth="1"/>
+    <col min="1020" max="1020" width="5.375" style="3" customWidth="1"/>
+    <col min="1021" max="1021" width="5.125" style="3" customWidth="1"/>
     <col min="1022" max="1022" width="3" style="3" customWidth="1"/>
-    <col min="1023" max="1023" width="3.6640625" style="3" customWidth="1"/>
-    <col min="1024" max="1024" width="3.21875" style="3" customWidth="1"/>
+    <col min="1023" max="1023" width="3.625" style="3" customWidth="1"/>
+    <col min="1024" max="1024" width="3.25" style="3" customWidth="1"/>
     <col min="1025" max="1025" width="5" style="3" customWidth="1"/>
-    <col min="1026" max="1026" width="4.6640625" style="3" customWidth="1"/>
-    <col min="1027" max="1027" width="4.21875" style="3" customWidth="1"/>
+    <col min="1026" max="1026" width="4.625" style="3" customWidth="1"/>
+    <col min="1027" max="1027" width="4.25" style="3" customWidth="1"/>
     <col min="1028" max="1028" width="3" style="3" customWidth="1"/>
-    <col min="1029" max="1029" width="6.21875" style="3" customWidth="1"/>
-    <col min="1030" max="1030" width="3.109375" style="3" customWidth="1"/>
-    <col min="1031" max="1031" width="5.33203125" style="3" customWidth="1"/>
+    <col min="1029" max="1029" width="6.25" style="3" customWidth="1"/>
+    <col min="1030" max="1030" width="3.125" style="3" customWidth="1"/>
+    <col min="1031" max="1031" width="5.375" style="3" customWidth="1"/>
     <col min="1032" max="1266" width="9" style="3"/>
-    <col min="1267" max="1267" width="3.77734375" style="3" customWidth="1"/>
-    <col min="1268" max="1268" width="6.33203125" style="3" customWidth="1"/>
-    <col min="1269" max="1269" width="3.109375" style="3" customWidth="1"/>
-    <col min="1270" max="1270" width="2.88671875" style="3" customWidth="1"/>
-    <col min="1271" max="1271" width="4.88671875" style="3" customWidth="1"/>
-    <col min="1272" max="1272" width="8.21875" style="3" customWidth="1"/>
-    <col min="1273" max="1273" width="4.44140625" style="3" customWidth="1"/>
-    <col min="1274" max="1274" width="3.109375" style="3" customWidth="1"/>
-    <col min="1275" max="1275" width="4.6640625" style="3" customWidth="1"/>
-    <col min="1276" max="1276" width="5.33203125" style="3" customWidth="1"/>
-    <col min="1277" max="1277" width="5.109375" style="3" customWidth="1"/>
+    <col min="1267" max="1267" width="3.75" style="3" customWidth="1"/>
+    <col min="1268" max="1268" width="6.375" style="3" customWidth="1"/>
+    <col min="1269" max="1269" width="3.125" style="3" customWidth="1"/>
+    <col min="1270" max="1270" width="2.875" style="3" customWidth="1"/>
+    <col min="1271" max="1271" width="4.875" style="3" customWidth="1"/>
+    <col min="1272" max="1272" width="8.25" style="3" customWidth="1"/>
+    <col min="1273" max="1273" width="4.5" style="3" customWidth="1"/>
+    <col min="1274" max="1274" width="3.125" style="3" customWidth="1"/>
+    <col min="1275" max="1275" width="4.625" style="3" customWidth="1"/>
+    <col min="1276" max="1276" width="5.375" style="3" customWidth="1"/>
+    <col min="1277" max="1277" width="5.125" style="3" customWidth="1"/>
     <col min="1278" max="1278" width="3" style="3" customWidth="1"/>
-    <col min="1279" max="1279" width="3.6640625" style="3" customWidth="1"/>
-    <col min="1280" max="1280" width="3.21875" style="3" customWidth="1"/>
+    <col min="1279" max="1279" width="3.625" style="3" customWidth="1"/>
+    <col min="1280" max="1280" width="3.25" style="3" customWidth="1"/>
     <col min="1281" max="1281" width="5" style="3" customWidth="1"/>
-    <col min="1282" max="1282" width="4.6640625" style="3" customWidth="1"/>
-    <col min="1283" max="1283" width="4.21875" style="3" customWidth="1"/>
+    <col min="1282" max="1282" width="4.625" style="3" customWidth="1"/>
+    <col min="1283" max="1283" width="4.25" style="3" customWidth="1"/>
     <col min="1284" max="1284" width="3" style="3" customWidth="1"/>
-    <col min="1285" max="1285" width="6.21875" style="3" customWidth="1"/>
-    <col min="1286" max="1286" width="3.109375" style="3" customWidth="1"/>
-    <col min="1287" max="1287" width="5.33203125" style="3" customWidth="1"/>
+    <col min="1285" max="1285" width="6.25" style="3" customWidth="1"/>
+    <col min="1286" max="1286" width="3.125" style="3" customWidth="1"/>
+    <col min="1287" max="1287" width="5.375" style="3" customWidth="1"/>
     <col min="1288" max="1522" width="9" style="3"/>
-    <col min="1523" max="1523" width="3.77734375" style="3" customWidth="1"/>
-    <col min="1524" max="1524" width="6.33203125" style="3" customWidth="1"/>
-    <col min="1525" max="1525" width="3.109375" style="3" customWidth="1"/>
-    <col min="1526" max="1526" width="2.88671875" style="3" customWidth="1"/>
-    <col min="1527" max="1527" width="4.88671875" style="3" customWidth="1"/>
-    <col min="1528" max="1528" width="8.21875" style="3" customWidth="1"/>
-    <col min="1529" max="1529" width="4.44140625" style="3" customWidth="1"/>
-    <col min="1530" max="1530" width="3.109375" style="3" customWidth="1"/>
-    <col min="1531" max="1531" width="4.6640625" style="3" customWidth="1"/>
-    <col min="1532" max="1532" width="5.33203125" style="3" customWidth="1"/>
-    <col min="1533" max="1533" width="5.109375" style="3" customWidth="1"/>
+    <col min="1523" max="1523" width="3.75" style="3" customWidth="1"/>
+    <col min="1524" max="1524" width="6.375" style="3" customWidth="1"/>
+    <col min="1525" max="1525" width="3.125" style="3" customWidth="1"/>
+    <col min="1526" max="1526" width="2.875" style="3" customWidth="1"/>
+    <col min="1527" max="1527" width="4.875" style="3" customWidth="1"/>
+    <col min="1528" max="1528" width="8.25" style="3" customWidth="1"/>
+    <col min="1529" max="1529" width="4.5" style="3" customWidth="1"/>
+    <col min="1530" max="1530" width="3.125" style="3" customWidth="1"/>
+    <col min="1531" max="1531" width="4.625" style="3" customWidth="1"/>
+    <col min="1532" max="1532" width="5.375" style="3" customWidth="1"/>
+    <col min="1533" max="1533" width="5.125" style="3" customWidth="1"/>
     <col min="1534" max="1534" width="3" style="3" customWidth="1"/>
-    <col min="1535" max="1535" width="3.6640625" style="3" customWidth="1"/>
-    <col min="1536" max="1536" width="3.21875" style="3" customWidth="1"/>
+    <col min="1535" max="1535" width="3.625" style="3" customWidth="1"/>
+    <col min="1536" max="1536" width="3.25" style="3" customWidth="1"/>
     <col min="1537" max="1537" width="5" style="3" customWidth="1"/>
-    <col min="1538" max="1538" width="4.6640625" style="3" customWidth="1"/>
-    <col min="1539" max="1539" width="4.21875" style="3" customWidth="1"/>
+    <col min="1538" max="1538" width="4.625" style="3" customWidth="1"/>
+    <col min="1539" max="1539" width="4.25" style="3" customWidth="1"/>
     <col min="1540" max="1540" width="3" style="3" customWidth="1"/>
-    <col min="1541" max="1541" width="6.21875" style="3" customWidth="1"/>
-    <col min="1542" max="1542" width="3.109375" style="3" customWidth="1"/>
-    <col min="1543" max="1543" width="5.33203125" style="3" customWidth="1"/>
+    <col min="1541" max="1541" width="6.25" style="3" customWidth="1"/>
+    <col min="1542" max="1542" width="3.125" style="3" customWidth="1"/>
+    <col min="1543" max="1543" width="5.375" style="3" customWidth="1"/>
     <col min="1544" max="1778" width="9" style="3"/>
-    <col min="1779" max="1779" width="3.77734375" style="3" customWidth="1"/>
-    <col min="1780" max="1780" width="6.33203125" style="3" customWidth="1"/>
-    <col min="1781" max="1781" width="3.109375" style="3" customWidth="1"/>
-    <col min="1782" max="1782" width="2.88671875" style="3" customWidth="1"/>
-    <col min="1783" max="1783" width="4.88671875" style="3" customWidth="1"/>
-    <col min="1784" max="1784" width="8.21875" style="3" customWidth="1"/>
-    <col min="1785" max="1785" width="4.44140625" style="3" customWidth="1"/>
-    <col min="1786" max="1786" width="3.109375" style="3" customWidth="1"/>
-    <col min="1787" max="1787" width="4.6640625" style="3" customWidth="1"/>
-    <col min="1788" max="1788" width="5.33203125" style="3" customWidth="1"/>
-    <col min="1789" max="1789" width="5.109375" style="3" customWidth="1"/>
+    <col min="1779" max="1779" width="3.75" style="3" customWidth="1"/>
+    <col min="1780" max="1780" width="6.375" style="3" customWidth="1"/>
+    <col min="1781" max="1781" width="3.125" style="3" customWidth="1"/>
+    <col min="1782" max="1782" width="2.875" style="3" customWidth="1"/>
+    <col min="1783" max="1783" width="4.875" style="3" customWidth="1"/>
+    <col min="1784" max="1784" width="8.25" style="3" customWidth="1"/>
+    <col min="1785" max="1785" width="4.5" style="3" customWidth="1"/>
+    <col min="1786" max="1786" width="3.125" style="3" customWidth="1"/>
+    <col min="1787" max="1787" width="4.625" style="3" customWidth="1"/>
+    <col min="1788" max="1788" width="5.375" style="3" customWidth="1"/>
+    <col min="1789" max="1789" width="5.125" style="3" customWidth="1"/>
     <col min="1790" max="1790" width="3" style="3" customWidth="1"/>
-    <col min="1791" max="1791" width="3.6640625" style="3" customWidth="1"/>
-    <col min="1792" max="1792" width="3.21875" style="3" customWidth="1"/>
+    <col min="1791" max="1791" width="3.625" style="3" customWidth="1"/>
+    <col min="1792" max="1792" width="3.25" style="3" customWidth="1"/>
     <col min="1793" max="1793" width="5" style="3" customWidth="1"/>
-    <col min="1794" max="1794" width="4.6640625" style="3" customWidth="1"/>
-    <col min="1795" max="1795" width="4.21875" style="3" customWidth="1"/>
+    <col min="1794" max="1794" width="4.625" style="3" customWidth="1"/>
+    <col min="1795" max="1795" width="4.25" style="3" customWidth="1"/>
     <col min="1796" max="1796" width="3" style="3" customWidth="1"/>
-    <col min="1797" max="1797" width="6.21875" style="3" customWidth="1"/>
-    <col min="1798" max="1798" width="3.109375" style="3" customWidth="1"/>
-    <col min="1799" max="1799" width="5.33203125" style="3" customWidth="1"/>
+    <col min="1797" max="1797" width="6.25" style="3" customWidth="1"/>
+    <col min="1798" max="1798" width="3.125" style="3" customWidth="1"/>
+    <col min="1799" max="1799" width="5.375" style="3" customWidth="1"/>
     <col min="1800" max="2034" width="9" style="3"/>
-    <col min="2035" max="2035" width="3.77734375" style="3" customWidth="1"/>
-    <col min="2036" max="2036" width="6.33203125" style="3" customWidth="1"/>
-    <col min="2037" max="2037" width="3.109375" style="3" customWidth="1"/>
-    <col min="2038" max="2038" width="2.88671875" style="3" customWidth="1"/>
-    <col min="2039" max="2039" width="4.88671875" style="3" customWidth="1"/>
-    <col min="2040" max="2040" width="8.21875" style="3" customWidth="1"/>
-    <col min="2041" max="2041" width="4.44140625" style="3" customWidth="1"/>
-    <col min="2042" max="2042" width="3.109375" style="3" customWidth="1"/>
-    <col min="2043" max="2043" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2044" max="2044" width="5.33203125" style="3" customWidth="1"/>
-    <col min="2045" max="2045" width="5.109375" style="3" customWidth="1"/>
+    <col min="2035" max="2035" width="3.75" style="3" customWidth="1"/>
+    <col min="2036" max="2036" width="6.375" style="3" customWidth="1"/>
+    <col min="2037" max="2037" width="3.125" style="3" customWidth="1"/>
+    <col min="2038" max="2038" width="2.875" style="3" customWidth="1"/>
+    <col min="2039" max="2039" width="4.875" style="3" customWidth="1"/>
+    <col min="2040" max="2040" width="8.25" style="3" customWidth="1"/>
+    <col min="2041" max="2041" width="4.5" style="3" customWidth="1"/>
+    <col min="2042" max="2042" width="3.125" style="3" customWidth="1"/>
+    <col min="2043" max="2043" width="4.625" style="3" customWidth="1"/>
+    <col min="2044" max="2044" width="5.375" style="3" customWidth="1"/>
+    <col min="2045" max="2045" width="5.125" style="3" customWidth="1"/>
     <col min="2046" max="2046" width="3" style="3" customWidth="1"/>
-    <col min="2047" max="2047" width="3.6640625" style="3" customWidth="1"/>
-    <col min="2048" max="2048" width="3.21875" style="3" customWidth="1"/>
+    <col min="2047" max="2047" width="3.625" style="3" customWidth="1"/>
+    <col min="2048" max="2048" width="3.25" style="3" customWidth="1"/>
     <col min="2049" max="2049" width="5" style="3" customWidth="1"/>
-    <col min="2050" max="2050" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2051" max="2051" width="4.21875" style="3" customWidth="1"/>
+    <col min="2050" max="2050" width="4.625" style="3" customWidth="1"/>
+    <col min="2051" max="2051" width="4.25" style="3" customWidth="1"/>
     <col min="2052" max="2052" width="3" style="3" customWidth="1"/>
-    <col min="2053" max="2053" width="6.21875" style="3" customWidth="1"/>
-    <col min="2054" max="2054" width="3.109375" style="3" customWidth="1"/>
-    <col min="2055" max="2055" width="5.33203125" style="3" customWidth="1"/>
+    <col min="2053" max="2053" width="6.25" style="3" customWidth="1"/>
+    <col min="2054" max="2054" width="3.125" style="3" customWidth="1"/>
+    <col min="2055" max="2055" width="5.375" style="3" customWidth="1"/>
     <col min="2056" max="2290" width="9" style="3"/>
-    <col min="2291" max="2291" width="3.77734375" style="3" customWidth="1"/>
-    <col min="2292" max="2292" width="6.33203125" style="3" customWidth="1"/>
-    <col min="2293" max="2293" width="3.109375" style="3" customWidth="1"/>
-    <col min="2294" max="2294" width="2.88671875" style="3" customWidth="1"/>
-    <col min="2295" max="2295" width="4.88671875" style="3" customWidth="1"/>
-    <col min="2296" max="2296" width="8.21875" style="3" customWidth="1"/>
-    <col min="2297" max="2297" width="4.44140625" style="3" customWidth="1"/>
-    <col min="2298" max="2298" width="3.109375" style="3" customWidth="1"/>
-    <col min="2299" max="2299" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2300" max="2300" width="5.33203125" style="3" customWidth="1"/>
-    <col min="2301" max="2301" width="5.109375" style="3" customWidth="1"/>
+    <col min="2291" max="2291" width="3.75" style="3" customWidth="1"/>
+    <col min="2292" max="2292" width="6.375" style="3" customWidth="1"/>
+    <col min="2293" max="2293" width="3.125" style="3" customWidth="1"/>
+    <col min="2294" max="2294" width="2.875" style="3" customWidth="1"/>
+    <col min="2295" max="2295" width="4.875" style="3" customWidth="1"/>
+    <col min="2296" max="2296" width="8.25" style="3" customWidth="1"/>
+    <col min="2297" max="2297" width="4.5" style="3" customWidth="1"/>
+    <col min="2298" max="2298" width="3.125" style="3" customWidth="1"/>
+    <col min="2299" max="2299" width="4.625" style="3" customWidth="1"/>
+    <col min="2300" max="2300" width="5.375" style="3" customWidth="1"/>
+    <col min="2301" max="2301" width="5.125" style="3" customWidth="1"/>
     <col min="2302" max="2302" width="3" style="3" customWidth="1"/>
-    <col min="2303" max="2303" width="3.6640625" style="3" customWidth="1"/>
-    <col min="2304" max="2304" width="3.21875" style="3" customWidth="1"/>
+    <col min="2303" max="2303" width="3.625" style="3" customWidth="1"/>
+    <col min="2304" max="2304" width="3.25" style="3" customWidth="1"/>
     <col min="2305" max="2305" width="5" style="3" customWidth="1"/>
-    <col min="2306" max="2306" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2307" max="2307" width="4.21875" style="3" customWidth="1"/>
+    <col min="2306" max="2306" width="4.625" style="3" customWidth="1"/>
+    <col min="2307" max="2307" width="4.25" style="3" customWidth="1"/>
     <col min="2308" max="2308" width="3" style="3" customWidth="1"/>
-    <col min="2309" max="2309" width="6.21875" style="3" customWidth="1"/>
-    <col min="2310" max="2310" width="3.109375" style="3" customWidth="1"/>
-    <col min="2311" max="2311" width="5.33203125" style="3" customWidth="1"/>
+    <col min="2309" max="2309" width="6.25" style="3" customWidth="1"/>
+    <col min="2310" max="2310" width="3.125" style="3" customWidth="1"/>
+    <col min="2311" max="2311" width="5.375" style="3" customWidth="1"/>
     <col min="2312" max="2546" width="9" style="3"/>
-    <col min="2547" max="2547" width="3.77734375" style="3" customWidth="1"/>
-    <col min="2548" max="2548" width="6.33203125" style="3" customWidth="1"/>
-    <col min="2549" max="2549" width="3.109375" style="3" customWidth="1"/>
-    <col min="2550" max="2550" width="2.88671875" style="3" customWidth="1"/>
-    <col min="2551" max="2551" width="4.88671875" style="3" customWidth="1"/>
-    <col min="2552" max="2552" width="8.21875" style="3" customWidth="1"/>
-    <col min="2553" max="2553" width="4.44140625" style="3" customWidth="1"/>
-    <col min="2554" max="2554" width="3.109375" style="3" customWidth="1"/>
-    <col min="2555" max="2555" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2556" max="2556" width="5.33203125" style="3" customWidth="1"/>
-    <col min="2557" max="2557" width="5.109375" style="3" customWidth="1"/>
+    <col min="2547" max="2547" width="3.75" style="3" customWidth="1"/>
+    <col min="2548" max="2548" width="6.375" style="3" customWidth="1"/>
+    <col min="2549" max="2549" width="3.125" style="3" customWidth="1"/>
+    <col min="2550" max="2550" width="2.875" style="3" customWidth="1"/>
+    <col min="2551" max="2551" width="4.875" style="3" customWidth="1"/>
+    <col min="2552" max="2552" width="8.25" style="3" customWidth="1"/>
+    <col min="2553" max="2553" width="4.5" style="3" customWidth="1"/>
+    <col min="2554" max="2554" width="3.125" style="3" customWidth="1"/>
+    <col min="2555" max="2555" width="4.625" style="3" customWidth="1"/>
+    <col min="2556" max="2556" width="5.375" style="3" customWidth="1"/>
+    <col min="2557" max="2557" width="5.125" style="3" customWidth="1"/>
     <col min="2558" max="2558" width="3" style="3" customWidth="1"/>
-    <col min="2559" max="2559" width="3.6640625" style="3" customWidth="1"/>
-    <col min="2560" max="2560" width="3.21875" style="3" customWidth="1"/>
+    <col min="2559" max="2559" width="3.625" style="3" customWidth="1"/>
+    <col min="2560" max="2560" width="3.25" style="3" customWidth="1"/>
     <col min="2561" max="2561" width="5" style="3" customWidth="1"/>
-    <col min="2562" max="2562" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2563" max="2563" width="4.21875" style="3" customWidth="1"/>
+    <col min="2562" max="2562" width="4.625" style="3" customWidth="1"/>
+    <col min="2563" max="2563" width="4.25" style="3" customWidth="1"/>
     <col min="2564" max="2564" width="3" style="3" customWidth="1"/>
-    <col min="2565" max="2565" width="6.21875" style="3" customWidth="1"/>
-    <col min="2566" max="2566" width="3.109375" style="3" customWidth="1"/>
-    <col min="2567" max="2567" width="5.33203125" style="3" customWidth="1"/>
+    <col min="2565" max="2565" width="6.25" style="3" customWidth="1"/>
+    <col min="2566" max="2566" width="3.125" style="3" customWidth="1"/>
+    <col min="2567" max="2567" width="5.375" style="3" customWidth="1"/>
     <col min="2568" max="2802" width="9" style="3"/>
-    <col min="2803" max="2803" width="3.77734375" style="3" customWidth="1"/>
-    <col min="2804" max="2804" width="6.33203125" style="3" customWidth="1"/>
-    <col min="2805" max="2805" width="3.109375" style="3" customWidth="1"/>
-    <col min="2806" max="2806" width="2.88671875" style="3" customWidth="1"/>
-    <col min="2807" max="2807" width="4.88671875" style="3" customWidth="1"/>
-    <col min="2808" max="2808" width="8.21875" style="3" customWidth="1"/>
-    <col min="2809" max="2809" width="4.44140625" style="3" customWidth="1"/>
-    <col min="2810" max="2810" width="3.109375" style="3" customWidth="1"/>
-    <col min="2811" max="2811" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2812" max="2812" width="5.33203125" style="3" customWidth="1"/>
-    <col min="2813" max="2813" width="5.109375" style="3" customWidth="1"/>
+    <col min="2803" max="2803" width="3.75" style="3" customWidth="1"/>
+    <col min="2804" max="2804" width="6.375" style="3" customWidth="1"/>
+    <col min="2805" max="2805" width="3.125" style="3" customWidth="1"/>
+    <col min="2806" max="2806" width="2.875" style="3" customWidth="1"/>
+    <col min="2807" max="2807" width="4.875" style="3" customWidth="1"/>
+    <col min="2808" max="2808" width="8.25" style="3" customWidth="1"/>
+    <col min="2809" max="2809" width="4.5" style="3" customWidth="1"/>
+    <col min="2810" max="2810" width="3.125" style="3" customWidth="1"/>
+    <col min="2811" max="2811" width="4.625" style="3" customWidth="1"/>
+    <col min="2812" max="2812" width="5.375" style="3" customWidth="1"/>
+    <col min="2813" max="2813" width="5.125" style="3" customWidth="1"/>
     <col min="2814" max="2814" width="3" style="3" customWidth="1"/>
-    <col min="2815" max="2815" width="3.6640625" style="3" customWidth="1"/>
-    <col min="2816" max="2816" width="3.21875" style="3" customWidth="1"/>
+    <col min="2815" max="2815" width="3.625" style="3" customWidth="1"/>
+    <col min="2816" max="2816" width="3.25" style="3" customWidth="1"/>
     <col min="2817" max="2817" width="5" style="3" customWidth="1"/>
-    <col min="2818" max="2818" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2819" max="2819" width="4.21875" style="3" customWidth="1"/>
+    <col min="2818" max="2818" width="4.625" style="3" customWidth="1"/>
+    <col min="2819" max="2819" width="4.25" style="3" customWidth="1"/>
     <col min="2820" max="2820" width="3" style="3" customWidth="1"/>
-    <col min="2821" max="2821" width="6.21875" style="3" customWidth="1"/>
-    <col min="2822" max="2822" width="3.109375" style="3" customWidth="1"/>
-    <col min="2823" max="2823" width="5.33203125" style="3" customWidth="1"/>
+    <col min="2821" max="2821" width="6.25" style="3" customWidth="1"/>
+    <col min="2822" max="2822" width="3.125" style="3" customWidth="1"/>
+    <col min="2823" max="2823" width="5.375" style="3" customWidth="1"/>
     <col min="2824" max="3058" width="9" style="3"/>
-    <col min="3059" max="3059" width="3.77734375" style="3" customWidth="1"/>
-    <col min="3060" max="3060" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3061" max="3061" width="3.109375" style="3" customWidth="1"/>
-    <col min="3062" max="3062" width="2.88671875" style="3" customWidth="1"/>
-    <col min="3063" max="3063" width="4.88671875" style="3" customWidth="1"/>
-    <col min="3064" max="3064" width="8.21875" style="3" customWidth="1"/>
-    <col min="3065" max="3065" width="4.44140625" style="3" customWidth="1"/>
-    <col min="3066" max="3066" width="3.109375" style="3" customWidth="1"/>
-    <col min="3067" max="3067" width="4.6640625" style="3" customWidth="1"/>
-    <col min="3068" max="3068" width="5.33203125" style="3" customWidth="1"/>
-    <col min="3069" max="3069" width="5.109375" style="3" customWidth="1"/>
+    <col min="3059" max="3059" width="3.75" style="3" customWidth="1"/>
+    <col min="3060" max="3060" width="6.375" style="3" customWidth="1"/>
+    <col min="3061" max="3061" width="3.125" style="3" customWidth="1"/>
+    <col min="3062" max="3062" width="2.875" style="3" customWidth="1"/>
+    <col min="3063" max="3063" width="4.875" style="3" customWidth="1"/>
+    <col min="3064" max="3064" width="8.25" style="3" customWidth="1"/>
+    <col min="3065" max="3065" width="4.5" style="3" customWidth="1"/>
+    <col min="3066" max="3066" width="3.125" style="3" customWidth="1"/>
+    <col min="3067" max="3067" width="4.625" style="3" customWidth="1"/>
+    <col min="3068" max="3068" width="5.375" style="3" customWidth="1"/>
+    <col min="3069" max="3069" width="5.125" style="3" customWidth="1"/>
     <col min="3070" max="3070" width="3" style="3" customWidth="1"/>
-    <col min="3071" max="3071" width="3.6640625" style="3" customWidth="1"/>
-    <col min="3072" max="3072" width="3.21875" style="3" customWidth="1"/>
+    <col min="3071" max="3071" width="3.625" style="3" customWidth="1"/>
+    <col min="3072" max="3072" width="3.25" style="3" customWidth="1"/>
     <col min="3073" max="3073" width="5" style="3" customWidth="1"/>
-    <col min="3074" max="3074" width="4.6640625" style="3" customWidth="1"/>
-    <col min="3075" max="3075" width="4.21875" style="3" customWidth="1"/>
+    <col min="3074" max="3074" width="4.625" style="3" customWidth="1"/>
+    <col min="3075" max="3075" width="4.25" style="3" customWidth="1"/>
     <col min="3076" max="3076" width="3" style="3" customWidth="1"/>
-    <col min="3077" max="3077" width="6.21875" style="3" customWidth="1"/>
-    <col min="3078" max="3078" width="3.109375" style="3" customWidth="1"/>
-    <col min="3079" max="3079" width="5.33203125" style="3" customWidth="1"/>
+    <col min="3077" max="3077" width="6.25" style="3" customWidth="1"/>
+    <col min="3078" max="3078" width="3.125" style="3" customWidth="1"/>
+    <col min="3079" max="3079" width="5.375" style="3" customWidth="1"/>
     <col min="3080" max="3314" width="9" style="3"/>
-    <col min="3315" max="3315" width="3.77734375" style="3" customWidth="1"/>
-    <col min="3316" max="3316" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3317" max="3317" width="3.109375" style="3" customWidth="1"/>
-    <col min="3318" max="3318" width="2.88671875" style="3" customWidth="1"/>
-    <col min="3319" max="3319" width="4.88671875" style="3" customWidth="1"/>
-    <col min="3320" max="3320" width="8.21875" style="3" customWidth="1"/>
-    <col min="3321" max="3321" width="4.44140625" style="3" customWidth="1"/>
-    <col min="3322" max="3322" width="3.109375" style="3" customWidth="1"/>
-    <col min="3323" max="3323" width="4.6640625" style="3" customWidth="1"/>
-    <col min="3324" max="3324" width="5.33203125" style="3" customWidth="1"/>
-    <col min="3325" max="3325" width="5.109375" style="3" customWidth="1"/>
+    <col min="3315" max="3315" width="3.75" style="3" customWidth="1"/>
+    <col min="3316" max="3316" width="6.375" style="3" customWidth="1"/>
+    <col min="3317" max="3317" width="3.125" style="3" customWidth="1"/>
+    <col min="3318" max="3318" width="2.875" style="3" customWidth="1"/>
+    <col min="3319" max="3319" width="4.875" style="3" customWidth="1"/>
+    <col min="3320" max="3320" width="8.25" style="3" customWidth="1"/>
+    <col min="3321" max="3321" width="4.5" style="3" customWidth="1"/>
+    <col min="3322" max="3322" width="3.125" style="3" customWidth="1"/>
+    <col min="3323" max="3323" width="4.625" style="3" customWidth="1"/>
+    <col min="3324" max="3324" width="5.375" style="3" customWidth="1"/>
+    <col min="3325" max="3325" width="5.125" style="3" customWidth="1"/>
     <col min="3326" max="3326" width="3" style="3" customWidth="1"/>
-    <col min="3327" max="3327" width="3.6640625" style="3" customWidth="1"/>
-    <col min="3328" max="3328" width="3.21875" style="3" customWidth="1"/>
+    <col min="3327" max="3327" width="3.625" style="3" customWidth="1"/>
+    <col min="3328" max="3328" width="3.25" style="3" customWidth="1"/>
     <col min="3329" max="3329" width="5" style="3" customWidth="1"/>
-    <col min="3330" max="3330" width="4.6640625" style="3" customWidth="1"/>
-    <col min="3331" max="3331" width="4.21875" style="3" customWidth="1"/>
+    <col min="3330" max="3330" width="4.625" style="3" customWidth="1"/>
+    <col min="3331" max="3331" width="4.25" style="3" customWidth="1"/>
     <col min="3332" max="3332" width="3" style="3" customWidth="1"/>
-    <col min="3333" max="3333" width="6.21875" style="3" customWidth="1"/>
-    <col min="3334" max="3334" width="3.109375" style="3" customWidth="1"/>
-    <col min="3335" max="3335" width="5.33203125" style="3" customWidth="1"/>
+    <col min="3333" max="3333" width="6.25" style="3" customWidth="1"/>
+    <col min="3334" max="3334" width="3.125" style="3" customWidth="1"/>
+    <col min="3335" max="3335" width="5.375" style="3" customWidth="1"/>
     <col min="3336" max="3570" width="9" style="3"/>
-    <col min="3571" max="3571" width="3.77734375" style="3" customWidth="1"/>
-    <col min="3572" max="3572" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3573" max="3573" width="3.109375" style="3" customWidth="1"/>
-    <col min="3574" max="3574" width="2.88671875" style="3" customWidth="1"/>
-    <col min="3575" max="3575" width="4.88671875" style="3" customWidth="1"/>
-    <col min="3576" max="3576" width="8.21875" style="3" customWidth="1"/>
-    <col min="3577" max="3577" width="4.44140625" style="3" customWidth="1"/>
-    <col min="3578" max="3578" width="3.109375" style="3" customWidth="1"/>
-    <col min="3579" max="3579" width="4.6640625" style="3" customWidth="1"/>
-    <col min="3580" max="3580" width="5.33203125" style="3" customWidth="1"/>
-    <col min="3581" max="3581" width="5.109375" style="3" customWidth="1"/>
+    <col min="3571" max="3571" width="3.75" style="3" customWidth="1"/>
+    <col min="3572" max="3572" width="6.375" style="3" customWidth="1"/>
+    <col min="3573" max="3573" width="3.125" style="3" customWidth="1"/>
+    <col min="3574" max="3574" width="2.875" style="3" customWidth="1"/>
+    <col min="3575" max="3575" width="4.875" style="3" customWidth="1"/>
+    <col min="3576" max="3576" width="8.25" style="3" customWidth="1"/>
+    <col min="3577" max="3577" width="4.5" style="3" customWidth="1"/>
+    <col min="3578" max="3578" width="3.125" style="3" customWidth="1"/>
+    <col min="3579" max="3579" width="4.625" style="3" customWidth="1"/>
+    <col min="3580" max="3580" width="5.375" style="3" customWidth="1"/>
+    <col min="3581" max="3581" width="5.125" style="3" customWidth="1"/>
     <col min="3582" max="3582" width="3" style="3" customWidth="1"/>
-    <col min="3583" max="3583" width="3.6640625" style="3" customWidth="1"/>
-    <col min="3584" max="3584" width="3.21875" style="3" customWidth="1"/>
+    <col min="3583" max="3583" width="3.625" style="3" customWidth="1"/>
+    <col min="3584" max="3584" width="3.25" style="3" customWidth="1"/>
     <col min="3585" max="3585" width="5" style="3" customWidth="1"/>
-    <col min="3586" max="3586" width="4.6640625" style="3" customWidth="1"/>
-    <col min="3587" max="3587" width="4.21875" style="3" customWidth="1"/>
+    <col min="3586" max="3586" width="4.625" style="3" customWidth="1"/>
+    <col min="3587" max="3587" width="4.25" style="3" customWidth="1"/>
     <col min="3588" max="3588" width="3" style="3" customWidth="1"/>
-    <col min="3589" max="3589" width="6.21875" style="3" customWidth="1"/>
-    <col min="3590" max="3590" width="3.109375" style="3" customWidth="1"/>
-    <col min="3591" max="3591" width="5.33203125" style="3" customWidth="1"/>
+    <col min="3589" max="3589" width="6.25" style="3" customWidth="1"/>
+    <col min="3590" max="3590" width="3.125" style="3" customWidth="1"/>
+    <col min="3591" max="3591" width="5.375" style="3" customWidth="1"/>
     <col min="3592" max="3826" width="9" style="3"/>
-    <col min="3827" max="3827" width="3.77734375" style="3" customWidth="1"/>
-    <col min="3828" max="3828" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3829" max="3829" width="3.109375" style="3" customWidth="1"/>
-    <col min="3830" max="3830" width="2.88671875" style="3" customWidth="1"/>
-    <col min="3831" max="3831" width="4.88671875" style="3" customWidth="1"/>
-    <col min="3832" max="3832" width="8.21875" style="3" customWidth="1"/>
-    <col min="3833" max="3833" width="4.44140625" style="3" customWidth="1"/>
-    <col min="3834" max="3834" width="3.109375" style="3" customWidth="1"/>
-    <col min="3835" max="3835" width="4.6640625" style="3" customWidth="1"/>
-    <col min="3836" max="3836" width="5.33203125" style="3" customWidth="1"/>
-    <col min="3837" max="3837" width="5.109375" style="3" customWidth="1"/>
+    <col min="3827" max="3827" width="3.75" style="3" customWidth="1"/>
+    <col min="3828" max="3828" width="6.375" style="3" customWidth="1"/>
+    <col min="3829" max="3829" width="3.125" style="3" customWidth="1"/>
+    <col min="3830" max="3830" width="2.875" style="3" customWidth="1"/>
+    <col min="3831" max="3831" width="4.875" style="3" customWidth="1"/>
+    <col min="3832" max="3832" width="8.25" style="3" customWidth="1"/>
+    <col min="3833" max="3833" width="4.5" style="3" customWidth="1"/>
+    <col min="3834" max="3834" width="3.125" style="3" customWidth="1"/>
+    <col min="3835" max="3835" width="4.625" style="3" customWidth="1"/>
+    <col min="3836" max="3836" width="5.375" style="3" customWidth="1"/>
+    <col min="3837" max="3837" width="5.125" style="3" customWidth="1"/>
     <col min="3838" max="3838" width="3" style="3" customWidth="1"/>
-    <col min="3839" max="3839" width="3.6640625" style="3" customWidth="1"/>
-    <col min="3840" max="3840" width="3.21875" style="3" customWidth="1"/>
+    <col min="3839" max="3839" width="3.625" style="3" customWidth="1"/>
+    <col min="3840" max="3840" width="3.25" style="3" customWidth="1"/>
     <col min="3841" max="3841" width="5" style="3" customWidth="1"/>
-    <col min="3842" max="3842" width="4.6640625" style="3" customWidth="1"/>
-    <col min="3843" max="3843" width="4.21875" style="3" customWidth="1"/>
+    <col min="3842" max="3842" width="4.625" style="3" customWidth="1"/>
+    <col min="3843" max="3843" width="4.25" style="3" customWidth="1"/>
     <col min="3844" max="3844" width="3" style="3" customWidth="1"/>
-    <col min="3845" max="3845" width="6.21875" style="3" customWidth="1"/>
-    <col min="3846" max="3846" width="3.109375" style="3" customWidth="1"/>
-    <col min="3847" max="3847" width="5.33203125" style="3" customWidth="1"/>
+    <col min="3845" max="3845" width="6.25" style="3" customWidth="1"/>
+    <col min="3846" max="3846" width="3.125" style="3" customWidth="1"/>
+    <col min="3847" max="3847" width="5.375" style="3" customWidth="1"/>
     <col min="3848" max="4082" width="9" style="3"/>
-    <col min="4083" max="4083" width="3.77734375" style="3" customWidth="1"/>
-    <col min="4084" max="4084" width="6.33203125" style="3" customWidth="1"/>
-    <col min="4085" max="4085" width="3.109375" style="3" customWidth="1"/>
-    <col min="4086" max="4086" width="2.88671875" style="3" customWidth="1"/>
-    <col min="4087" max="4087" width="4.88671875" style="3" customWidth="1"/>
-    <col min="4088" max="4088" width="8.21875" style="3" customWidth="1"/>
-    <col min="4089" max="4089" width="4.44140625" style="3" customWidth="1"/>
-    <col min="4090" max="4090" width="3.109375" style="3" customWidth="1"/>
-    <col min="4091" max="4091" width="4.6640625" style="3" customWidth="1"/>
-    <col min="4092" max="4092" width="5.33203125" style="3" customWidth="1"/>
-    <col min="4093" max="4093" width="5.109375" style="3" customWidth="1"/>
+    <col min="4083" max="4083" width="3.75" style="3" customWidth="1"/>
+    <col min="4084" max="4084" width="6.375" style="3" customWidth="1"/>
+    <col min="4085" max="4085" width="3.125" style="3" customWidth="1"/>
+    <col min="4086" max="4086" width="2.875" style="3" customWidth="1"/>
+    <col min="4087" max="4087" width="4.875" style="3" customWidth="1"/>
+    <col min="4088" max="4088" width="8.25" style="3" customWidth="1"/>
+    <col min="4089" max="4089" width="4.5" style="3" customWidth="1"/>
+    <col min="4090" max="4090" width="3.125" style="3" customWidth="1"/>
+    <col min="4091" max="4091" width="4.625" style="3" customWidth="1"/>
+    <col min="4092" max="4092" width="5.375" style="3" customWidth="1"/>
+    <col min="4093" max="4093" width="5.125" style="3" customWidth="1"/>
     <col min="4094" max="4094" width="3" style="3" customWidth="1"/>
-    <col min="4095" max="4095" width="3.6640625" style="3" customWidth="1"/>
-    <col min="4096" max="4096" width="3.21875" style="3" customWidth="1"/>
+    <col min="4095" max="4095" width="3.625" style="3" customWidth="1"/>
+    <col min="4096" max="4096" width="3.25" style="3" customWidth="1"/>
     <col min="4097" max="4097" width="5" style="3" customWidth="1"/>
-    <col min="4098" max="4098" width="4.6640625" style="3" customWidth="1"/>
-    <col min="4099" max="4099" width="4.21875" style="3" customWidth="1"/>
+    <col min="4098" max="4098" width="4.625" style="3" customWidth="1"/>
+    <col min="4099" max="4099" width="4.25" style="3" customWidth="1"/>
     <col min="4100" max="4100" width="3" style="3" customWidth="1"/>
-    <col min="4101" max="4101" width="6.21875" style="3" customWidth="1"/>
-    <col min="4102" max="4102" width="3.109375" style="3" customWidth="1"/>
-    <col min="4103" max="4103" width="5.33203125" style="3" customWidth="1"/>
+    <col min="4101" max="4101" width="6.25" style="3" customWidth="1"/>
+    <col min="4102" max="4102" width="3.125" style="3" customWidth="1"/>
+    <col min="4103" max="4103" width="5.375" style="3" customWidth="1"/>
     <col min="4104" max="4338" width="9" style="3"/>
-    <col min="4339" max="4339" width="3.77734375" style="3" customWidth="1"/>
-    <col min="4340" max="4340" width="6.33203125" style="3" customWidth="1"/>
-    <col min="4341" max="4341" width="3.109375" style="3" customWidth="1"/>
-    <col min="4342" max="4342" width="2.88671875" style="3" customWidth="1"/>
-    <col min="4343" max="4343" width="4.88671875" style="3" customWidth="1"/>
-    <col min="4344" max="4344" width="8.21875" style="3" customWidth="1"/>
-    <col min="4345" max="4345" width="4.44140625" style="3" customWidth="1"/>
-    <col min="4346" max="4346" width="3.109375" style="3" customWidth="1"/>
-    <col min="4347" max="4347" width="4.6640625" style="3" customWidth="1"/>
-    <col min="4348" max="4348" width="5.33203125" style="3" customWidth="1"/>
-    <col min="4349" max="4349" width="5.109375" style="3" customWidth="1"/>
+    <col min="4339" max="4339" width="3.75" style="3" customWidth="1"/>
+    <col min="4340" max="4340" width="6.375" style="3" customWidth="1"/>
+    <col min="4341" max="4341" width="3.125" style="3" customWidth="1"/>
+    <col min="4342" max="4342" width="2.875" style="3" customWidth="1"/>
+    <col min="4343" max="4343" width="4.875" style="3" customWidth="1"/>
+    <col min="4344" max="4344" width="8.25" style="3" customWidth="1"/>
+    <col min="4345" max="4345" width="4.5" style="3" customWidth="1"/>
+    <col min="4346" max="4346" width="3.125" style="3" customWidth="1"/>
+    <col min="4347" max="4347" width="4.625" style="3" customWidth="1"/>
+    <col min="4348" max="4348" width="5.375" style="3" customWidth="1"/>
+    <col min="4349" max="4349" width="5.125" style="3" customWidth="1"/>
     <col min="4350" max="4350" width="3" style="3" customWidth="1"/>
-    <col min="4351" max="4351" width="3.6640625" style="3" customWidth="1"/>
-    <col min="4352" max="4352" width="3.21875" style="3" customWidth="1"/>
+    <col min="4351" max="4351" width="3.625" style="3" customWidth="1"/>
+    <col min="4352" max="4352" width="3.25" style="3" customWidth="1"/>
     <col min="4353" max="4353" width="5" style="3" customWidth="1"/>
-    <col min="4354" max="4354" width="4.6640625" style="3" customWidth="1"/>
-    <col min="4355" max="4355" width="4.21875" style="3" customWidth="1"/>
+    <col min="4354" max="4354" width="4.625" style="3" customWidth="1"/>
+    <col min="4355" max="4355" width="4.25" style="3" customWidth="1"/>
     <col min="4356" max="4356" width="3" style="3" customWidth="1"/>
-    <col min="4357" max="4357" width="6.21875" style="3" customWidth="1"/>
-    <col min="4358" max="4358" width="3.109375" style="3" customWidth="1"/>
-    <col min="4359" max="4359" width="5.33203125" style="3" customWidth="1"/>
+    <col min="4357" max="4357" width="6.25" style="3" customWidth="1"/>
+    <col min="4358" max="4358" width="3.125" style="3" customWidth="1"/>
+    <col min="4359" max="4359" width="5.375" style="3" customWidth="1"/>
     <col min="4360" max="4594" width="9" style="3"/>
-    <col min="4595" max="4595" width="3.77734375" style="3" customWidth="1"/>
-    <col min="4596" max="4596" width="6.33203125" style="3" customWidth="1"/>
-    <col min="4597" max="4597" width="3.109375" style="3" customWidth="1"/>
-    <col min="4598" max="4598" width="2.88671875" style="3" customWidth="1"/>
-    <col min="4599" max="4599" width="4.88671875" style="3" customWidth="1"/>
-    <col min="4600" max="4600" width="8.21875" style="3" customWidth="1"/>
-    <col min="4601" max="4601" width="4.44140625" style="3" customWidth="1"/>
-    <col min="4602" max="4602" width="3.109375" style="3" customWidth="1"/>
-    <col min="4603" max="4603" width="4.6640625" style="3" customWidth="1"/>
-    <col min="4604" max="4604" width="5.33203125" style="3" customWidth="1"/>
-    <col min="4605" max="4605" width="5.109375" style="3" customWidth="1"/>
+    <col min="4595" max="4595" width="3.75" style="3" customWidth="1"/>
+    <col min="4596" max="4596" width="6.375" style="3" customWidth="1"/>
+    <col min="4597" max="4597" width="3.125" style="3" customWidth="1"/>
+    <col min="4598" max="4598" width="2.875" style="3" customWidth="1"/>
+    <col min="4599" max="4599" width="4.875" style="3" customWidth="1"/>
+    <col min="4600" max="4600" width="8.25" style="3" customWidth="1"/>
+    <col min="4601" max="4601" width="4.5" style="3" customWidth="1"/>
+    <col min="4602" max="4602" width="3.125" style="3" customWidth="1"/>
+    <col min="4603" max="4603" width="4.625" style="3" customWidth="1"/>
+    <col min="4604" max="4604" width="5.375" style="3" customWidth="1"/>
+    <col min="4605" max="4605" width="5.125" style="3" customWidth="1"/>
     <col min="4606" max="4606" width="3" style="3" customWidth="1"/>
-    <col min="4607" max="4607" width="3.6640625" style="3" customWidth="1"/>
-    <col min="4608" max="4608" width="3.21875" style="3" customWidth="1"/>
+    <col min="4607" max="4607" width="3.625" style="3" customWidth="1"/>
+    <col min="4608" max="4608" width="3.25" style="3" customWidth="1"/>
     <col min="4609" max="4609" width="5" style="3" customWidth="1"/>
-    <col min="4610" max="4610" width="4.6640625" style="3" customWidth="1"/>
-    <col min="4611" max="4611" width="4.21875" style="3" customWidth="1"/>
+    <col min="4610" max="4610" width="4.625" style="3" customWidth="1"/>
+    <col min="4611" max="4611" width="4.25" style="3" customWidth="1"/>
     <col min="4612" max="4612" width="3" style="3" customWidth="1"/>
-    <col min="4613" max="4613" width="6.21875" style="3" customWidth="1"/>
-    <col min="4614" max="4614" width="3.109375" style="3" customWidth="1"/>
-    <col min="4615" max="4615" width="5.33203125" style="3" customWidth="1"/>
+    <col min="4613" max="4613" width="6.25" style="3" customWidth="1"/>
+    <col min="4614" max="4614" width="3.125" style="3" customWidth="1"/>
+    <col min="4615" max="4615" width="5.375" style="3" customWidth="1"/>
     <col min="4616" max="4850" width="9" style="3"/>
-    <col min="4851" max="4851" width="3.77734375" style="3" customWidth="1"/>
-    <col min="4852" max="4852" width="6.33203125" style="3" customWidth="1"/>
-    <col min="4853" max="4853" width="3.109375" style="3" customWidth="1"/>
-    <col min="4854" max="4854" width="2.88671875" style="3" customWidth="1"/>
-    <col min="4855" max="4855" width="4.88671875" style="3" customWidth="1"/>
-    <col min="4856" max="4856" width="8.21875" style="3" customWidth="1"/>
-    <col min="4857" max="4857" width="4.44140625" style="3" customWidth="1"/>
-    <col min="4858" max="4858" width="3.109375" style="3" customWidth="1"/>
-    <col min="4859" max="4859" width="4.6640625" style="3" customWidth="1"/>
-    <col min="4860" max="4860" width="5.33203125" style="3" customWidth="1"/>
-    <col min="4861" max="4861" width="5.109375" style="3" customWidth="1"/>
+    <col min="4851" max="4851" width="3.75" style="3" customWidth="1"/>
+    <col min="4852" max="4852" width="6.375" style="3" customWidth="1"/>
+    <col min="4853" max="4853" width="3.125" style="3" customWidth="1"/>
+    <col min="4854" max="4854" width="2.875" style="3" customWidth="1"/>
+    <col min="4855" max="4855" width="4.875" style="3" customWidth="1"/>
+    <col min="4856" max="4856" width="8.25" style="3" customWidth="1"/>
+    <col min="4857" max="4857" width="4.5" style="3" customWidth="1"/>
+    <col min="4858" max="4858" width="3.125" style="3" customWidth="1"/>
+    <col min="4859" max="4859" width="4.625" style="3" customWidth="1"/>
+    <col min="4860" max="4860" width="5.375" style="3" customWidth="1"/>
+    <col min="4861" max="4861" width="5.125" style="3" customWidth="1"/>
     <col min="4862" max="4862" width="3" style="3" customWidth="1"/>
-    <col min="4863" max="4863" width="3.6640625" style="3" customWidth="1"/>
-    <col min="4864" max="4864" width="3.21875" style="3" customWidth="1"/>
+    <col min="4863" max="4863" width="3.625" style="3" customWidth="1"/>
+    <col min="4864" max="4864" width="3.25" style="3" customWidth="1"/>
     <col min="4865" max="4865" width="5" style="3" customWidth="1"/>
-    <col min="4866" max="4866" width="4.6640625" style="3" customWidth="1"/>
-    <col min="4867" max="4867" width="4.21875" style="3" customWidth="1"/>
+    <col min="4866" max="4866" width="4.625" style="3" customWidth="1"/>
+    <col min="4867" max="4867" width="4.25" style="3" customWidth="1"/>
     <col min="4868" max="4868" width="3" style="3" customWidth="1"/>
-    <col min="4869" max="4869" width="6.21875" style="3" customWidth="1"/>
-    <col min="4870" max="4870" width="3.109375" style="3" customWidth="1"/>
-    <col min="4871" max="4871" width="5.33203125" style="3" customWidth="1"/>
+    <col min="4869" max="4869" width="6.25" style="3" customWidth="1"/>
+    <col min="4870" max="4870" width="3.125" style="3" customWidth="1"/>
+    <col min="4871" max="4871" width="5.375" style="3" customWidth="1"/>
     <col min="4872" max="5106" width="9" style="3"/>
-    <col min="5107" max="5107" width="3.77734375" style="3" customWidth="1"/>
-    <col min="5108" max="5108" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5109" max="5109" width="3.109375" style="3" customWidth="1"/>
-    <col min="5110" max="5110" width="2.88671875" style="3" customWidth="1"/>
-    <col min="5111" max="5111" width="4.88671875" style="3" customWidth="1"/>
-    <col min="5112" max="5112" width="8.21875" style="3" customWidth="1"/>
-    <col min="5113" max="5113" width="4.44140625" style="3" customWidth="1"/>
-    <col min="5114" max="5114" width="3.109375" style="3" customWidth="1"/>
-    <col min="5115" max="5115" width="4.6640625" style="3" customWidth="1"/>
-    <col min="5116" max="5116" width="5.33203125" style="3" customWidth="1"/>
-    <col min="5117" max="5117" width="5.109375" style="3" customWidth="1"/>
+    <col min="5107" max="5107" width="3.75" style="3" customWidth="1"/>
+    <col min="5108" max="5108" width="6.375" style="3" customWidth="1"/>
+    <col min="5109" max="5109" width="3.125" style="3" customWidth="1"/>
+    <col min="5110" max="5110" width="2.875" style="3" customWidth="1"/>
+    <col min="5111" max="5111" width="4.875" style="3" customWidth="1"/>
+    <col min="5112" max="5112" width="8.25" style="3" customWidth="1"/>
+    <col min="5113" max="5113" width="4.5" style="3" customWidth="1"/>
+    <col min="5114" max="5114" width="3.125" style="3" customWidth="1"/>
+    <col min="5115" max="5115" width="4.625" style="3" customWidth="1"/>
+    <col min="5116" max="5116" width="5.375" style="3" customWidth="1"/>
+    <col min="5117" max="5117" width="5.125" style="3" customWidth="1"/>
     <col min="5118" max="5118" width="3" style="3" customWidth="1"/>
-    <col min="5119" max="5119" width="3.6640625" style="3" customWidth="1"/>
-    <col min="5120" max="5120" width="3.21875" style="3" customWidth="1"/>
+    <col min="5119" max="5119" width="3.625" style="3" customWidth="1"/>
+    <col min="5120" max="5120" width="3.25" style="3" customWidth="1"/>
     <col min="5121" max="5121" width="5" style="3" customWidth="1"/>
-    <col min="5122" max="5122" width="4.6640625" style="3" customWidth="1"/>
-    <col min="5123" max="5123" width="4.21875" style="3" customWidth="1"/>
+    <col min="5122" max="5122" width="4.625" style="3" customWidth="1"/>
+    <col min="5123" max="5123" width="4.25" style="3" customWidth="1"/>
     <col min="5124" max="5124" width="3" style="3" customWidth="1"/>
-    <col min="5125" max="5125" width="6.21875" style="3" customWidth="1"/>
-    <col min="5126" max="5126" width="3.109375" style="3" customWidth="1"/>
-    <col min="5127" max="5127" width="5.33203125" style="3" customWidth="1"/>
+    <col min="5125" max="5125" width="6.25" style="3" customWidth="1"/>
+    <col min="5126" max="5126" width="3.125" style="3" customWidth="1"/>
+    <col min="5127" max="5127" width="5.375" style="3" customWidth="1"/>
     <col min="5128" max="5362" width="9" style="3"/>
-    <col min="5363" max="5363" width="3.77734375" style="3" customWidth="1"/>
-    <col min="5364" max="5364" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5365" max="5365" width="3.109375" style="3" customWidth="1"/>
-    <col min="5366" max="5366" width="2.88671875" style="3" customWidth="1"/>
-    <col min="5367" max="5367" width="4.88671875" style="3" customWidth="1"/>
-    <col min="5368" max="5368" width="8.21875" style="3" customWidth="1"/>
-    <col min="5369" max="5369" width="4.44140625" style="3" customWidth="1"/>
-    <col min="5370" max="5370" width="3.109375" style="3" customWidth="1"/>
-    <col min="5371" max="5371" width="4.6640625" style="3" customWidth="1"/>
-    <col min="5372" max="5372" width="5.33203125" style="3" customWidth="1"/>
-    <col min="5373" max="5373" width="5.109375" style="3" customWidth="1"/>
+    <col min="5363" max="5363" width="3.75" style="3" customWidth="1"/>
+    <col min="5364" max="5364" width="6.375" style="3" customWidth="1"/>
+    <col min="5365" max="5365" width="3.125" style="3" customWidth="1"/>
+    <col min="5366" max="5366" width="2.875" style="3" customWidth="1"/>
+    <col min="5367" max="5367" width="4.875" style="3" customWidth="1"/>
+    <col min="5368" max="5368" width="8.25" style="3" customWidth="1"/>
+    <col min="5369" max="5369" width="4.5" style="3" customWidth="1"/>
+    <col min="5370" max="5370" width="3.125" style="3" customWidth="1"/>
+    <col min="5371" max="5371" width="4.625" style="3" customWidth="1"/>
+    <col min="5372" max="5372" width="5.375" style="3" customWidth="1"/>
+    <col min="5373" max="5373" width="5.125" style="3" customWidth="1"/>
     <col min="5374" max="5374" width="3" style="3" customWidth="1"/>
-    <col min="5375" max="5375" width="3.6640625" style="3" customWidth="1"/>
-    <col min="5376" max="5376" width="3.21875" style="3" customWidth="1"/>
+    <col min="5375" max="5375" width="3.625" style="3" customWidth="1"/>
+    <col min="5376" max="5376" width="3.25" style="3" customWidth="1"/>
     <col min="5377" max="5377" width="5" style="3" customWidth="1"/>
-    <col min="5378" max="5378" width="4.6640625" style="3" customWidth="1"/>
-    <col min="5379" max="5379" width="4.21875" style="3" customWidth="1"/>
+    <col min="5378" max="5378" width="4.625" style="3" customWidth="1"/>
+    <col min="5379" max="5379" width="4.25" style="3" customWidth="1"/>
     <col min="5380" max="5380" width="3" style="3" customWidth="1"/>
-    <col min="5381" max="5381" width="6.21875" style="3" customWidth="1"/>
-    <col min="5382" max="5382" width="3.109375" style="3" customWidth="1"/>
-    <col min="5383" max="5383" width="5.33203125" style="3" customWidth="1"/>
+    <col min="5381" max="5381" width="6.25" style="3" customWidth="1"/>
+    <col min="5382" max="5382" width="3.125" style="3" customWidth="1"/>
+    <col min="5383" max="5383" width="5.375" style="3" customWidth="1"/>
     <col min="5384" max="5618" width="9" style="3"/>
-    <col min="5619" max="5619" width="3.77734375" style="3" customWidth="1"/>
-    <col min="5620" max="5620" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5621" max="5621" width="3.109375" style="3" customWidth="1"/>
-    <col min="5622" max="5622" width="2.88671875" style="3" customWidth="1"/>
-    <col min="5623" max="5623" width="4.88671875" style="3" customWidth="1"/>
-    <col min="5624" max="5624" width="8.21875" style="3" customWidth="1"/>
-    <col min="5625" max="5625" width="4.44140625" style="3" customWidth="1"/>
-    <col min="5626" max="5626" width="3.109375" style="3" customWidth="1"/>
-    <col min="5627" max="5627" width="4.6640625" style="3" customWidth="1"/>
-    <col min="5628" max="5628" width="5.33203125" style="3" customWidth="1"/>
-    <col min="5629" max="5629" width="5.109375" style="3" customWidth="1"/>
+    <col min="5619" max="5619" width="3.75" style="3" customWidth="1"/>
+    <col min="5620" max="5620" width="6.375" style="3" customWidth="1"/>
+    <col min="5621" max="5621" width="3.125" style="3" customWidth="1"/>
+    <col min="5622" max="5622" width="2.875" style="3" customWidth="1"/>
+    <col min="5623" max="5623" width="4.875" style="3" customWidth="1"/>
+    <col min="5624" max="5624" width="8.25" style="3" customWidth="1"/>
+    <col min="5625" max="5625" width="4.5" style="3" customWidth="1"/>
+    <col min="5626" max="5626" width="3.125" style="3" customWidth="1"/>
+    <col min="5627" max="5627" width="4.625" style="3" customWidth="1"/>
+    <col min="5628" max="5628" width="5.375" style="3" customWidth="1"/>
+    <col min="5629" max="5629" width="5.125" style="3" customWidth="1"/>
     <col min="5630" max="5630" width="3" style="3" customWidth="1"/>
-    <col min="5631" max="5631" width="3.6640625" style="3" customWidth="1"/>
-    <col min="5632" max="5632" width="3.21875" style="3" customWidth="1"/>
+    <col min="5631" max="5631" width="3.625" style="3" customWidth="1"/>
+    <col min="5632" max="5632" width="3.25" style="3" customWidth="1"/>
     <col min="5633" max="5633" width="5" style="3" customWidth="1"/>
-    <col min="5634" max="5634" width="4.6640625" style="3" customWidth="1"/>
-    <col min="5635" max="5635" width="4.21875" style="3" customWidth="1"/>
+    <col min="5634" max="5634" width="4.625" style="3" customWidth="1"/>
+    <col min="5635" max="5635" width="4.25" style="3" customWidth="1"/>
     <col min="5636" max="5636" width="3" style="3" customWidth="1"/>
-    <col min="5637" max="5637" width="6.21875" style="3" customWidth="1"/>
-    <col min="5638" max="5638" width="3.109375" style="3" customWidth="1"/>
-    <col min="5639" max="5639" width="5.33203125" style="3" customWidth="1"/>
+    <col min="5637" max="5637" width="6.25" style="3" customWidth="1"/>
+    <col min="5638" max="5638" width="3.125" style="3" customWidth="1"/>
+    <col min="5639" max="5639" width="5.375" style="3" customWidth="1"/>
     <col min="5640" max="5874" width="9" style="3"/>
-    <col min="5875" max="5875" width="3.77734375" style="3" customWidth="1"/>
-    <col min="5876" max="5876" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5877" max="5877" width="3.109375" style="3" customWidth="1"/>
-    <col min="5878" max="5878" width="2.88671875" style="3" customWidth="1"/>
-    <col min="5879" max="5879" width="4.88671875" style="3" customWidth="1"/>
-    <col min="5880" max="5880" width="8.21875" style="3" customWidth="1"/>
-    <col min="5881" max="5881" width="4.44140625" style="3" customWidth="1"/>
-    <col min="5882" max="5882" width="3.109375" style="3" customWidth="1"/>
-    <col min="5883" max="5883" width="4.6640625" style="3" customWidth="1"/>
-    <col min="5884" max="5884" width="5.33203125" style="3" customWidth="1"/>
-    <col min="5885" max="5885" width="5.109375" style="3" customWidth="1"/>
+    <col min="5875" max="5875" width="3.75" style="3" customWidth="1"/>
+    <col min="5876" max="5876" width="6.375" style="3" customWidth="1"/>
+    <col min="5877" max="5877" width="3.125" style="3" customWidth="1"/>
+    <col min="5878" max="5878" width="2.875" style="3" customWidth="1"/>
+    <col min="5879" max="5879" width="4.875" style="3" customWidth="1"/>
+    <col min="5880" max="5880" width="8.25" style="3" customWidth="1"/>
+    <col min="5881" max="5881" width="4.5" style="3" customWidth="1"/>
+    <col min="5882" max="5882" width="3.125" style="3" customWidth="1"/>
+    <col min="5883" max="5883" width="4.625" style="3" customWidth="1"/>
+    <col min="5884" max="5884" width="5.375" style="3" customWidth="1"/>
+    <col min="5885" max="5885" width="5.125" style="3" customWidth="1"/>
     <col min="5886" max="5886" width="3" style="3" customWidth="1"/>
-    <col min="5887" max="5887" width="3.6640625" style="3" customWidth="1"/>
-    <col min="5888" max="5888" width="3.21875" style="3" customWidth="1"/>
+    <col min="5887" max="5887" width="3.625" style="3" customWidth="1"/>
+    <col min="5888" max="5888" width="3.25" style="3" customWidth="1"/>
     <col min="5889" max="5889" width="5" style="3" customWidth="1"/>
-    <col min="5890" max="5890" width="4.6640625" style="3" customWidth="1"/>
-    <col min="5891" max="5891" width="4.21875" style="3" customWidth="1"/>
+    <col min="5890" max="5890" width="4.625" style="3" customWidth="1"/>
+    <col min="5891" max="5891" width="4.25" style="3" customWidth="1"/>
     <col min="5892" max="5892" width="3" style="3" customWidth="1"/>
-    <col min="5893" max="5893" width="6.21875" style="3" customWidth="1"/>
-    <col min="5894" max="5894" width="3.109375" style="3" customWidth="1"/>
-    <col min="5895" max="5895" width="5.33203125" style="3" customWidth="1"/>
+    <col min="5893" max="5893" width="6.25" style="3" customWidth="1"/>
+    <col min="5894" max="5894" width="3.125" style="3" customWidth="1"/>
+    <col min="5895" max="5895" width="5.375" style="3" customWidth="1"/>
     <col min="5896" max="6130" width="9" style="3"/>
-    <col min="6131" max="6131" width="3.77734375" style="3" customWidth="1"/>
-    <col min="6132" max="6132" width="6.33203125" style="3" customWidth="1"/>
-    <col min="6133" max="6133" width="3.109375" style="3" customWidth="1"/>
-    <col min="6134" max="6134" width="2.88671875" style="3" customWidth="1"/>
-    <col min="6135" max="6135" width="4.88671875" style="3" customWidth="1"/>
-    <col min="6136" max="6136" width="8.21875" style="3" customWidth="1"/>
-    <col min="6137" max="6137" width="4.44140625" style="3" customWidth="1"/>
-    <col min="6138" max="6138" width="3.109375" style="3" customWidth="1"/>
-    <col min="6139" max="6139" width="4.6640625" style="3" customWidth="1"/>
-    <col min="6140" max="6140" width="5.33203125" style="3" customWidth="1"/>
-    <col min="6141" max="6141" width="5.109375" style="3" customWidth="1"/>
+    <col min="6131" max="6131" width="3.75" style="3" customWidth="1"/>
+    <col min="6132" max="6132" width="6.375" style="3" customWidth="1"/>
+    <col min="6133" max="6133" width="3.125" style="3" customWidth="1"/>
+    <col min="6134" max="6134" width="2.875" style="3" customWidth="1"/>
+    <col min="6135" max="6135" width="4.875" style="3" customWidth="1"/>
+    <col min="6136" max="6136" width="8.25" style="3" customWidth="1"/>
+    <col min="6137" max="6137" width="4.5" style="3" customWidth="1"/>
+    <col min="6138" max="6138" width="3.125" style="3" customWidth="1"/>
+    <col min="6139" max="6139" width="4.625" style="3" customWidth="1"/>
+    <col min="6140" max="6140" width="5.375" style="3" customWidth="1"/>
+    <col min="6141" max="6141" width="5.125" style="3" customWidth="1"/>
     <col min="6142" max="6142" width="3" style="3" customWidth="1"/>
-    <col min="6143" max="6143" width="3.6640625" style="3" customWidth="1"/>
-    <col min="6144" max="6144" width="3.21875" style="3" customWidth="1"/>
+    <col min="6143" max="6143" width="3.625" style="3" customWidth="1"/>
+    <col min="6144" max="6144" width="3.25" style="3" customWidth="1"/>
     <col min="6145" max="6145" width="5" style="3" customWidth="1"/>
-    <col min="6146" max="6146" width="4.6640625" style="3" customWidth="1"/>
-    <col min="6147" max="6147" width="4.21875" style="3" customWidth="1"/>
+    <col min="6146" max="6146" width="4.625" style="3" customWidth="1"/>
+    <col min="6147" max="6147" width="4.25" style="3" customWidth="1"/>
     <col min="6148" max="6148" width="3" style="3" customWidth="1"/>
-    <col min="6149" max="6149" width="6.21875" style="3" customWidth="1"/>
-    <col min="6150" max="6150" width="3.109375" style="3" customWidth="1"/>
-    <col min="6151" max="6151" width="5.33203125" style="3" customWidth="1"/>
+    <col min="6149" max="6149" width="6.25" style="3" customWidth="1"/>
+    <col min="6150" max="6150" width="3.125" style="3" customWidth="1"/>
+    <col min="6151" max="6151" width="5.375" style="3" customWidth="1"/>
     <col min="6152" max="6386" width="9" style="3"/>
-    <col min="6387" max="6387" width="3.77734375" style="3" customWidth="1"/>
-    <col min="6388" max="6388" width="6.33203125" style="3" customWidth="1"/>
-    <col min="6389" max="6389" width="3.109375" style="3" customWidth="1"/>
-    <col min="6390" max="6390" width="2.88671875" style="3" customWidth="1"/>
-    <col min="6391" max="6391" width="4.88671875" style="3" customWidth="1"/>
-    <col min="6392" max="6392" width="8.21875" style="3" customWidth="1"/>
-    <col min="6393" max="6393" width="4.44140625" style="3" customWidth="1"/>
-    <col min="6394" max="6394" width="3.109375" style="3" customWidth="1"/>
-    <col min="6395" max="6395" width="4.6640625" style="3" customWidth="1"/>
-    <col min="6396" max="6396" width="5.33203125" style="3" customWidth="1"/>
-    <col min="6397" max="6397" width="5.109375" style="3" customWidth="1"/>
+    <col min="6387" max="6387" width="3.75" style="3" customWidth="1"/>
+    <col min="6388" max="6388" width="6.375" style="3" customWidth="1"/>
+    <col min="6389" max="6389" width="3.125" style="3" customWidth="1"/>
+    <col min="6390" max="6390" width="2.875" style="3" customWidth="1"/>
+    <col min="6391" max="6391" width="4.875" style="3" customWidth="1"/>
+    <col min="6392" max="6392" width="8.25" style="3" customWidth="1"/>
+    <col min="6393" max="6393" width="4.5" style="3" customWidth="1"/>
+    <col min="6394" max="6394" width="3.125" style="3" customWidth="1"/>
+    <col min="6395" max="6395" width="4.625" style="3" customWidth="1"/>
+    <col min="6396" max="6396" width="5.375" style="3" customWidth="1"/>
+    <col min="6397" max="6397" width="5.125" style="3" customWidth="1"/>
     <col min="6398" max="6398" width="3" style="3" customWidth="1"/>
-    <col min="6399" max="6399" width="3.6640625" style="3" customWidth="1"/>
-    <col min="6400" max="6400" width="3.21875" style="3" customWidth="1"/>
+    <col min="6399" max="6399" width="3.625" style="3" customWidth="1"/>
+    <col min="6400" max="6400" width="3.25" style="3" customWidth="1"/>
     <col min="6401" max="6401" width="5" style="3" customWidth="1"/>
-    <col min="6402" max="6402" width="4.6640625" style="3" customWidth="1"/>
-    <col min="6403" max="6403" width="4.21875" style="3" customWidth="1"/>
+    <col min="6402" max="6402" width="4.625" style="3" customWidth="1"/>
+    <col min="6403" max="6403" width="4.25" style="3" customWidth="1"/>
     <col min="6404" max="6404" width="3" style="3" customWidth="1"/>
-    <col min="6405" max="6405" width="6.21875" style="3" customWidth="1"/>
-    <col min="6406" max="6406" width="3.109375" style="3" customWidth="1"/>
-    <col min="6407" max="6407" width="5.33203125" style="3" customWidth="1"/>
+    <col min="6405" max="6405" width="6.25" style="3" customWidth="1"/>
+    <col min="6406" max="6406" width="3.125" style="3" customWidth="1"/>
+    <col min="6407" max="6407" width="5.375" style="3" customWidth="1"/>
     <col min="6408" max="6642" width="9" style="3"/>
-    <col min="6643" max="6643" width="3.77734375" style="3" customWidth="1"/>
-    <col min="6644" max="6644" width="6.33203125" style="3" customWidth="1"/>
-    <col min="6645" max="6645" width="3.109375" style="3" customWidth="1"/>
-    <col min="6646" max="6646" width="2.88671875" style="3" customWidth="1"/>
-    <col min="6647" max="6647" width="4.88671875" style="3" customWidth="1"/>
-    <col min="6648" max="6648" width="8.21875" style="3" customWidth="1"/>
-    <col min="6649" max="6649" width="4.44140625" style="3" customWidth="1"/>
-    <col min="6650" max="6650" width="3.109375" style="3" customWidth="1"/>
-    <col min="6651" max="6651" width="4.6640625" style="3" customWidth="1"/>
-    <col min="6652" max="6652" width="5.33203125" style="3" customWidth="1"/>
-    <col min="6653" max="6653" width="5.109375" style="3" customWidth="1"/>
+    <col min="6643" max="6643" width="3.75" style="3" customWidth="1"/>
+    <col min="6644" max="6644" width="6.375" style="3" customWidth="1"/>
+    <col min="6645" max="6645" width="3.125" style="3" customWidth="1"/>
+    <col min="6646" max="6646" width="2.875" style="3" customWidth="1"/>
+    <col min="6647" max="6647" width="4.875" style="3" customWidth="1"/>
+    <col min="6648" max="6648" width="8.25" style="3" customWidth="1"/>
+    <col min="6649" max="6649" width="4.5" style="3" customWidth="1"/>
+    <col min="6650" max="6650" width="3.125" style="3" customWidth="1"/>
+    <col min="6651" max="6651" width="4.625" style="3" customWidth="1"/>
+    <col min="6652" max="6652" width="5.375" style="3" customWidth="1"/>
+    <col min="6653" max="6653" width="5.125" style="3" customWidth="1"/>
     <col min="6654" max="6654" width="3" style="3" customWidth="1"/>
-    <col min="6655" max="6655" width="3.6640625" style="3" customWidth="1"/>
-    <col min="6656" max="6656" width="3.21875" style="3" customWidth="1"/>
+    <col min="6655" max="6655" width="3.625" style="3" customWidth="1"/>
+    <col min="6656" max="6656" width="3.25" style="3" customWidth="1"/>
     <col min="6657" max="6657" width="5" style="3" customWidth="1"/>
-    <col min="6658" max="6658" width="4.6640625" style="3" customWidth="1"/>
-    <col min="6659" max="6659" width="4.21875" style="3" customWidth="1"/>
+    <col min="6658" max="6658" width="4.625" style="3" customWidth="1"/>
+    <col min="6659" max="6659" width="4.25" style="3" customWidth="1"/>
     <col min="6660" max="6660" width="3" style="3" customWidth="1"/>
-    <col min="6661" max="6661" width="6.21875" style="3" customWidth="1"/>
-    <col min="6662" max="6662" width="3.109375" style="3" customWidth="1"/>
-    <col min="6663" max="6663" width="5.33203125" style="3" customWidth="1"/>
+    <col min="6661" max="6661" width="6.25" style="3" customWidth="1"/>
+    <col min="6662" max="6662" width="3.125" style="3" customWidth="1"/>
+    <col min="6663" max="6663" width="5.375" style="3" customWidth="1"/>
     <col min="6664" max="6898" width="9" style="3"/>
-    <col min="6899" max="6899" width="3.77734375" style="3" customWidth="1"/>
-    <col min="6900" max="6900" width="6.33203125" style="3" customWidth="1"/>
-    <col min="6901" max="6901" width="3.109375" style="3" customWidth="1"/>
-    <col min="6902" max="6902" width="2.88671875" style="3" customWidth="1"/>
-    <col min="6903" max="6903" width="4.88671875" style="3" customWidth="1"/>
-    <col min="6904" max="6904" width="8.21875" style="3" customWidth="1"/>
-    <col min="6905" max="6905" width="4.44140625" style="3" customWidth="1"/>
-    <col min="6906" max="6906" width="3.109375" style="3" customWidth="1"/>
-    <col min="6907" max="6907" width="4.6640625" style="3" customWidth="1"/>
-    <col min="6908" max="6908" width="5.33203125" style="3" customWidth="1"/>
-    <col min="6909" max="6909" width="5.109375" style="3" customWidth="1"/>
+    <col min="6899" max="6899" width="3.75" style="3" customWidth="1"/>
+    <col min="6900" max="6900" width="6.375" style="3" customWidth="1"/>
+    <col min="6901" max="6901" width="3.125" style="3" customWidth="1"/>
+    <col min="6902" max="6902" width="2.875" style="3" customWidth="1"/>
+    <col min="6903" max="6903" width="4.875" style="3" customWidth="1"/>
+    <col min="6904" max="6904" width="8.25" style="3" customWidth="1"/>
+    <col min="6905" max="6905" width="4.5" style="3" customWidth="1"/>
+    <col min="6906" max="6906" width="3.125" style="3" customWidth="1"/>
+    <col min="6907" max="6907" width="4.625" style="3" customWidth="1"/>
+    <col min="6908" max="6908" width="5.375" style="3" customWidth="1"/>
+    <col min="6909" max="6909" width="5.125" style="3" customWidth="1"/>
     <col min="6910" max="6910" width="3" style="3" customWidth="1"/>
-    <col min="6911" max="6911" width="3.6640625" style="3" customWidth="1"/>
-    <col min="6912" max="6912" width="3.21875" style="3" customWidth="1"/>
+    <col min="6911" max="6911" width="3.625" style="3" customWidth="1"/>
+    <col min="6912" max="6912" width="3.25" style="3" customWidth="1"/>
     <col min="6913" max="6913" width="5" style="3" customWidth="1"/>
-    <col min="6914" max="6914" width="4.6640625" style="3" customWidth="1"/>
-    <col min="6915" max="6915" width="4.21875" style="3" customWidth="1"/>
+    <col min="6914" max="6914" width="4.625" style="3" customWidth="1"/>
+    <col min="6915" max="6915" width="4.25" style="3" customWidth="1"/>
     <col min="6916" max="6916" width="3" style="3" customWidth="1"/>
-    <col min="6917" max="6917" width="6.21875" style="3" customWidth="1"/>
-    <col min="6918" max="6918" width="3.109375" style="3" customWidth="1"/>
-    <col min="6919" max="6919" width="5.33203125" style="3" customWidth="1"/>
+    <col min="6917" max="6917" width="6.25" style="3" customWidth="1"/>
+    <col min="6918" max="6918" width="3.125" style="3" customWidth="1"/>
+    <col min="6919" max="6919" width="5.375" style="3" customWidth="1"/>
     <col min="6920" max="7154" width="9" style="3"/>
-    <col min="7155" max="7155" width="3.77734375" style="3" customWidth="1"/>
-    <col min="7156" max="7156" width="6.33203125" style="3" customWidth="1"/>
-    <col min="7157" max="7157" width="3.109375" style="3" customWidth="1"/>
-    <col min="7158" max="7158" width="2.88671875" style="3" customWidth="1"/>
-    <col min="7159" max="7159" width="4.88671875" style="3" customWidth="1"/>
-    <col min="7160" max="7160" width="8.21875" style="3" customWidth="1"/>
-    <col min="7161" max="7161" width="4.44140625" style="3" customWidth="1"/>
-    <col min="7162" max="7162" width="3.109375" style="3" customWidth="1"/>
-    <col min="7163" max="7163" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7164" max="7164" width="5.33203125" style="3" customWidth="1"/>
-    <col min="7165" max="7165" width="5.109375" style="3" customWidth="1"/>
+    <col min="7155" max="7155" width="3.75" style="3" customWidth="1"/>
+    <col min="7156" max="7156" width="6.375" style="3" customWidth="1"/>
+    <col min="7157" max="7157" width="3.125" style="3" customWidth="1"/>
+    <col min="7158" max="7158" width="2.875" style="3" customWidth="1"/>
+    <col min="7159" max="7159" width="4.875" style="3" customWidth="1"/>
+    <col min="7160" max="7160" width="8.25" style="3" customWidth="1"/>
+    <col min="7161" max="7161" width="4.5" style="3" customWidth="1"/>
+    <col min="7162" max="7162" width="3.125" style="3" customWidth="1"/>
+    <col min="7163" max="7163" width="4.625" style="3" customWidth="1"/>
+    <col min="7164" max="7164" width="5.375" style="3" customWidth="1"/>
+    <col min="7165" max="7165" width="5.125" style="3" customWidth="1"/>
     <col min="7166" max="7166" width="3" style="3" customWidth="1"/>
-    <col min="7167" max="7167" width="3.6640625" style="3" customWidth="1"/>
-    <col min="7168" max="7168" width="3.21875" style="3" customWidth="1"/>
+    <col min="7167" max="7167" width="3.625" style="3" customWidth="1"/>
+    <col min="7168" max="7168" width="3.25" style="3" customWidth="1"/>
     <col min="7169" max="7169" width="5" style="3" customWidth="1"/>
-    <col min="7170" max="7170" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7171" max="7171" width="4.21875" style="3" customWidth="1"/>
+    <col min="7170" max="7170" width="4.625" style="3" customWidth="1"/>
+    <col min="7171" max="7171" width="4.25" style="3" customWidth="1"/>
     <col min="7172" max="7172" width="3" style="3" customWidth="1"/>
-    <col min="7173" max="7173" width="6.21875" style="3" customWidth="1"/>
-    <col min="7174" max="7174" width="3.109375" style="3" customWidth="1"/>
-    <col min="7175" max="7175" width="5.33203125" style="3" customWidth="1"/>
+    <col min="7173" max="7173" width="6.25" style="3" customWidth="1"/>
+    <col min="7174" max="7174" width="3.125" style="3" customWidth="1"/>
+    <col min="7175" max="7175" width="5.375" style="3" customWidth="1"/>
     <col min="7176" max="7410" width="9" style="3"/>
-    <col min="7411" max="7411" width="3.77734375" style="3" customWidth="1"/>
-    <col min="7412" max="7412" width="6.33203125" style="3" customWidth="1"/>
-    <col min="7413" max="7413" width="3.109375" style="3" customWidth="1"/>
-    <col min="7414" max="7414" width="2.88671875" style="3" customWidth="1"/>
-    <col min="7415" max="7415" width="4.88671875" style="3" customWidth="1"/>
-    <col min="7416" max="7416" width="8.21875" style="3" customWidth="1"/>
-    <col min="7417" max="7417" width="4.44140625" style="3" customWidth="1"/>
-    <col min="7418" max="7418" width="3.109375" style="3" customWidth="1"/>
-    <col min="7419" max="7419" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7420" max="7420" width="5.33203125" style="3" customWidth="1"/>
-    <col min="7421" max="7421" width="5.109375" style="3" customWidth="1"/>
+    <col min="7411" max="7411" width="3.75" style="3" customWidth="1"/>
+    <col min="7412" max="7412" width="6.375" style="3" customWidth="1"/>
+    <col min="7413" max="7413" width="3.125" style="3" customWidth="1"/>
+    <col min="7414" max="7414" width="2.875" style="3" customWidth="1"/>
+    <col min="7415" max="7415" width="4.875" style="3" customWidth="1"/>
+    <col min="7416" max="7416" width="8.25" style="3" customWidth="1"/>
+    <col min="7417" max="7417" width="4.5" style="3" customWidth="1"/>
+    <col min="7418" max="7418" width="3.125" style="3" customWidth="1"/>
+    <col min="7419" max="7419" width="4.625" style="3" customWidth="1"/>
+    <col min="7420" max="7420" width="5.375" style="3" customWidth="1"/>
+    <col min="7421" max="7421" width="5.125" style="3" customWidth="1"/>
     <col min="7422" max="7422" width="3" style="3" customWidth="1"/>
-    <col min="7423" max="7423" width="3.6640625" style="3" customWidth="1"/>
-    <col min="7424" max="7424" width="3.21875" style="3" customWidth="1"/>
+    <col min="7423" max="7423" width="3.625" style="3" customWidth="1"/>
+    <col min="7424" max="7424" width="3.25" style="3" customWidth="1"/>
     <col min="7425" max="7425" width="5" style="3" customWidth="1"/>
-    <col min="7426" max="7426" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7427" max="7427" width="4.21875" style="3" customWidth="1"/>
+    <col min="7426" max="7426" width="4.625" style="3" customWidth="1"/>
+    <col min="7427" max="7427" width="4.25" style="3" customWidth="1"/>
     <col min="7428" max="7428" width="3" style="3" customWidth="1"/>
-    <col min="7429" max="7429" width="6.21875" style="3" customWidth="1"/>
-    <col min="7430" max="7430" width="3.109375" style="3" customWidth="1"/>
-    <col min="7431" max="7431" width="5.33203125" style="3" customWidth="1"/>
+    <col min="7429" max="7429" width="6.25" style="3" customWidth="1"/>
+    <col min="7430" max="7430" width="3.125" style="3" customWidth="1"/>
+    <col min="7431" max="7431" width="5.375" style="3" customWidth="1"/>
     <col min="7432" max="7666" width="9" style="3"/>
-    <col min="7667" max="7667" width="3.77734375" style="3" customWidth="1"/>
-    <col min="7668" max="7668" width="6.33203125" style="3" customWidth="1"/>
-    <col min="7669" max="7669" width="3.109375" style="3" customWidth="1"/>
-    <col min="7670" max="7670" width="2.88671875" style="3" customWidth="1"/>
-    <col min="7671" max="7671" width="4.88671875" style="3" customWidth="1"/>
-    <col min="7672" max="7672" width="8.21875" style="3" customWidth="1"/>
-    <col min="7673" max="7673" width="4.44140625" style="3" customWidth="1"/>
-    <col min="7674" max="7674" width="3.109375" style="3" customWidth="1"/>
-    <col min="7675" max="7675" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7676" max="7676" width="5.33203125" style="3" customWidth="1"/>
-    <col min="7677" max="7677" width="5.109375" style="3" customWidth="1"/>
+    <col min="7667" max="7667" width="3.75" style="3" customWidth="1"/>
+    <col min="7668" max="7668" width="6.375" style="3" customWidth="1"/>
+    <col min="7669" max="7669" width="3.125" style="3" customWidth="1"/>
+    <col min="7670" max="7670" width="2.875" style="3" customWidth="1"/>
+    <col min="7671" max="7671" width="4.875" style="3" customWidth="1"/>
+    <col min="7672" max="7672" width="8.25" style="3" customWidth="1"/>
+    <col min="7673" max="7673" width="4.5" style="3" customWidth="1"/>
+    <col min="7674" max="7674" width="3.125" style="3" customWidth="1"/>
+    <col min="7675" max="7675" width="4.625" style="3" customWidth="1"/>
+    <col min="7676" max="7676" width="5.375" style="3" customWidth="1"/>
+    <col min="7677" max="7677" width="5.125" style="3" customWidth="1"/>
     <col min="7678" max="7678" width="3" style="3" customWidth="1"/>
-    <col min="7679" max="7679" width="3.6640625" style="3" customWidth="1"/>
-    <col min="7680" max="7680" width="3.21875" style="3" customWidth="1"/>
+    <col min="7679" max="7679" width="3.625" style="3" customWidth="1"/>
+    <col min="7680" max="7680" width="3.25" style="3" customWidth="1"/>
     <col min="7681" max="7681" width="5" style="3" customWidth="1"/>
-    <col min="7682" max="7682" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7683" max="7683" width="4.21875" style="3" customWidth="1"/>
+    <col min="7682" max="7682" width="4.625" style="3" customWidth="1"/>
+    <col min="7683" max="7683" width="4.25" style="3" customWidth="1"/>
     <col min="7684" max="7684" width="3" style="3" customWidth="1"/>
-    <col min="7685" max="7685" width="6.21875" style="3" customWidth="1"/>
-    <col min="7686" max="7686" width="3.109375" style="3" customWidth="1"/>
-    <col min="7687" max="7687" width="5.33203125" style="3" customWidth="1"/>
+    <col min="7685" max="7685" width="6.25" style="3" customWidth="1"/>
+    <col min="7686" max="7686" width="3.125" style="3" customWidth="1"/>
+    <col min="7687" max="7687" width="5.375" style="3" customWidth="1"/>
     <col min="7688" max="7922" width="9" style="3"/>
-    <col min="7923" max="7923" width="3.77734375" style="3" customWidth="1"/>
-    <col min="7924" max="7924" width="6.33203125" style="3" customWidth="1"/>
-    <col min="7925" max="7925" width="3.109375" style="3" customWidth="1"/>
-    <col min="7926" max="7926" width="2.88671875" style="3" customWidth="1"/>
-    <col min="7927" max="7927" width="4.88671875" style="3" customWidth="1"/>
-    <col min="7928" max="7928" width="8.21875" style="3" customWidth="1"/>
-    <col min="7929" max="7929" width="4.44140625" style="3" customWidth="1"/>
-    <col min="7930" max="7930" width="3.109375" style="3" customWidth="1"/>
-    <col min="7931" max="7931" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7932" max="7932" width="5.33203125" style="3" customWidth="1"/>
-    <col min="7933" max="7933" width="5.109375" style="3" customWidth="1"/>
+    <col min="7923" max="7923" width="3.75" style="3" customWidth="1"/>
+    <col min="7924" max="7924" width="6.375" style="3" customWidth="1"/>
+    <col min="7925" max="7925" width="3.125" style="3" customWidth="1"/>
+    <col min="7926" max="7926" width="2.875" style="3" customWidth="1"/>
+    <col min="7927" max="7927" width="4.875" style="3" customWidth="1"/>
+    <col min="7928" max="7928" width="8.25" style="3" customWidth="1"/>
+    <col min="7929" max="7929" width="4.5" style="3" customWidth="1"/>
+    <col min="7930" max="7930" width="3.125" style="3" customWidth="1"/>
+    <col min="7931" max="7931" width="4.625" style="3" customWidth="1"/>
+    <col min="7932" max="7932" width="5.375" style="3" customWidth="1"/>
+    <col min="7933" max="7933" width="5.125" style="3" customWidth="1"/>
     <col min="7934" max="7934" width="3" style="3" customWidth="1"/>
-    <col min="7935" max="7935" width="3.6640625" style="3" customWidth="1"/>
-    <col min="7936" max="7936" width="3.21875" style="3" customWidth="1"/>
+    <col min="7935" max="7935" width="3.625" style="3" customWidth="1"/>
+    <col min="7936" max="7936" width="3.25" style="3" customWidth="1"/>
     <col min="7937" max="7937" width="5" style="3" customWidth="1"/>
-    <col min="7938" max="7938" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7939" max="7939" width="4.21875" style="3" customWidth="1"/>
+    <col min="7938" max="7938" width="4.625" style="3" customWidth="1"/>
+    <col min="7939" max="7939" width="4.25" style="3" customWidth="1"/>
     <col min="7940" max="7940" width="3" style="3" customWidth="1"/>
-    <col min="7941" max="7941" width="6.21875" style="3" customWidth="1"/>
-    <col min="7942" max="7942" width="3.109375" style="3" customWidth="1"/>
-    <col min="7943" max="7943" width="5.33203125" style="3" customWidth="1"/>
+    <col min="7941" max="7941" width="6.25" style="3" customWidth="1"/>
+    <col min="7942" max="7942" width="3.125" style="3" customWidth="1"/>
+    <col min="7943" max="7943" width="5.375" style="3" customWidth="1"/>
     <col min="7944" max="8178" width="9" style="3"/>
-    <col min="8179" max="8179" width="3.77734375" style="3" customWidth="1"/>
-    <col min="8180" max="8180" width="6.33203125" style="3" customWidth="1"/>
-    <col min="8181" max="8181" width="3.109375" style="3" customWidth="1"/>
-    <col min="8182" max="8182" width="2.88671875" style="3" customWidth="1"/>
-    <col min="8183" max="8183" width="4.88671875" style="3" customWidth="1"/>
-    <col min="8184" max="8184" width="8.21875" style="3" customWidth="1"/>
-    <col min="8185" max="8185" width="4.44140625" style="3" customWidth="1"/>
-    <col min="8186" max="8186" width="3.109375" style="3" customWidth="1"/>
-    <col min="8187" max="8187" width="4.6640625" style="3" customWidth="1"/>
-    <col min="8188" max="8188" width="5.33203125" style="3" customWidth="1"/>
-    <col min="8189" max="8189" width="5.109375" style="3" customWidth="1"/>
+    <col min="8179" max="8179" width="3.75" style="3" customWidth="1"/>
+    <col min="8180" max="8180" width="6.375" style="3" customWidth="1"/>
+    <col min="8181" max="8181" width="3.125" style="3" customWidth="1"/>
+    <col min="8182" max="8182" width="2.875" style="3" customWidth="1"/>
+    <col min="8183" max="8183" width="4.875" style="3" customWidth="1"/>
+    <col min="8184" max="8184" width="8.25" style="3" customWidth="1"/>
+    <col min="8185" max="8185" width="4.5" style="3" customWidth="1"/>
+    <col min="8186" max="8186" width="3.125" style="3" customWidth="1"/>
+    <col min="8187" max="8187" width="4.625" style="3" customWidth="1"/>
+    <col min="8188" max="8188" width="5.375" style="3" customWidth="1"/>
+    <col min="8189" max="8189" width="5.125" style="3" customWidth="1"/>
     <col min="8190" max="8190" width="3" style="3" customWidth="1"/>
-    <col min="8191" max="8191" width="3.6640625" style="3" customWidth="1"/>
-    <col min="8192" max="8192" width="3.21875" style="3" customWidth="1"/>
+    <col min="8191" max="8191" width="3.625" style="3" customWidth="1"/>
+    <col min="8192" max="8192" width="3.25" style="3" customWidth="1"/>
     <col min="8193" max="8193" width="5" style="3" customWidth="1"/>
-    <col min="8194" max="8194" width="4.6640625" style="3" customWidth="1"/>
-    <col min="8195" max="8195" width="4.21875" style="3" customWidth="1"/>
+    <col min="8194" max="8194" width="4.625" style="3" customWidth="1"/>
+    <col min="8195" max="8195" width="4.25" style="3" customWidth="1"/>
     <col min="8196" max="8196" width="3" style="3" customWidth="1"/>
-    <col min="8197" max="8197" width="6.21875" style="3" customWidth="1"/>
-    <col min="8198" max="8198" width="3.109375" style="3" customWidth="1"/>
-    <col min="8199" max="8199" width="5.33203125" style="3" customWidth="1"/>
+    <col min="8197" max="8197" width="6.25" style="3" customWidth="1"/>
+    <col min="8198" max="8198" width="3.125" style="3" customWidth="1"/>
+    <col min="8199" max="8199" width="5.375" style="3" customWidth="1"/>
     <col min="8200" max="8434" width="9" style="3"/>
-    <col min="8435" max="8435" width="3.77734375" style="3" customWidth="1"/>
-    <col min="8436" max="8436" width="6.33203125" style="3" customWidth="1"/>
-    <col min="8437" max="8437" width="3.109375" style="3" customWidth="1"/>
-    <col min="8438" max="8438" width="2.88671875" style="3" customWidth="1"/>
-    <col min="8439" max="8439" width="4.88671875" style="3" customWidth="1"/>
-    <col min="8440" max="8440" width="8.21875" style="3" customWidth="1"/>
-    <col min="8441" max="8441" width="4.44140625" style="3" customWidth="1"/>
-    <col min="8442" max="8442" width="3.109375" style="3" customWidth="1"/>
-    <col min="8443" max="8443" width="4.6640625" style="3" customWidth="1"/>
-    <col min="8444" max="8444" width="5.33203125" style="3" customWidth="1"/>
-    <col min="8445" max="8445" width="5.109375" style="3" customWidth="1"/>
+    <col min="8435" max="8435" width="3.75" style="3" customWidth="1"/>
+    <col min="8436" max="8436" width="6.375" style="3" customWidth="1"/>
+    <col min="8437" max="8437" width="3.125" style="3" customWidth="1"/>
+    <col min="8438" max="8438" width="2.875" style="3" customWidth="1"/>
+    <col min="8439" max="8439" width="4.875" style="3" customWidth="1"/>
+    <col min="8440" max="8440" width="8.25" style="3" customWidth="1"/>
+    <col min="8441" max="8441" width="4.5" style="3" customWidth="1"/>
+    <col min="8442" max="8442" width="3.125" style="3" customWidth="1"/>
+    <col min="8443" max="8443" width="4.625" style="3" customWidth="1"/>
+    <col min="8444" max="8444" width="5.375" style="3" customWidth="1"/>
+    <col min="8445" max="8445" width="5.125" style="3" customWidth="1"/>
     <col min="8446" max="8446" width="3" style="3" customWidth="1"/>
-    <col min="8447" max="8447" width="3.6640625" style="3" customWidth="1"/>
-    <col min="8448" max="8448" width="3.21875" style="3" customWidth="1"/>
+    <col min="8447" max="8447" width="3.625" style="3" customWidth="1"/>
+    <col min="8448" max="8448" width="3.25" style="3" customWidth="1"/>
     <col min="8449" max="8449" width="5" style="3" customWidth="1"/>
-    <col min="8450" max="8450" width="4.6640625" style="3" customWidth="1"/>
-    <col min="8451" max="8451" width="4.21875" style="3" customWidth="1"/>
+    <col min="8450" max="8450" width="4.625" style="3" customWidth="1"/>
+    <col min="8451" max="8451" width="4.25" style="3" customWidth="1"/>
     <col min="8452" max="8452" width="3" style="3" customWidth="1"/>
-    <col min="8453" max="8453" width="6.21875" style="3" customWidth="1"/>
-    <col min="8454" max="8454" width="3.109375" style="3" customWidth="1"/>
-    <col min="8455" max="8455" width="5.33203125" style="3" customWidth="1"/>
+    <col min="8453" max="8453" width="6.25" style="3" customWidth="1"/>
+    <col min="8454" max="8454" width="3.125" style="3" customWidth="1"/>
+    <col min="8455" max="8455" width="5.375" style="3" customWidth="1"/>
     <col min="8456" max="8690" width="9" style="3"/>
-    <col min="8691" max="8691" width="3.77734375" style="3" customWidth="1"/>
-    <col min="8692" max="8692" width="6.33203125" style="3" customWidth="1"/>
-    <col min="8693" max="8693" width="3.109375" style="3" customWidth="1"/>
-    <col min="8694" max="8694" width="2.88671875" style="3" customWidth="1"/>
-    <col min="8695" max="8695" width="4.88671875" style="3" customWidth="1"/>
-    <col min="8696" max="8696" width="8.21875" style="3" customWidth="1"/>
-    <col min="8697" max="8697" width="4.44140625" style="3" customWidth="1"/>
-    <col min="8698" max="8698" width="3.109375" style="3" customWidth="1"/>
-    <col min="8699" max="8699" width="4.6640625" style="3" customWidth="1"/>
-    <col min="8700" max="8700" width="5.33203125" style="3" customWidth="1"/>
-    <col min="8701" max="8701" width="5.109375" style="3" customWidth="1"/>
+    <col min="8691" max="8691" width="3.75" style="3" customWidth="1"/>
+    <col min="8692" max="8692" width="6.375" style="3" customWidth="1"/>
+    <col min="8693" max="8693" width="3.125" style="3" customWidth="1"/>
+    <col min="8694" max="8694" width="2.875" style="3" customWidth="1"/>
+    <col min="8695" max="8695" width="4.875" style="3" customWidth="1"/>
+    <col min="8696" max="8696" width="8.25" style="3" customWidth="1"/>
+    <col min="8697" max="8697" width="4.5" style="3" customWidth="1"/>
+    <col min="8698" max="8698" width="3.125" style="3" customWidth="1"/>
+    <col min="8699" max="8699" width="4.625" style="3" customWidth="1"/>
+    <col min="8700" max="8700" width="5.375" style="3" customWidth="1"/>
+    <col min="8701" max="8701" width="5.125" style="3" customWidth="1"/>
     <col min="8702" max="8702" width="3" style="3" customWidth="1"/>
-    <col min="8703" max="8703" width="3.6640625" style="3" customWidth="1"/>
-    <col min="8704" max="8704" width="3.21875" style="3" customWidth="1"/>
+    <col min="8703" max="8703" width="3.625" style="3" customWidth="1"/>
+    <col min="8704" max="8704" width="3.25" style="3" customWidth="1"/>
     <col min="8705" max="8705" width="5" style="3" customWidth="1"/>
-    <col min="8706" max="8706" width="4.6640625" style="3" customWidth="1"/>
-    <col min="8707" max="8707" width="4.21875" style="3" customWidth="1"/>
+    <col min="8706" max="8706" width="4.625" style="3" customWidth="1"/>
+    <col min="8707" max="8707" width="4.25" style="3" customWidth="1"/>
     <col min="8708" max="8708" width="3" style="3" customWidth="1"/>
-    <col min="8709" max="8709" width="6.21875" style="3" customWidth="1"/>
-    <col min="8710" max="8710" width="3.109375" style="3" customWidth="1"/>
-    <col min="8711" max="8711" width="5.33203125" style="3" customWidth="1"/>
+    <col min="8709" max="8709" width="6.25" style="3" customWidth="1"/>
+    <col min="8710" max="8710" width="3.125" style="3" customWidth="1"/>
+    <col min="8711" max="8711" width="5.375" style="3" customWidth="1"/>
     <col min="8712" max="8946" width="9" style="3"/>
-    <col min="8947" max="8947" width="3.77734375" style="3" customWidth="1"/>
-    <col min="8948" max="8948" width="6.33203125" style="3" customWidth="1"/>
-    <col min="8949" max="8949" width="3.109375" style="3" customWidth="1"/>
-    <col min="8950" max="8950" width="2.88671875" style="3" customWidth="1"/>
-    <col min="8951" max="8951" width="4.88671875" style="3" customWidth="1"/>
-    <col min="8952" max="8952" width="8.21875" style="3" customWidth="1"/>
-    <col min="8953" max="8953" width="4.44140625" style="3" customWidth="1"/>
-    <col min="8954" max="8954" width="3.109375" style="3" customWidth="1"/>
-    <col min="8955" max="8955" width="4.6640625" style="3" customWidth="1"/>
-    <col min="8956" max="8956" width="5.33203125" style="3" customWidth="1"/>
-    <col min="8957" max="8957" width="5.109375" style="3" customWidth="1"/>
+    <col min="8947" max="8947" width="3.75" style="3" customWidth="1"/>
+    <col min="8948" max="8948" width="6.375" style="3" customWidth="1"/>
+    <col min="8949" max="8949" width="3.125" style="3" customWidth="1"/>
+    <col min="8950" max="8950" width="2.875" style="3" customWidth="1"/>
+    <col min="8951" max="8951" width="4.875" style="3" customWidth="1"/>
+    <col min="8952" max="8952" width="8.25" style="3" customWidth="1"/>
+    <col min="8953" max="8953" width="4.5" style="3" customWidth="1"/>
+    <col min="8954" max="8954" width="3.125" style="3" customWidth="1"/>
+    <col min="8955" max="8955" width="4.625" style="3" customWidth="1"/>
+    <col min="8956" max="8956" width="5.375" style="3" customWidth="1"/>
+    <col min="8957" max="8957" width="5.125" style="3" customWidth="1"/>
     <col min="8958" max="8958" width="3" style="3" customWidth="1"/>
-    <col min="8959" max="8959" width="3.6640625" style="3" customWidth="1"/>
-    <col min="8960" max="8960" width="3.21875" style="3" customWidth="1"/>
+    <col min="8959" max="8959" width="3.625" style="3" customWidth="1"/>
+    <col min="8960" max="8960" width="3.25" style="3" customWidth="1"/>
     <col min="8961" max="8961" width="5" style="3" customWidth="1"/>
-    <col min="8962" max="8962" width="4.6640625" style="3" customWidth="1"/>
-    <col min="8963" max="8963" width="4.21875" style="3" customWidth="1"/>
+    <col min="8962" max="8962" width="4.625" style="3" customWidth="1"/>
+    <col min="8963" max="8963" width="4.25" style="3" customWidth="1"/>
     <col min="8964" max="8964" width="3" style="3" customWidth="1"/>
-    <col min="8965" max="8965" width="6.21875" style="3" customWidth="1"/>
-    <col min="8966" max="8966" width="3.109375" style="3" customWidth="1"/>
-    <col min="8967" max="8967" width="5.33203125" style="3" customWidth="1"/>
+    <col min="8965" max="8965" width="6.25" style="3" customWidth="1"/>
+    <col min="8966" max="8966" width="3.125" style="3" customWidth="1"/>
+    <col min="8967" max="8967" width="5.375" style="3" customWidth="1"/>
     <col min="8968" max="9202" width="9" style="3"/>
-    <col min="9203" max="9203" width="3.77734375" style="3" customWidth="1"/>
-    <col min="9204" max="9204" width="6.33203125" style="3" customWidth="1"/>
-    <col min="9205" max="9205" width="3.109375" style="3" customWidth="1"/>
-    <col min="9206" max="9206" width="2.88671875" style="3" customWidth="1"/>
-    <col min="9207" max="9207" width="4.88671875" style="3" customWidth="1"/>
-    <col min="9208" max="9208" width="8.21875" style="3" customWidth="1"/>
-    <col min="9209" max="9209" width="4.44140625" style="3" customWidth="1"/>
-    <col min="9210" max="9210" width="3.109375" style="3" customWidth="1"/>
-    <col min="9211" max="9211" width="4.6640625" style="3" customWidth="1"/>
-    <col min="9212" max="9212" width="5.33203125" style="3" customWidth="1"/>
-    <col min="9213" max="9213" width="5.109375" style="3" customWidth="1"/>
+    <col min="9203" max="9203" width="3.75" style="3" customWidth="1"/>
+    <col min="9204" max="9204" width="6.375" style="3" customWidth="1"/>
+    <col min="9205" max="9205" width="3.125" style="3" customWidth="1"/>
+    <col min="9206" max="9206" width="2.875" style="3" customWidth="1"/>
+    <col min="9207" max="9207" width="4.875" style="3" customWidth="1"/>
+    <col min="9208" max="9208" width="8.25" style="3" customWidth="1"/>
+    <col min="9209" max="9209" width="4.5" style="3" customWidth="1"/>
+    <col min="9210" max="9210" width="3.125" style="3" customWidth="1"/>
+    <col min="9211" max="9211" width="4.625" style="3" customWidth="1"/>
+    <col min="9212" max="9212" width="5.375" style="3" customWidth="1"/>
+    <col min="9213" max="9213" width="5.125" style="3" customWidth="1"/>
     <col min="9214" max="9214" width="3" style="3" customWidth="1"/>
-    <col min="9215" max="9215" width="3.6640625" style="3" customWidth="1"/>
-    <col min="9216" max="9216" width="3.21875" style="3" customWidth="1"/>
+    <col min="9215" max="9215" width="3.625" style="3" customWidth="1"/>
+    <col min="9216" max="9216" width="3.25" style="3" customWidth="1"/>
     <col min="9217" max="9217" width="5" style="3" customWidth="1"/>
-    <col min="9218" max="9218" width="4.6640625" style="3" customWidth="1"/>
-    <col min="9219" max="9219" width="4.21875" style="3" customWidth="1"/>
+    <col min="9218" max="9218" width="4.625" style="3" customWidth="1"/>
+    <col min="9219" max="9219" width="4.25" style="3" customWidth="1"/>
     <col min="9220" max="9220" width="3" style="3" customWidth="1"/>
-    <col min="9221" max="9221" width="6.21875" style="3" customWidth="1"/>
-    <col min="9222" max="9222" width="3.109375" style="3" customWidth="1"/>
-    <col min="9223" max="9223" width="5.33203125" style="3" customWidth="1"/>
+    <col min="9221" max="9221" width="6.25" style="3" customWidth="1"/>
+    <col min="9222" max="9222" width="3.125" style="3" customWidth="1"/>
+    <col min="9223" max="9223" width="5.375" style="3" customWidth="1"/>
     <col min="9224" max="9458" width="9" style="3"/>
-    <col min="9459" max="9459" width="3.77734375" style="3" customWidth="1"/>
-    <col min="9460" max="9460" width="6.33203125" style="3" customWidth="1"/>
-    <col min="9461" max="9461" width="3.109375" style="3" customWidth="1"/>
-    <col min="9462" max="9462" width="2.88671875" style="3" customWidth="1"/>
-    <col min="9463" max="9463" width="4.88671875" style="3" customWidth="1"/>
-    <col min="9464" max="9464" width="8.21875" style="3" customWidth="1"/>
-    <col min="9465" max="9465" width="4.44140625" style="3" customWidth="1"/>
-    <col min="9466" max="9466" width="3.109375" style="3" customWidth="1"/>
-    <col min="9467" max="9467" width="4.6640625" style="3" customWidth="1"/>
-    <col min="9468" max="9468" width="5.33203125" style="3" customWidth="1"/>
-    <col min="9469" max="9469" width="5.109375" style="3" customWidth="1"/>
+    <col min="9459" max="9459" width="3.75" style="3" customWidth="1"/>
+    <col min="9460" max="9460" width="6.375" style="3" customWidth="1"/>
+    <col min="9461" max="9461" width="3.125" style="3" customWidth="1"/>
+    <col min="9462" max="9462" width="2.875" style="3" customWidth="1"/>
+    <col min="9463" max="9463" width="4.875" style="3" customWidth="1"/>
+    <col min="9464" max="9464" width="8.25" style="3" customWidth="1"/>
+    <col min="9465" max="9465" width="4.5" style="3" customWidth="1"/>
+    <col min="9466" max="9466" width="3.125" style="3" customWidth="1"/>
+    <col min="9467" max="9467" width="4.625" style="3" customWidth="1"/>
+    <col min="9468" max="9468" width="5.375" style="3" customWidth="1"/>
+    <col min="9469" max="9469" width="5.125" style="3" customWidth="1"/>
     <col min="9470" max="9470" width="3" style="3" customWidth="1"/>
-    <col min="9471" max="9471" width="3.6640625" style="3" customWidth="1"/>
-    <col min="9472" max="9472" width="3.21875" style="3" customWidth="1"/>
+    <col min="9471" max="9471" width="3.625" style="3" customWidth="1"/>
+    <col min="9472" max="9472" width="3.25" style="3" customWidth="1"/>
     <col min="9473" max="9473" width="5" style="3" customWidth="1"/>
-    <col min="9474" max="9474" width="4.6640625" style="3" customWidth="1"/>
-    <col min="9475" max="9475" width="4.21875" style="3" customWidth="1"/>
+    <col min="9474" max="9474" width="4.625" style="3" customWidth="1"/>
+    <col min="9475" max="9475" width="4.25" style="3" customWidth="1"/>
     <col min="9476" max="9476" width="3" style="3" customWidth="1"/>
-    <col min="9477" max="9477" width="6.21875" style="3" customWidth="1"/>
-    <col min="9478" max="9478" width="3.109375" style="3" customWidth="1"/>
-    <col min="9479" max="9479" width="5.33203125" style="3" customWidth="1"/>
+    <col min="9477" max="9477" width="6.25" style="3" customWidth="1"/>
+    <col min="9478" max="9478" width="3.125" style="3" customWidth="1"/>
+    <col min="9479" max="9479" width="5.375" style="3" customWidth="1"/>
     <col min="9480" max="9714" width="9" style="3"/>
-    <col min="9715" max="9715" width="3.77734375" style="3" customWidth="1"/>
-    <col min="9716" max="9716" width="6.33203125" style="3" customWidth="1"/>
-    <col min="9717" max="9717" width="3.109375" style="3" customWidth="1"/>
-    <col min="9718" max="9718" width="2.88671875" style="3" customWidth="1"/>
-    <col min="9719" max="9719" width="4.88671875" style="3" customWidth="1"/>
-    <col min="9720" max="9720" width="8.21875" style="3" customWidth="1"/>
-    <col min="9721" max="9721" width="4.44140625" style="3" customWidth="1"/>
-    <col min="9722" max="9722" width="3.109375" style="3" customWidth="1"/>
-    <col min="9723" max="9723" width="4.6640625" style="3" customWidth="1"/>
-    <col min="9724" max="9724" width="5.33203125" style="3" customWidth="1"/>
-    <col min="9725" max="9725" width="5.109375" style="3" customWidth="1"/>
+    <col min="9715" max="9715" width="3.75" style="3" customWidth="1"/>
+    <col min="9716" max="9716" width="6.375" style="3" customWidth="1"/>
+    <col min="9717" max="9717" width="3.125" style="3" customWidth="1"/>
+    <col min="9718" max="9718" width="2.875" style="3" customWidth="1"/>
+    <col min="9719" max="9719" width="4.875" style="3" customWidth="1"/>
+    <col min="9720" max="9720" width="8.25" style="3" customWidth="1"/>
+    <col min="9721" max="9721" width="4.5" style="3" customWidth="1"/>
+    <col min="9722" max="9722" width="3.125" style="3" customWidth="1"/>
+    <col min="9723" max="9723" width="4.625" style="3" customWidth="1"/>
+    <col min="9724" max="9724" width="5.375" style="3" customWidth="1"/>
+    <col min="9725" max="9725" width="5.125" style="3" customWidth="1"/>
     <col min="9726" max="9726" width="3" style="3" customWidth="1"/>
-    <col min="9727" max="9727" width="3.6640625" style="3" customWidth="1"/>
-    <col min="9728" max="9728" width="3.21875" style="3" customWidth="1"/>
+    <col min="9727" max="9727" width="3.625" style="3" customWidth="1"/>
+    <col min="9728" max="9728" width="3.25" style="3" customWidth="1"/>
     <col min="9729" max="9729" width="5" style="3" customWidth="1"/>
-    <col min="9730" max="9730" width="4.6640625" style="3" customWidth="1"/>
-    <col min="9731" max="9731" width="4.21875" style="3" customWidth="1"/>
+    <col min="9730" max="9730" width="4.625" style="3" customWidth="1"/>
+    <col min="9731" max="9731" width="4.25" style="3" customWidth="1"/>
     <col min="9732" max="9732" width="3" style="3" customWidth="1"/>
-    <col min="9733" max="9733" width="6.21875" style="3" customWidth="1"/>
-    <col min="9734" max="9734" width="3.109375" style="3" customWidth="1"/>
-    <col min="9735" max="9735" width="5.33203125" style="3" customWidth="1"/>
+    <col min="9733" max="9733" width="6.25" style="3" customWidth="1"/>
+    <col min="9734" max="9734" width="3.125" style="3" customWidth="1"/>
+    <col min="9735" max="9735" width="5.375" style="3" customWidth="1"/>
     <col min="9736" max="9970" width="9" style="3"/>
-    <col min="9971" max="9971" width="3.77734375" style="3" customWidth="1"/>
-    <col min="9972" max="9972" width="6.33203125" style="3" customWidth="1"/>
-    <col min="9973" max="9973" width="3.109375" style="3" customWidth="1"/>
-    <col min="9974" max="9974" width="2.88671875" style="3" customWidth="1"/>
-    <col min="9975" max="9975" width="4.88671875" style="3" customWidth="1"/>
-    <col min="9976" max="9976" width="8.21875" style="3" customWidth="1"/>
-    <col min="9977" max="9977" width="4.44140625" style="3" customWidth="1"/>
-    <col min="9978" max="9978" width="3.109375" style="3" customWidth="1"/>
-    <col min="9979" max="9979" width="4.6640625" style="3" customWidth="1"/>
-    <col min="9980" max="9980" width="5.33203125" style="3" customWidth="1"/>
-    <col min="9981" max="9981" width="5.109375" style="3" customWidth="1"/>
+    <col min="9971" max="9971" width="3.75" style="3" customWidth="1"/>
+    <col min="9972" max="9972" width="6.375" style="3" customWidth="1"/>
+    <col min="9973" max="9973" width="3.125" style="3" customWidth="1"/>
+    <col min="9974" max="9974" width="2.875" style="3" customWidth="1"/>
+    <col min="9975" max="9975" width="4.875" style="3" customWidth="1"/>
+    <col min="9976" max="9976" width="8.25" style="3" customWidth="1"/>
+    <col min="9977" max="9977" width="4.5" style="3" customWidth="1"/>
+    <col min="9978" max="9978" width="3.125" style="3" customWidth="1"/>
+    <col min="9979" max="9979" width="4.625" style="3" customWidth="1"/>
+    <col min="9980" max="9980" width="5.375" style="3" customWidth="1"/>
+    <col min="9981" max="9981" width="5.125" style="3" customWidth="1"/>
     <col min="9982" max="9982" width="3" style="3" customWidth="1"/>
-    <col min="9983" max="9983" width="3.6640625" style="3" customWidth="1"/>
-    <col min="9984" max="9984" width="3.21875" style="3" customWidth="1"/>
+    <col min="9983" max="9983" width="3.625" style="3" customWidth="1"/>
+    <col min="9984" max="9984" width="3.25" style="3" customWidth="1"/>
     <col min="9985" max="9985" width="5" style="3" customWidth="1"/>
-    <col min="9986" max="9986" width="4.6640625" style="3" customWidth="1"/>
-    <col min="9987" max="9987" width="4.21875" style="3" customWidth="1"/>
+    <col min="9986" max="9986" width="4.625" style="3" customWidth="1"/>
+    <col min="9987" max="9987" width="4.25" style="3" customWidth="1"/>
     <col min="9988" max="9988" width="3" style="3" customWidth="1"/>
-    <col min="9989" max="9989" width="6.21875" style="3" customWidth="1"/>
-    <col min="9990" max="9990" width="3.109375" style="3" customWidth="1"/>
-    <col min="9991" max="9991" width="5.33203125" style="3" customWidth="1"/>
+    <col min="9989" max="9989" width="6.25" style="3" customWidth="1"/>
+    <col min="9990" max="9990" width="3.125" style="3" customWidth="1"/>
+    <col min="9991" max="9991" width="5.375" style="3" customWidth="1"/>
     <col min="9992" max="10226" width="9" style="3"/>
-    <col min="10227" max="10227" width="3.77734375" style="3" customWidth="1"/>
-    <col min="10228" max="10228" width="6.33203125" style="3" customWidth="1"/>
-    <col min="10229" max="10229" width="3.109375" style="3" customWidth="1"/>
-    <col min="10230" max="10230" width="2.88671875" style="3" customWidth="1"/>
-    <col min="10231" max="10231" width="4.88671875" style="3" customWidth="1"/>
-    <col min="10232" max="10232" width="8.21875" style="3" customWidth="1"/>
-    <col min="10233" max="10233" width="4.44140625" style="3" customWidth="1"/>
-    <col min="10234" max="10234" width="3.109375" style="3" customWidth="1"/>
-    <col min="10235" max="10235" width="4.6640625" style="3" customWidth="1"/>
-    <col min="10236" max="10236" width="5.33203125" style="3" customWidth="1"/>
-    <col min="10237" max="10237" width="5.109375" style="3" customWidth="1"/>
+    <col min="10227" max="10227" width="3.75" style="3" customWidth="1"/>
+    <col min="10228" max="10228" width="6.375" style="3" customWidth="1"/>
+    <col min="10229" max="10229" width="3.125" style="3" customWidth="1"/>
+    <col min="10230" max="10230" width="2.875" style="3" customWidth="1"/>
+    <col min="10231" max="10231" width="4.875" style="3" customWidth="1"/>
+    <col min="10232" max="10232" width="8.25" style="3" customWidth="1"/>
+    <col min="10233" max="10233" width="4.5" style="3" customWidth="1"/>
+    <col min="10234" max="10234" width="3.125" style="3" customWidth="1"/>
+    <col min="10235" max="10235" width="4.625" style="3" customWidth="1"/>
+    <col min="10236" max="10236" width="5.375" style="3" customWidth="1"/>
+    <col min="10237" max="10237" width="5.125" style="3" customWidth="1"/>
     <col min="10238" max="10238" width="3" style="3" customWidth="1"/>
-    <col min="10239" max="10239" width="3.6640625" style="3" customWidth="1"/>
-    <col min="10240" max="10240" width="3.21875" style="3" customWidth="1"/>
+    <col min="10239" max="10239" width="3.625" style="3" customWidth="1"/>
+    <col min="10240" max="10240" width="3.25" style="3" customWidth="1"/>
     <col min="10241" max="10241" width="5" style="3" customWidth="1"/>
-    <col min="10242" max="10242" width="4.6640625" style="3" customWidth="1"/>
-    <col min="10243" max="10243" width="4.21875" style="3" customWidth="1"/>
+    <col min="10242" max="10242" width="4.625" style="3" customWidth="1"/>
+    <col min="10243" max="10243" width="4.25" style="3" customWidth="1"/>
     <col min="10244" max="10244" width="3" style="3" customWidth="1"/>
-    <col min="10245" max="10245" width="6.21875" style="3" customWidth="1"/>
-    <col min="10246" max="10246" width="3.109375" style="3" customWidth="1"/>
-    <col min="10247" max="10247" width="5.33203125" style="3" customWidth="1"/>
+    <col min="10245" max="10245" width="6.25" style="3" customWidth="1"/>
+    <col min="10246" max="10246" width="3.125" style="3" customWidth="1"/>
+    <col min="10247" max="10247" width="5.375" style="3" customWidth="1"/>
     <col min="10248" max="10482" width="9" style="3"/>
-    <col min="10483" max="10483" width="3.77734375" style="3" customWidth="1"/>
-    <col min="10484" max="10484" width="6.33203125" style="3" customWidth="1"/>
-    <col min="10485" max="10485" width="3.109375" style="3" customWidth="1"/>
-    <col min="10486" max="10486" width="2.88671875" style="3" customWidth="1"/>
-    <col min="10487" max="10487" width="4.88671875" style="3" customWidth="1"/>
-    <col min="10488" max="10488" width="8.21875" style="3" customWidth="1"/>
-    <col min="10489" max="10489" width="4.44140625" style="3" customWidth="1"/>
-    <col min="10490" max="10490" width="3.109375" style="3" customWidth="1"/>
-    <col min="10491" max="10491" width="4.6640625" style="3" customWidth="1"/>
-    <col min="10492" max="10492" width="5.33203125" style="3" customWidth="1"/>
-    <col min="10493" max="10493" width="5.109375" style="3" customWidth="1"/>
+    <col min="10483" max="10483" width="3.75" style="3" customWidth="1"/>
+    <col min="10484" max="10484" width="6.375" style="3" customWidth="1"/>
+    <col min="10485" max="10485" width="3.125" style="3" customWidth="1"/>
+    <col min="10486" max="10486" width="2.875" style="3" customWidth="1"/>
+    <col min="10487" max="10487" width="4.875" style="3" customWidth="1"/>
+    <col min="10488" max="10488" width="8.25" style="3" customWidth="1"/>
+    <col min="10489" max="10489" width="4.5" style="3" customWidth="1"/>
+    <col min="10490" max="10490" width="3.125" style="3" customWidth="1"/>
+    <col min="10491" max="10491" width="4.625" style="3" customWidth="1"/>
+    <col min="10492" max="10492" width="5.375" style="3" customWidth="1"/>
+    <col min="10493" max="10493" width="5.125" style="3" customWidth="1"/>
     <col min="10494" max="10494" width="3" style="3" customWidth="1"/>
-    <col min="10495" max="10495" width="3.6640625" style="3" customWidth="1"/>
-    <col min="10496" max="10496" width="3.21875" style="3" customWidth="1"/>
+    <col min="10495" max="10495" width="3.625" style="3" customWidth="1"/>
+    <col min="10496" max="10496" width="3.25" style="3" customWidth="1"/>
     <col min="10497" max="10497" width="5" style="3" customWidth="1"/>
-    <col min="10498" max="10498" width="4.6640625" style="3" customWidth="1"/>
-    <col min="10499" max="10499" width="4.21875" style="3" customWidth="1"/>
+    <col min="10498" max="10498" width="4.625" style="3" customWidth="1"/>
+    <col min="10499" max="10499" width="4.25" style="3" customWidth="1"/>
     <col min="10500" max="10500" width="3" style="3" customWidth="1"/>
-    <col min="10501" max="10501" width="6.21875" style="3" customWidth="1"/>
-    <col min="10502" max="10502" width="3.109375" style="3" customWidth="1"/>
-    <col min="10503" max="10503" width="5.33203125" style="3" customWidth="1"/>
+    <col min="10501" max="10501" width="6.25" style="3" customWidth="1"/>
+    <col min="10502" max="10502" width="3.125" style="3" customWidth="1"/>
+    <col min="10503" max="10503" width="5.375" style="3" customWidth="1"/>
     <col min="10504" max="10738" width="9" style="3"/>
-    <col min="10739" max="10739" width="3.77734375" style="3" customWidth="1"/>
-    <col min="10740" max="10740" width="6.33203125" style="3" customWidth="1"/>
-    <col min="10741" max="10741" width="3.109375" style="3" customWidth="1"/>
-    <col min="10742" max="10742" width="2.88671875" style="3" customWidth="1"/>
-    <col min="10743" max="10743" width="4.88671875" style="3" customWidth="1"/>
-    <col min="10744" max="10744" width="8.21875" style="3" customWidth="1"/>
-    <col min="10745" max="10745" width="4.44140625" style="3" customWidth="1"/>
-    <col min="10746" max="10746" width="3.109375" style="3" customWidth="1"/>
-    <col min="10747" max="10747" width="4.6640625" style="3" customWidth="1"/>
-    <col min="10748" max="10748" width="5.33203125" style="3" customWidth="1"/>
-    <col min="10749" max="10749" width="5.109375" style="3" customWidth="1"/>
+    <col min="10739" max="10739" width="3.75" style="3" customWidth="1"/>
+    <col min="10740" max="10740" width="6.375" style="3" customWidth="1"/>
+    <col min="10741" max="10741" width="3.125" style="3" customWidth="1"/>
+    <col min="10742" max="10742" width="2.875" style="3" customWidth="1"/>
+    <col min="10743" max="10743" width="4.875" style="3" customWidth="1"/>
+    <col min="10744" max="10744" width="8.25" style="3" customWidth="1"/>
+    <col min="10745" max="10745" width="4.5" style="3" customWidth="1"/>
+    <col min="10746" max="10746" width="3.125" style="3" customWidth="1"/>
+    <col min="10747" max="10747" width="4.625" style="3" customWidth="1"/>
+    <col min="10748" max="10748" width="5.375" style="3" customWidth="1"/>
+    <col min="10749" max="10749" width="5.125" style="3" customWidth="1"/>
     <col min="10750" max="10750" width="3" style="3" customWidth="1"/>
-    <col min="10751" max="10751" width="3.6640625" style="3" customWidth="1"/>
-    <col min="10752" max="10752" width="3.21875" style="3" customWidth="1"/>
+    <col min="10751" max="10751" width="3.625" style="3" customWidth="1"/>
+    <col min="10752" max="10752" width="3.25" style="3" customWidth="1"/>
     <col min="10753" max="10753" width="5" style="3" customWidth="1"/>
-    <col min="10754" max="10754" width="4.6640625" style="3" customWidth="1"/>
-    <col min="10755" max="10755" width="4.21875" style="3" customWidth="1"/>
+    <col min="10754" max="10754" width="4.625" style="3" customWidth="1"/>
+    <col min="10755" max="10755" width="4.25" style="3" customWidth="1"/>
     <col min="10756" max="10756" width="3" style="3" customWidth="1"/>
-    <col min="10757" max="10757" width="6.21875" style="3" customWidth="1"/>
-    <col min="10758" max="10758" width="3.109375" style="3" customWidth="1"/>
-    <col min="10759" max="10759" width="5.33203125" style="3" customWidth="1"/>
+    <col min="10757" max="10757" width="6.25" style="3" customWidth="1"/>
+    <col min="10758" max="10758" width="3.125" style="3" customWidth="1"/>
+    <col min="10759" max="10759" width="5.375" style="3" customWidth="1"/>
     <col min="10760" max="10994" width="9" style="3"/>
-    <col min="10995" max="10995" width="3.77734375" style="3" customWidth="1"/>
-    <col min="10996" max="10996" width="6.33203125" style="3" customWidth="1"/>
-    <col min="10997" max="10997" width="3.109375" style="3" customWidth="1"/>
-    <col min="10998" max="10998" width="2.88671875" style="3" customWidth="1"/>
-    <col min="10999" max="10999" width="4.88671875" style="3" customWidth="1"/>
-    <col min="11000" max="11000" width="8.21875" style="3" customWidth="1"/>
-    <col min="11001" max="11001" width="4.44140625" style="3" customWidth="1"/>
-    <col min="11002" max="11002" width="3.109375" style="3" customWidth="1"/>
-    <col min="11003" max="11003" width="4.6640625" style="3" customWidth="1"/>
-    <col min="11004" max="11004" width="5.33203125" style="3" customWidth="1"/>
-    <col min="11005" max="11005" width="5.109375" style="3" customWidth="1"/>
+    <col min="10995" max="10995" width="3.75" style="3" customWidth="1"/>
+    <col min="10996" max="10996" width="6.375" style="3" customWidth="1"/>
+    <col min="10997" max="10997" width="3.125" style="3" customWidth="1"/>
+    <col min="10998" max="10998" width="2.875" style="3" customWidth="1"/>
+    <col min="10999" max="10999" width="4.875" style="3" customWidth="1"/>
+    <col min="11000" max="11000" width="8.25" style="3" customWidth="1"/>
+    <col min="11001" max="11001" width="4.5" style="3" customWidth="1"/>
+    <col min="11002" max="11002" width="3.125" style="3" customWidth="1"/>
+    <col min="11003" max="11003" width="4.625" style="3" customWidth="1"/>
+    <col min="11004" max="11004" width="5.375" style="3" customWidth="1"/>
+    <col min="11005" max="11005" width="5.125" style="3" customWidth="1"/>
     <col min="11006" max="11006" width="3" style="3" customWidth="1"/>
-    <col min="11007" max="11007" width="3.6640625" style="3" customWidth="1"/>
-    <col min="11008" max="11008" width="3.21875" style="3" customWidth="1"/>
+    <col min="11007" max="11007" width="3.625" style="3" customWidth="1"/>
+    <col min="11008" max="11008" width="3.25" style="3" customWidth="1"/>
     <col min="11009" max="11009" width="5" style="3" customWidth="1"/>
-    <col min="11010" max="11010" width="4.6640625" style="3" customWidth="1"/>
-    <col min="11011" max="11011" width="4.21875" style="3" customWidth="1"/>
+    <col min="11010" max="11010" width="4.625" style="3" customWidth="1"/>
+    <col min="11011" max="11011" width="4.25" style="3" customWidth="1"/>
     <col min="11012" max="11012" width="3" style="3" customWidth="1"/>
-    <col min="11013" max="11013" width="6.21875" style="3" customWidth="1"/>
-    <col min="11014" max="11014" width="3.109375" style="3" customWidth="1"/>
-    <col min="11015" max="11015" width="5.33203125" style="3" customWidth="1"/>
+    <col min="11013" max="11013" width="6.25" style="3" customWidth="1"/>
+    <col min="11014" max="11014" width="3.125" style="3" customWidth="1"/>
+    <col min="11015" max="11015" width="5.375" style="3" customWidth="1"/>
     <col min="11016" max="11250" width="9" style="3"/>
-    <col min="11251" max="11251" width="3.77734375" style="3" customWidth="1"/>
-    <col min="11252" max="11252" width="6.33203125" style="3" customWidth="1"/>
-    <col min="11253" max="11253" width="3.109375" style="3" customWidth="1"/>
-    <col min="11254" max="11254" width="2.88671875" style="3" customWidth="1"/>
-    <col min="11255" max="11255" width="4.88671875" style="3" customWidth="1"/>
-    <col min="11256" max="11256" width="8.21875" style="3" customWidth="1"/>
-    <col min="11257" max="11257" width="4.44140625" style="3" customWidth="1"/>
-    <col min="11258" max="11258" width="3.109375" style="3" customWidth="1"/>
-    <col min="11259" max="11259" width="4.6640625" style="3" customWidth="1"/>
-    <col min="11260" max="11260" width="5.33203125" style="3" customWidth="1"/>
-    <col min="11261" max="11261" width="5.109375" style="3" customWidth="1"/>
+    <col min="11251" max="11251" width="3.75" style="3" customWidth="1"/>
+    <col min="11252" max="11252" width="6.375" style="3" customWidth="1"/>
+    <col min="11253" max="11253" width="3.125" style="3" customWidth="1"/>
+    <col min="11254" max="11254" width="2.875" style="3" customWidth="1"/>
+    <col min="11255" max="11255" width="4.875" style="3" customWidth="1"/>
+    <col min="11256" max="11256" width="8.25" style="3" customWidth="1"/>
+    <col min="11257" max="11257" width="4.5" style="3" customWidth="1"/>
+    <col min="11258" max="11258" width="3.125" style="3" customWidth="1"/>
+    <col min="11259" max="11259" width="4.625" style="3" customWidth="1"/>
+    <col min="11260" max="11260" width="5.375" style="3" customWidth="1"/>
+    <col min="11261" max="11261" width="5.125" style="3" customWidth="1"/>
     <col min="11262" max="11262" width="3" style="3" customWidth="1"/>
-    <col min="11263" max="11263" width="3.6640625" style="3" customWidth="1"/>
-    <col min="11264" max="11264" width="3.21875" style="3" customWidth="1"/>
+    <col min="11263" max="11263" width="3.625" style="3" customWidth="1"/>
+    <col min="11264" max="11264" width="3.25" style="3" customWidth="1"/>
     <col min="11265" max="11265" width="5" style="3" customWidth="1"/>
-    <col min="11266" max="11266" width="4.6640625" style="3" customWidth="1"/>
-    <col min="11267" max="11267" width="4.21875" style="3" customWidth="1"/>
+    <col min="11266" max="11266" width="4.625" style="3" customWidth="1"/>
+    <col min="11267" max="11267" width="4.25" style="3" customWidth="1"/>
     <col min="11268" max="11268" width="3" style="3" customWidth="1"/>
-    <col min="11269" max="11269" width="6.21875" style="3" customWidth="1"/>
-    <col min="11270" max="11270" width="3.109375" style="3" customWidth="1"/>
-    <col min="11271" max="11271" width="5.33203125" style="3" customWidth="1"/>
+    <col min="11269" max="11269" width="6.25" style="3" customWidth="1"/>
+    <col min="11270" max="11270" width="3.125" style="3" customWidth="1"/>
+    <col min="11271" max="11271" width="5.375" style="3" customWidth="1"/>
     <col min="11272" max="11506" width="9" style="3"/>
-    <col min="11507" max="11507" width="3.77734375" style="3" customWidth="1"/>
-    <col min="11508" max="11508" width="6.33203125" style="3" customWidth="1"/>
-    <col min="11509" max="11509" width="3.109375" style="3" customWidth="1"/>
-    <col min="11510" max="11510" width="2.88671875" style="3" customWidth="1"/>
-    <col min="11511" max="11511" width="4.88671875" style="3" customWidth="1"/>
-    <col min="11512" max="11512" width="8.21875" style="3" customWidth="1"/>
-    <col min="11513" max="11513" width="4.44140625" style="3" customWidth="1"/>
-    <col min="11514" max="11514" width="3.109375" style="3" customWidth="1"/>
-    <col min="11515" max="11515" width="4.6640625" style="3" customWidth="1"/>
-    <col min="11516" max="11516" width="5.33203125" style="3" customWidth="1"/>
-    <col min="11517" max="11517" width="5.109375" style="3" customWidth="1"/>
+    <col min="11507" max="11507" width="3.75" style="3" customWidth="1"/>
+    <col min="11508" max="11508" width="6.375" style="3" customWidth="1"/>
+    <col min="11509" max="11509" width="3.125" style="3" customWidth="1"/>
+    <col min="11510" max="11510" width="2.875" style="3" customWidth="1"/>
+    <col min="11511" max="11511" width="4.875" style="3" customWidth="1"/>
+    <col min="11512" max="11512" width="8.25" style="3" customWidth="1"/>
+    <col min="11513" max="11513" width="4.5" style="3" customWidth="1"/>
+    <col min="11514" max="11514" width="3.125" style="3" customWidth="1"/>
+    <col min="11515" max="11515" width="4.625" style="3" customWidth="1"/>
+    <col min="11516" max="11516" width="5.375" style="3" customWidth="1"/>
+    <col min="11517" max="11517" width="5.125" style="3" customWidth="1"/>
     <col min="11518" max="11518" width="3" style="3" customWidth="1"/>
-    <col min="11519" max="11519" width="3.6640625" style="3" customWidth="1"/>
-    <col min="11520" max="11520" width="3.21875" style="3" customWidth="1"/>
+    <col min="11519" max="11519" width="3.625" style="3" customWidth="1"/>
+    <col min="11520" max="11520" width="3.25" style="3" customWidth="1"/>
     <col min="11521" max="11521" width="5" style="3" customWidth="1"/>
-    <col min="11522" max="11522" width="4.6640625" style="3" customWidth="1"/>
-    <col min="11523" max="11523" width="4.21875" style="3" customWidth="1"/>
+    <col min="11522" max="11522" width="4.625" style="3" customWidth="1"/>
+    <col min="11523" max="11523" width="4.25" style="3" customWidth="1"/>
     <col min="11524" max="11524" width="3" style="3" customWidth="1"/>
-    <col min="11525" max="11525" width="6.21875" style="3" customWidth="1"/>
-    <col min="11526" max="11526" width="3.109375" style="3" customWidth="1"/>
-    <col min="11527" max="11527" width="5.33203125" style="3" customWidth="1"/>
+    <col min="11525" max="11525" width="6.25" style="3" customWidth="1"/>
+    <col min="11526" max="11526" width="3.125" style="3" customWidth="1"/>
+    <col min="11527" max="11527" width="5.375" style="3" customWidth="1"/>
     <col min="11528" max="11762" width="9" style="3"/>
-    <col min="11763" max="11763" width="3.77734375" style="3" customWidth="1"/>
-    <col min="11764" max="11764" width="6.33203125" style="3" customWidth="1"/>
-    <col min="11765" max="11765" width="3.109375" style="3" customWidth="1"/>
-    <col min="11766" max="11766" width="2.88671875" style="3" customWidth="1"/>
-    <col min="11767" max="11767" width="4.88671875" style="3" customWidth="1"/>
-    <col min="11768" max="11768" width="8.21875" style="3" customWidth="1"/>
-    <col min="11769" max="11769" width="4.44140625" style="3" customWidth="1"/>
-    <col min="11770" max="11770" width="3.109375" style="3" customWidth="1"/>
-    <col min="11771" max="11771" width="4.6640625" style="3" customWidth="1"/>
-    <col min="11772" max="11772" width="5.33203125" style="3" customWidth="1"/>
-    <col min="11773" max="11773" width="5.109375" style="3" customWidth="1"/>
+    <col min="11763" max="11763" width="3.75" style="3" customWidth="1"/>
+    <col min="11764" max="11764" width="6.375" style="3" customWidth="1"/>
+    <col min="11765" max="11765" width="3.125" style="3" customWidth="1"/>
+    <col min="11766" max="11766" width="2.875" style="3" customWidth="1"/>
+    <col min="11767" max="11767" width="4.875" style="3" customWidth="1"/>
+    <col min="11768" max="11768" width="8.25" style="3" customWidth="1"/>
+    <col min="11769" max="11769" width="4.5" style="3" customWidth="1"/>
+    <col min="11770" max="11770" width="3.125" style="3" customWidth="1"/>
+    <col min="11771" max="11771" width="4.625" style="3" customWidth="1"/>
+    <col min="11772" max="11772" width="5.375" style="3" customWidth="1"/>
+    <col min="11773" max="11773" width="5.125" style="3" customWidth="1"/>
     <col min="11774" max="11774" width="3" style="3" customWidth="1"/>
-    <col min="11775" max="11775" width="3.6640625" style="3" customWidth="1"/>
-    <col min="11776" max="11776" width="3.21875" style="3" customWidth="1"/>
+    <col min="11775" max="11775" width="3.625" style="3" customWidth="1"/>
+    <col min="11776" max="11776" width="3.25" style="3" customWidth="1"/>
     <col min="11777" max="11777" width="5" style="3" customWidth="1"/>
-    <col min="11778" max="11778" width="4.6640625" style="3" customWidth="1"/>
-    <col min="11779" max="11779" width="4.21875" style="3" customWidth="1"/>
+    <col min="11778" max="11778" width="4.625" style="3" customWidth="1"/>
+    <col min="11779" max="11779" width="4.25" style="3" customWidth="1"/>
     <col min="11780" max="11780" width="3" style="3" customWidth="1"/>
-    <col min="11781" max="11781" width="6.21875" style="3" customWidth="1"/>
-    <col min="11782" max="11782" width="3.109375" style="3" customWidth="1"/>
-    <col min="11783" max="11783" width="5.33203125" style="3" customWidth="1"/>
+    <col min="11781" max="11781" width="6.25" style="3" customWidth="1"/>
+    <col min="11782" max="11782" width="3.125" style="3" customWidth="1"/>
+    <col min="11783" max="11783" width="5.375" style="3" customWidth="1"/>
     <col min="11784" max="12018" width="9" style="3"/>
-    <col min="12019" max="12019" width="3.77734375" style="3" customWidth="1"/>
-    <col min="12020" max="12020" width="6.33203125" style="3" customWidth="1"/>
-    <col min="12021" max="12021" width="3.109375" style="3" customWidth="1"/>
-    <col min="12022" max="12022" width="2.88671875" style="3" customWidth="1"/>
-    <col min="12023" max="12023" width="4.88671875" style="3" customWidth="1"/>
-    <col min="12024" max="12024" width="8.21875" style="3" customWidth="1"/>
-    <col min="12025" max="12025" width="4.44140625" style="3" customWidth="1"/>
-    <col min="12026" max="12026" width="3.109375" style="3" customWidth="1"/>
-    <col min="12027" max="12027" width="4.6640625" style="3" customWidth="1"/>
-    <col min="12028" max="12028" width="5.33203125" style="3" customWidth="1"/>
-    <col min="12029" max="12029" width="5.109375" style="3" customWidth="1"/>
+    <col min="12019" max="12019" width="3.75" style="3" customWidth="1"/>
+    <col min="12020" max="12020" width="6.375" style="3" customWidth="1"/>
+    <col min="12021" max="12021" width="3.125" style="3" customWidth="1"/>
+    <col min="12022" max="12022" width="2.875" style="3" customWidth="1"/>
+    <col min="12023" max="12023" width="4.875" style="3" customWidth="1"/>
+    <col min="12024" max="12024" width="8.25" style="3" customWidth="1"/>
+    <col min="12025" max="12025" width="4.5" style="3" customWidth="1"/>
+    <col min="12026" max="12026" width="3.125" style="3" customWidth="1"/>
+    <col min="12027" max="12027" width="4.625" style="3" customWidth="1"/>
+    <col min="12028" max="12028" width="5.375" style="3" customWidth="1"/>
+    <col min="12029" max="12029" width="5.125" style="3" customWidth="1"/>
     <col min="12030" max="12030" width="3" style="3" customWidth="1"/>
-    <col min="12031" max="12031" width="3.6640625" style="3" customWidth="1"/>
-    <col min="12032" max="12032" width="3.21875" style="3" customWidth="1"/>
+    <col min="12031" max="12031" width="3.625" style="3" customWidth="1"/>
+    <col min="12032" max="12032" width="3.25" style="3" customWidth="1"/>
     <col min="12033" max="12033" width="5" style="3" customWidth="1"/>
-    <col min="12034" max="12034" width="4.6640625" style="3" customWidth="1"/>
-    <col min="12035" max="12035" width="4.21875" style="3" customWidth="1"/>
+    <col min="12034" max="12034" width="4.625" style="3" customWidth="1"/>
+    <col min="12035" max="12035" width="4.25" style="3" customWidth="1"/>
     <col min="12036" max="12036" width="3" style="3" customWidth="1"/>
-    <col min="12037" max="12037" width="6.21875" style="3" customWidth="1"/>
-    <col min="12038" max="12038" width="3.109375" style="3" customWidth="1"/>
-    <col min="12039" max="12039" width="5.33203125" style="3" customWidth="1"/>
+    <col min="12037" max="12037" width="6.25" style="3" customWidth="1"/>
+    <col min="12038" max="12038" width="3.125" style="3" customWidth="1"/>
+    <col min="12039" max="12039" width="5.375" style="3" customWidth="1"/>
     <col min="12040" max="12274" width="9" style="3"/>
-    <col min="12275" max="12275" width="3.77734375" style="3" customWidth="1"/>
-    <col min="12276" max="12276" width="6.33203125" style="3" customWidth="1"/>
-    <col min="12277" max="12277" width="3.109375" style="3" customWidth="1"/>
-    <col min="12278" max="12278" width="2.88671875" style="3" customWidth="1"/>
-    <col min="12279" max="12279" width="4.88671875" style="3" customWidth="1"/>
-    <col min="12280" max="12280" width="8.21875" style="3" customWidth="1"/>
-    <col min="12281" max="12281" width="4.44140625" style="3" customWidth="1"/>
-    <col min="12282" max="12282" width="3.109375" style="3" customWidth="1"/>
-    <col min="12283" max="12283" width="4.6640625" style="3" customWidth="1"/>
-    <col min="12284" max="12284" width="5.33203125" style="3" customWidth="1"/>
-    <col min="12285" max="12285" width="5.109375" style="3" customWidth="1"/>
+    <col min="12275" max="12275" width="3.75" style="3" customWidth="1"/>
+    <col min="12276" max="12276" width="6.375" style="3" customWidth="1"/>
+    <col min="12277" max="12277" width="3.125" style="3" customWidth="1"/>
+    <col min="12278" max="12278" width="2.875" style="3" customWidth="1"/>
+    <col min="12279" max="12279" width="4.875" style="3" customWidth="1"/>
+    <col min="12280" max="12280" width="8.25" style="3" customWidth="1"/>
+    <col min="12281" max="12281" width="4.5" style="3" customWidth="1"/>
+    <col min="12282" max="12282" width="3.125" style="3" customWidth="1"/>
+    <col min="12283" max="12283" width="4.625" style="3" customWidth="1"/>
+    <col min="12284" max="12284" width="5.375" style="3" customWidth="1"/>
+    <col min="12285" max="12285" width="5.125" style="3" customWidth="1"/>
     <col min="12286" max="12286" width="3" style="3" customWidth="1"/>
-    <col min="12287" max="12287" width="3.6640625" style="3" customWidth="1"/>
-    <col min="12288" max="12288" width="3.21875" style="3" customWidth="1"/>
+    <col min="12287" max="12287" width="3.625" style="3" customWidth="1"/>
+    <col min="12288" max="12288" width="3.25" style="3" customWidth="1"/>
     <col min="12289" max="12289" width="5" style="3" customWidth="1"/>
-    <col min="12290" max="12290" width="4.6640625" style="3" customWidth="1"/>
-    <col min="12291" max="12291" width="4.21875" style="3" customWidth="1"/>
+    <col min="12290" max="12290" width="4.625" style="3" customWidth="1"/>
+    <col min="12291" max="12291" width="4.25" style="3" customWidth="1"/>
     <col min="12292" max="12292" width="3" style="3" customWidth="1"/>
-    <col min="12293" max="12293" width="6.21875" style="3" customWidth="1"/>
-    <col min="12294" max="12294" width="3.109375" style="3" customWidth="1"/>
-    <col min="12295" max="12295" width="5.33203125" style="3" customWidth="1"/>
+    <col min="12293" max="12293" width="6.25" style="3" customWidth="1"/>
+    <col min="12294" max="12294" width="3.125" style="3" customWidth="1"/>
+    <col min="12295" max="12295" width="5.375" style="3" customWidth="1"/>
     <col min="12296" max="12530" width="9" style="3"/>
-    <col min="12531" max="12531" width="3.77734375" style="3" customWidth="1"/>
-    <col min="12532" max="12532" width="6.33203125" style="3" customWidth="1"/>
-    <col min="12533" max="12533" width="3.109375" style="3" customWidth="1"/>
-    <col min="12534" max="12534" width="2.88671875" style="3" customWidth="1"/>
-    <col min="12535" max="12535" width="4.88671875" style="3" customWidth="1"/>
-    <col min="12536" max="12536" width="8.21875" style="3" customWidth="1"/>
-    <col min="12537" max="12537" width="4.44140625" style="3" customWidth="1"/>
-    <col min="12538" max="12538" width="3.109375" style="3" customWidth="1"/>
-    <col min="12539" max="12539" width="4.6640625" style="3" customWidth="1"/>
-    <col min="12540" max="12540" width="5.33203125" style="3" customWidth="1"/>
-    <col min="12541" max="12541" width="5.109375" style="3" customWidth="1"/>
+    <col min="12531" max="12531" width="3.75" style="3" customWidth="1"/>
+    <col min="12532" max="12532" width="6.375" style="3" customWidth="1"/>
+    <col min="12533" max="12533" width="3.125" style="3" customWidth="1"/>
+    <col min="12534" max="12534" width="2.875" style="3" customWidth="1"/>
+    <col min="12535" max="12535" width="4.875" style="3" customWidth="1"/>
+    <col min="12536" max="12536" width="8.25" style="3" customWidth="1"/>
+    <col min="12537" max="12537" width="4.5" style="3" customWidth="1"/>
+    <col min="12538" max="12538" width="3.125" style="3" customWidth="1"/>
+    <col min="12539" max="12539" width="4.625" style="3" customWidth="1"/>
+    <col min="12540" max="12540" width="5.375" style="3" customWidth="1"/>
+    <col min="12541" max="12541" width="5.125" style="3" customWidth="1"/>
     <col min="12542" max="12542" width="3" style="3" customWidth="1"/>
-    <col min="12543" max="12543" width="3.6640625" style="3" customWidth="1"/>
-    <col min="12544" max="12544" width="3.21875" style="3" customWidth="1"/>
+    <col min="12543" max="12543" width="3.625" style="3" customWidth="1"/>
+    <col min="12544" max="12544" width="3.25" style="3" customWidth="1"/>
     <col min="12545" max="12545" width="5" style="3" customWidth="1"/>
-    <col min="12546" max="12546" width="4.6640625" style="3" customWidth="1"/>
-    <col min="12547" max="12547" width="4.21875" style="3" customWidth="1"/>
+    <col min="12546" max="12546" width="4.625" style="3" customWidth="1"/>
+    <col min="12547" max="12547" width="4.25" style="3" customWidth="1"/>
     <col min="12548" max="12548" width="3" style="3" customWidth="1"/>
-    <col min="12549" max="12549" width="6.21875" style="3" customWidth="1"/>
-    <col min="12550" max="12550" width="3.109375" style="3" customWidth="1"/>
-    <col min="12551" max="12551" width="5.33203125" style="3" customWidth="1"/>
+    <col min="12549" max="12549" width="6.25" style="3" customWidth="1"/>
+    <col min="12550" max="12550" width="3.125" style="3" customWidth="1"/>
+    <col min="12551" max="12551" width="5.375" style="3" customWidth="1"/>
     <col min="12552" max="12786" width="9" style="3"/>
-    <col min="12787" max="12787" width="3.77734375" style="3" customWidth="1"/>
-    <col min="12788" max="12788" width="6.33203125" style="3" customWidth="1"/>
-    <col min="12789" max="12789" width="3.109375" style="3" customWidth="1"/>
-    <col min="12790" max="12790" width="2.88671875" style="3" customWidth="1"/>
-    <col min="12791" max="12791" width="4.88671875" style="3" customWidth="1"/>
-    <col min="12792" max="12792" width="8.21875" style="3" customWidth="1"/>
-    <col min="12793" max="12793" width="4.44140625" style="3" customWidth="1"/>
-    <col min="12794" max="12794" width="3.109375" style="3" customWidth="1"/>
-    <col min="12795" max="12795" width="4.6640625" style="3" customWidth="1"/>
-    <col min="12796" max="12796" width="5.33203125" style="3" customWidth="1"/>
-    <col min="12797" max="12797" width="5.109375" style="3" customWidth="1"/>
+    <col min="12787" max="12787" width="3.75" style="3" customWidth="1"/>
+    <col min="12788" max="12788" width="6.375" style="3" customWidth="1"/>
+    <col min="12789" max="12789" width="3.125" style="3" customWidth="1"/>
+    <col min="12790" max="12790" width="2.875" style="3" customWidth="1"/>
+    <col min="12791" max="12791" width="4.875" style="3" customWidth="1"/>
+    <col min="12792" max="12792" width="8.25" style="3" customWidth="1"/>
+    <col min="12793" max="12793" width="4.5" style="3" customWidth="1"/>
+    <col min="12794" max="12794" width="3.125" style="3" customWidth="1"/>
+    <col min="12795" max="12795" width="4.625" style="3" customWidth="1"/>
+    <col min="12796" max="12796" width="5.375" style="3" customWidth="1"/>
+    <col min="12797" max="12797" width="5.125" style="3" customWidth="1"/>
     <col min="12798" max="12798" width="3" style="3" customWidth="1"/>
-    <col min="12799" max="12799" width="3.6640625" style="3" customWidth="1"/>
-    <col min="12800" max="12800" width="3.21875" style="3" customWidth="1"/>
+    <col min="12799" max="12799" width="3.625" style="3" customWidth="1"/>
+    <col min="12800" max="12800" width="3.25" style="3" customWidth="1"/>
     <col min="12801" max="12801" width="5" style="3" customWidth="1"/>
-    <col min="12802" max="12802" width="4.6640625" style="3" customWidth="1"/>
-    <col min="12803" max="12803" width="4.21875" style="3" customWidth="1"/>
+    <col min="12802" max="12802" width="4.625" style="3" customWidth="1"/>
+    <col min="12803" max="12803" width="4.25" style="3" customWidth="1"/>
     <col min="12804" max="12804" width="3" style="3" customWidth="1"/>
-    <col min="12805" max="12805" width="6.21875" style="3" customWidth="1"/>
-    <col min="12806" max="12806" width="3.109375" style="3" customWidth="1"/>
-    <col min="12807" max="12807" width="5.33203125" style="3" customWidth="1"/>
+    <col min="12805" max="12805" width="6.25" style="3" customWidth="1"/>
+    <col min="12806" max="12806" width="3.125" style="3" customWidth="1"/>
+    <col min="12807" max="12807" width="5.375" style="3" customWidth="1"/>
     <col min="12808" max="13042" width="9" style="3"/>
-    <col min="13043" max="13043" width="3.77734375" style="3" customWidth="1"/>
-    <col min="13044" max="13044" width="6.33203125" style="3" customWidth="1"/>
-    <col min="13045" max="13045" width="3.109375" style="3" customWidth="1"/>
-    <col min="13046" max="13046" width="2.88671875" style="3" customWidth="1"/>
-    <col min="13047" max="13047" width="4.88671875" style="3" customWidth="1"/>
-    <col min="13048" max="13048" width="8.21875" style="3" customWidth="1"/>
-    <col min="13049" max="13049" width="4.44140625" style="3" customWidth="1"/>
-    <col min="13050" max="13050" width="3.109375" style="3" customWidth="1"/>
-    <col min="13051" max="13051" width="4.6640625" style="3" customWidth="1"/>
-    <col min="13052" max="13052" width="5.33203125" style="3" customWidth="1"/>
-    <col min="13053" max="13053" width="5.109375" style="3" customWidth="1"/>
+    <col min="13043" max="13043" width="3.75" style="3" customWidth="1"/>
+    <col min="13044" max="13044" width="6.375" style="3" customWidth="1"/>
+    <col min="13045" max="13045" width="3.125" style="3" customWidth="1"/>
+    <col min="13046" max="13046" width="2.875" style="3" customWidth="1"/>
+    <col min="13047" max="13047" width="4.875" style="3" customWidth="1"/>
+    <col min="13048" max="13048" width="8.25" style="3" customWidth="1"/>
+    <col min="13049" max="13049" width="4.5" style="3" customWidth="1"/>
+    <col min="13050" max="13050" width="3.125" style="3" customWidth="1"/>
+    <col min="13051" max="13051" width="4.625" style="3" customWidth="1"/>
+    <col min="13052" max="13052" width="5.375" style="3" customWidth="1"/>
+    <col min="13053" max="13053" width="5.125" style="3" customWidth="1"/>
     <col min="13054" max="13054" width="3" style="3" customWidth="1"/>
-    <col min="13055" max="13055" width="3.6640625" style="3" customWidth="1"/>
-    <col min="13056" max="13056" width="3.21875" style="3" customWidth="1"/>
+    <col min="13055" max="13055" width="3.625" style="3" customWidth="1"/>
+    <col min="13056" max="13056" width="3.25" style="3" customWidth="1"/>
     <col min="13057" max="13057" width="5" style="3" customWidth="1"/>
-    <col min="13058" max="13058" width="4.6640625" style="3" customWidth="1"/>
-    <col min="13059" max="13059" width="4.21875" style="3" customWidth="1"/>
+    <col min="13058" max="13058" width="4.625" style="3" customWidth="1"/>
+    <col min="13059" max="13059" width="4.25" style="3" customWidth="1"/>
     <col min="13060" max="13060" width="3" style="3" customWidth="1"/>
-    <col min="13061" max="13061" width="6.21875" style="3" customWidth="1"/>
-    <col min="13062" max="13062" width="3.109375" style="3" customWidth="1"/>
-    <col min="13063" max="13063" width="5.33203125" style="3" customWidth="1"/>
+    <col min="13061" max="13061" width="6.25" style="3" customWidth="1"/>
+    <col min="13062" max="13062" width="3.125" style="3" customWidth="1"/>
+    <col min="13063" max="13063" width="5.375" style="3" customWidth="1"/>
     <col min="13064" max="13298" width="9" style="3"/>
-    <col min="13299" max="13299" width="3.77734375" style="3" customWidth="1"/>
-    <col min="13300" max="13300" width="6.33203125" style="3" customWidth="1"/>
-    <col min="13301" max="13301" width="3.109375" style="3" customWidth="1"/>
-    <col min="13302" max="13302" width="2.88671875" style="3" customWidth="1"/>
-    <col min="13303" max="13303" width="4.88671875" style="3" customWidth="1"/>
-    <col min="13304" max="13304" width="8.21875" style="3" customWidth="1"/>
-    <col min="13305" max="13305" width="4.44140625" style="3" customWidth="1"/>
-    <col min="13306" max="13306" width="3.109375" style="3" customWidth="1"/>
-    <col min="13307" max="13307" width="4.6640625" style="3" customWidth="1"/>
-    <col min="13308" max="13308" width="5.33203125" style="3" customWidth="1"/>
-    <col min="13309" max="13309" width="5.109375" style="3" customWidth="1"/>
+    <col min="13299" max="13299" width="3.75" style="3" customWidth="1"/>
+    <col min="13300" max="13300" width="6.375" style="3" customWidth="1"/>
+    <col min="13301" max="13301" width="3.125" style="3" customWidth="1"/>
+    <col min="13302" max="13302" width="2.875" style="3" customWidth="1"/>
+    <col min="13303" max="13303" width="4.875" style="3" customWidth="1"/>
+    <col min="13304" max="13304" width="8.25" style="3" customWidth="1"/>
+    <col min="13305" max="13305" width="4.5" style="3" customWidth="1"/>
+    <col min="13306" max="13306" width="3.125" style="3" customWidth="1"/>
+    <col min="13307" max="13307" width="4.625" style="3" customWidth="1"/>
+    <col min="13308" max="13308" width="5.375" style="3" customWidth="1"/>
+    <col min="13309" max="13309" width="5.125" style="3" customWidth="1"/>
     <col min="13310" max="13310" width="3" style="3" customWidth="1"/>
-    <col min="13311" max="13311" width="3.6640625" style="3" customWidth="1"/>
-    <col min="13312" max="13312" width="3.21875" style="3" customWidth="1"/>
+    <col min="13311" max="13311" width="3.625" style="3" customWidth="1"/>
+    <col min="13312" max="13312" width="3.25" style="3" customWidth="1"/>
     <col min="13313" max="13313" width="5" style="3" customWidth="1"/>
-    <col min="13314" max="13314" width="4.6640625" style="3" customWidth="1"/>
-    <col min="13315" max="13315" width="4.21875" style="3" customWidth="1"/>
+    <col min="13314" max="13314" width="4.625" style="3" customWidth="1"/>
+    <col min="13315" max="13315" width="4.25" style="3" customWidth="1"/>
     <col min="13316" max="13316" width="3" style="3" customWidth="1"/>
-    <col min="13317" max="13317" width="6.21875" style="3" customWidth="1"/>
-    <col min="13318" max="13318" width="3.109375" style="3" customWidth="1"/>
-    <col min="13319" max="13319" width="5.33203125" style="3" customWidth="1"/>
+    <col min="13317" max="13317" width="6.25" style="3" customWidth="1"/>
+    <col min="13318" max="13318" width="3.125" style="3" customWidth="1"/>
+    <col min="13319" max="13319" width="5.375" style="3" customWidth="1"/>
     <col min="13320" max="13554" width="9" style="3"/>
-    <col min="13555" max="13555" width="3.77734375" style="3" customWidth="1"/>
-    <col min="13556" max="13556" width="6.33203125" style="3" customWidth="1"/>
-    <col min="13557" max="13557" width="3.109375" style="3" customWidth="1"/>
-    <col min="13558" max="13558" width="2.88671875" style="3" customWidth="1"/>
-    <col min="13559" max="13559" width="4.88671875" style="3" customWidth="1"/>
-    <col min="13560" max="13560" width="8.21875" style="3" customWidth="1"/>
-    <col min="13561" max="13561" width="4.44140625" style="3" customWidth="1"/>
-    <col min="13562" max="13562" width="3.109375" style="3" customWidth="1"/>
-    <col min="13563" max="13563" width="4.6640625" style="3" customWidth="1"/>
-    <col min="13564" max="13564" width="5.33203125" style="3" customWidth="1"/>
-    <col min="13565" max="13565" width="5.109375" style="3" customWidth="1"/>
+    <col min="13555" max="13555" width="3.75" style="3" customWidth="1"/>
+    <col min="13556" max="13556" width="6.375" style="3" customWidth="1"/>
+    <col min="13557" max="13557" width="3.125" style="3" customWidth="1"/>
+    <col min="13558" max="13558" width="2.875" style="3" customWidth="1"/>
+    <col min="13559" max="13559" width="4.875" style="3" customWidth="1"/>
+    <col min="13560" max="13560" width="8.25" style="3" customWidth="1"/>
+    <col min="13561" max="13561" width="4.5" style="3" customWidth="1"/>
+    <col min="13562" max="13562" width="3.125" style="3" customWidth="1"/>
+    <col min="13563" max="13563" width="4.625" style="3" customWidth="1"/>
+    <col min="13564" max="13564" width="5.375" style="3" customWidth="1"/>
+    <col min="13565" max="13565" width="5.125" style="3" customWidth="1"/>
     <col min="13566" max="13566" width="3" style="3" customWidth="1"/>
-    <col min="13567" max="13567" width="3.6640625" style="3" customWidth="1"/>
-    <col min="13568" max="13568" width="3.21875" style="3" customWidth="1"/>
+    <col min="13567" max="13567" width="3.625" style="3" customWidth="1"/>
+    <col min="13568" max="13568" width="3.25" style="3" customWidth="1"/>
     <col min="13569" max="13569" width="5" style="3" customWidth="1"/>
-    <col min="13570" max="13570" width="4.6640625" style="3" customWidth="1"/>
-    <col min="13571" max="13571" width="4.21875" style="3" customWidth="1"/>
+    <col min="13570" max="13570" width="4.625" style="3" customWidth="1"/>
+    <col min="13571" max="13571" width="4.25" style="3" customWidth="1"/>
     <col min="13572" max="13572" width="3" style="3" customWidth="1"/>
-    <col min="13573" max="13573" width="6.21875" style="3" customWidth="1"/>
-    <col min="13574" max="13574" width="3.109375" style="3" customWidth="1"/>
-    <col min="13575" max="13575" width="5.33203125" style="3" customWidth="1"/>
+    <col min="13573" max="13573" width="6.25" style="3" customWidth="1"/>
+    <col min="13574" max="13574" width="3.125" style="3" customWidth="1"/>
+    <col min="13575" max="13575" width="5.375" style="3" customWidth="1"/>
     <col min="13576" max="13810" width="9" style="3"/>
-    <col min="13811" max="13811" width="3.77734375" style="3" customWidth="1"/>
-    <col min="13812" max="13812" width="6.33203125" style="3" customWidth="1"/>
-    <col min="13813" max="13813" width="3.109375" style="3" customWidth="1"/>
-    <col min="13814" max="13814" width="2.88671875" style="3" customWidth="1"/>
-    <col min="13815" max="13815" width="4.88671875" style="3" customWidth="1"/>
-    <col min="13816" max="13816" width="8.21875" style="3" customWidth="1"/>
-    <col min="13817" max="13817" width="4.44140625" style="3" customWidth="1"/>
-    <col min="13818" max="13818" width="3.109375" style="3" customWidth="1"/>
-    <col min="13819" max="13819" width="4.6640625" style="3" customWidth="1"/>
-    <col min="13820" max="13820" width="5.33203125" style="3" customWidth="1"/>
-    <col min="13821" max="13821" width="5.109375" style="3" customWidth="1"/>
+    <col min="13811" max="13811" width="3.75" style="3" customWidth="1"/>
+    <col min="13812" max="13812" width="6.375" style="3" customWidth="1"/>
+    <col min="13813" max="13813" width="3.125" style="3" customWidth="1"/>
+    <col min="13814" max="13814" width="2.875" style="3" customWidth="1"/>
+    <col min="13815" max="13815" width="4.875" style="3" customWidth="1"/>
+    <col min="13816" max="13816" width="8.25" style="3" customWidth="1"/>
+    <col min="13817" max="13817" width="4.5" style="3" customWidth="1"/>
+    <col min="13818" max="13818" width="3.125" style="3" customWidth="1"/>
+    <col min="13819" max="13819" width="4.625" style="3" customWidth="1"/>
+    <col min="13820" max="13820" width="5.375" style="3" customWidth="1"/>
+    <col min="13821" max="13821" width="5.125" style="3" customWidth="1"/>
     <col min="13822" max="13822" width="3" style="3" customWidth="1"/>
-    <col min="13823" max="13823" width="3.6640625" style="3" customWidth="1"/>
-    <col min="13824" max="13824" width="3.21875" style="3" customWidth="1"/>
+    <col min="13823" max="13823" width="3.625" style="3" customWidth="1"/>
+    <col min="13824" max="13824" width="3.25" style="3" customWidth="1"/>
     <col min="13825" max="13825" width="5" style="3" customWidth="1"/>
-    <col min="13826" max="13826" width="4.6640625" style="3" customWidth="1"/>
-    <col min="13827" max="13827" width="4.21875" style="3" customWidth="1"/>
+    <col min="13826" max="13826" width="4.625" style="3" customWidth="1"/>
+    <col min="13827" max="13827" width="4.25" style="3" customWidth="1"/>
     <col min="13828" max="13828" width="3" style="3" customWidth="1"/>
-    <col min="13829" max="13829" width="6.21875" style="3" customWidth="1"/>
-    <col min="13830" max="13830" width="3.109375" style="3" customWidth="1"/>
-    <col min="13831" max="13831" width="5.33203125" style="3" customWidth="1"/>
+    <col min="13829" max="13829" width="6.25" style="3" customWidth="1"/>
+    <col min="13830" max="13830" width="3.125" style="3" customWidth="1"/>
+    <col min="13831" max="13831" width="5.375" style="3" customWidth="1"/>
     <col min="13832" max="14066" width="9" style="3"/>
-    <col min="14067" max="14067" width="3.77734375" style="3" customWidth="1"/>
-    <col min="14068" max="14068" width="6.33203125" style="3" customWidth="1"/>
-    <col min="14069" max="14069" width="3.109375" style="3" customWidth="1"/>
-    <col min="14070" max="14070" width="2.88671875" style="3" customWidth="1"/>
-    <col min="14071" max="14071" width="4.88671875" style="3" customWidth="1"/>
-    <col min="14072" max="14072" width="8.21875" style="3" customWidth="1"/>
-    <col min="14073" max="14073" width="4.44140625" style="3" customWidth="1"/>
-    <col min="14074" max="14074" width="3.109375" style="3" customWidth="1"/>
-    <col min="14075" max="14075" width="4.6640625" style="3" customWidth="1"/>
-    <col min="14076" max="14076" width="5.33203125" style="3" customWidth="1"/>
-    <col min="14077" max="14077" width="5.109375" style="3" customWidth="1"/>
+    <col min="14067" max="14067" width="3.75" style="3" customWidth="1"/>
+    <col min="14068" max="14068" width="6.375" style="3" customWidth="1"/>
+    <col min="14069" max="14069" width="3.125" style="3" customWidth="1"/>
+    <col min="14070" max="14070" width="2.875" style="3" customWidth="1"/>
+    <col min="14071" max="14071" width="4.875" style="3" customWidth="1"/>
+    <col min="14072" max="14072" width="8.25" style="3" customWidth="1"/>
+    <col min="14073" max="14073" width="4.5" style="3" customWidth="1"/>
+    <col min="14074" max="14074" width="3.125" style="3" customWidth="1"/>
+    <col min="14075" max="14075" width="4.625" style="3" customWidth="1"/>
+    <col min="14076" max="14076" width="5.375" style="3" customWidth="1"/>
+    <col min="14077" max="14077" width="5.125" style="3" customWidth="1"/>
     <col min="14078" max="14078" width="3" style="3" customWidth="1"/>
-    <col min="14079" max="14079" width="3.6640625" style="3" customWidth="1"/>
-    <col min="14080" max="14080" width="3.21875" style="3" customWidth="1"/>
+    <col min="14079" max="14079" width="3.625" style="3" customWidth="1"/>
+    <col min="14080" max="14080" width="3.25" style="3" customWidth="1"/>
     <col min="14081" max="14081" width="5" style="3" customWidth="1"/>
-    <col min="14082" max="14082" width="4.6640625" style="3" customWidth="1"/>
-    <col min="14083" max="14083" width="4.21875" style="3" customWidth="1"/>
+    <col min="14082" max="14082" width="4.625" style="3" customWidth="1"/>
+    <col min="14083" max="14083" width="4.25" style="3" customWidth="1"/>
     <col min="14084" max="14084" width="3" style="3" customWidth="1"/>
-    <col min="14085" max="14085" width="6.21875" style="3" customWidth="1"/>
-    <col min="14086" max="14086" width="3.109375" style="3" customWidth="1"/>
-    <col min="14087" max="14087" width="5.33203125" style="3" customWidth="1"/>
+    <col min="14085" max="14085" width="6.25" style="3" customWidth="1"/>
+    <col min="14086" max="14086" width="3.125" style="3" customWidth="1"/>
+    <col min="14087" max="14087" width="5.375" style="3" customWidth="1"/>
     <col min="14088" max="14322" width="9" style="3"/>
-    <col min="14323" max="14323" width="3.77734375" style="3" customWidth="1"/>
-    <col min="14324" max="14324" width="6.33203125" style="3" customWidth="1"/>
-    <col min="14325" max="14325" width="3.109375" style="3" customWidth="1"/>
-    <col min="14326" max="14326" width="2.88671875" style="3" customWidth="1"/>
-    <col min="14327" max="14327" width="4.88671875" style="3" customWidth="1"/>
-    <col min="14328" max="14328" width="8.21875" style="3" customWidth="1"/>
-    <col min="14329" max="14329" width="4.44140625" style="3" customWidth="1"/>
-    <col min="14330" max="14330" width="3.109375" style="3" customWidth="1"/>
-    <col min="14331" max="14331" width="4.6640625" style="3" customWidth="1"/>
-    <col min="14332" max="14332" width="5.33203125" style="3" customWidth="1"/>
-    <col min="14333" max="14333" width="5.109375" style="3" customWidth="1"/>
+    <col min="14323" max="14323" width="3.75" style="3" customWidth="1"/>
+    <col min="14324" max="14324" width="6.375" style="3" customWidth="1"/>
+    <col min="14325" max="14325" width="3.125" style="3" customWidth="1"/>
+    <col min="14326" max="14326" width="2.875" style="3" customWidth="1"/>
+    <col min="14327" max="14327" width="4.875" style="3" customWidth="1"/>
+    <col min="14328" max="14328" width="8.25" style="3" customWidth="1"/>
+    <col min="14329" max="14329" width="4.5" style="3" customWidth="1"/>
+    <col min="14330" max="14330" width="3.125" style="3" customWidth="1"/>
+    <col min="14331" max="14331" width="4.625" style="3" customWidth="1"/>
+    <col min="14332" max="14332" width="5.375" style="3" customWidth="1"/>
+    <col min="14333" max="14333" width="5.125" style="3" customWidth="1"/>
     <col min="14334" max="14334" width="3" style="3" customWidth="1"/>
-    <col min="14335" max="14335" width="3.6640625" style="3" customWidth="1"/>
-    <col min="14336" max="14336" width="3.21875" style="3" customWidth="1"/>
+    <col min="14335" max="14335" width="3.625" style="3" customWidth="1"/>
+    <col min="14336" max="14336" width="3.25" style="3" customWidth="1"/>
     <col min="14337" max="14337" width="5" style="3" customWidth="1"/>
-    <col min="14338" max="14338" width="4.6640625" style="3" customWidth="1"/>
-    <col min="14339" max="14339" width="4.21875" style="3" customWidth="1"/>
+    <col min="14338" max="14338" width="4.625" style="3" customWidth="1"/>
+    <col min="14339" max="14339" width="4.25" style="3" customWidth="1"/>
     <col min="14340" max="14340" width="3" style="3" customWidth="1"/>
-    <col min="14341" max="14341" width="6.21875" style="3" customWidth="1"/>
-    <col min="14342" max="14342" width="3.109375" style="3" customWidth="1"/>
-    <col min="14343" max="14343" width="5.33203125" style="3" customWidth="1"/>
+    <col min="14341" max="14341" width="6.25" style="3" customWidth="1"/>
+    <col min="14342" max="14342" width="3.125" style="3" customWidth="1"/>
+    <col min="14343" max="14343" width="5.375" style="3" customWidth="1"/>
     <col min="14344" max="14578" width="9" style="3"/>
-    <col min="14579" max="14579" width="3.77734375" style="3" customWidth="1"/>
-    <col min="14580" max="14580" width="6.33203125" style="3" customWidth="1"/>
-    <col min="14581" max="14581" width="3.109375" style="3" customWidth="1"/>
-    <col min="14582" max="14582" width="2.88671875" style="3" customWidth="1"/>
-    <col min="14583" max="14583" width="4.88671875" style="3" customWidth="1"/>
-    <col min="14584" max="14584" width="8.21875" style="3" customWidth="1"/>
-    <col min="14585" max="14585" width="4.44140625" style="3" customWidth="1"/>
-    <col min="14586" max="14586" width="3.109375" style="3" customWidth="1"/>
-    <col min="14587" max="14587" width="4.6640625" style="3" customWidth="1"/>
-    <col min="14588" max="14588" width="5.33203125" style="3" customWidth="1"/>
-    <col min="14589" max="14589" width="5.109375" style="3" customWidth="1"/>
+    <col min="14579" max="14579" width="3.75" style="3" customWidth="1"/>
+    <col min="14580" max="14580" width="6.375" style="3" customWidth="1"/>
+    <col min="14581" max="14581" width="3.125" style="3" customWidth="1"/>
+    <col min="14582" max="14582" width="2.875" style="3" customWidth="1"/>
+    <col min="14583" max="14583" width="4.875" style="3" customWidth="1"/>
+    <col min="14584" max="14584" width="8.25" style="3" customWidth="1"/>
+    <col min="14585" max="14585" width="4.5" style="3" customWidth="1"/>
+    <col min="14586" max="14586" width="3.125" style="3" customWidth="1"/>
+    <col min="14587" max="14587" width="4.625" style="3" customWidth="1"/>
+    <col min="14588" max="14588" width="5.375" style="3" customWidth="1"/>
+    <col min="14589" max="14589" width="5.125" style="3" customWidth="1"/>
     <col min="14590" max="14590" width="3" style="3" customWidth="1"/>
-    <col min="14591" max="14591" width="3.6640625" style="3" customWidth="1"/>
-    <col min="14592" max="14592" width="3.21875" style="3" customWidth="1"/>
+    <col min="14591" max="14591" width="3.625" style="3" customWidth="1"/>
+    <col min="14592" max="14592" width="3.25" style="3" customWidth="1"/>
     <col min="14593" max="14593" width="5" style="3" customWidth="1"/>
-    <col min="14594" max="14594" width="4.6640625" style="3" customWidth="1"/>
-    <col min="14595" max="14595" width="4.21875" style="3" customWidth="1"/>
+    <col min="14594" max="14594" width="4.625" style="3" customWidth="1"/>
+    <col min="14595" max="14595" width="4.25" style="3" customWidth="1"/>
     <col min="14596" max="14596" width="3" style="3" customWidth="1"/>
-    <col min="14597" max="14597" width="6.21875" style="3" customWidth="1"/>
-    <col min="14598" max="14598" width="3.109375" style="3" customWidth="1"/>
-    <col min="14599" max="14599" width="5.33203125" style="3" customWidth="1"/>
+    <col min="14597" max="14597" width="6.25" style="3" customWidth="1"/>
+    <col min="14598" max="14598" width="3.125" style="3" customWidth="1"/>
+    <col min="14599" max="14599" width="5.375" style="3" customWidth="1"/>
     <col min="14600" max="14834" width="9" style="3"/>
-    <col min="14835" max="14835" width="3.77734375" style="3" customWidth="1"/>
-    <col min="14836" max="14836" width="6.33203125" style="3" customWidth="1"/>
-    <col min="14837" max="14837" width="3.109375" style="3" customWidth="1"/>
-    <col min="14838" max="14838" width="2.88671875" style="3" customWidth="1"/>
-    <col min="14839" max="14839" width="4.88671875" style="3" customWidth="1"/>
-    <col min="14840" max="14840" width="8.21875" style="3" customWidth="1"/>
-    <col min="14841" max="14841" width="4.44140625" style="3" customWidth="1"/>
-    <col min="14842" max="14842" width="3.109375" style="3" customWidth="1"/>
-    <col min="14843" max="14843" width="4.6640625" style="3" customWidth="1"/>
-    <col min="14844" max="14844" width="5.33203125" style="3" customWidth="1"/>
-    <col min="14845" max="14845" width="5.109375" style="3" customWidth="1"/>
+    <col min="14835" max="14835" width="3.75" style="3" customWidth="1"/>
+    <col min="14836" max="14836" width="6.375" style="3" customWidth="1"/>
+    <col min="14837" max="14837" width="3.125" style="3" customWidth="1"/>
+    <col min="14838" max="14838" width="2.875" style="3" customWidth="1"/>
+    <col min="14839" max="14839" width="4.875" style="3" customWidth="1"/>
+    <col min="14840" max="14840" width="8.25" style="3" customWidth="1"/>
+    <col min="14841" max="14841" width="4.5" style="3" customWidth="1"/>
+    <col min="14842" max="14842" width="3.125" style="3" customWidth="1"/>
+    <col min="14843" max="14843" width="4.625" style="3" customWidth="1"/>
+    <col min="14844" max="14844" width="5.375" style="3" customWidth="1"/>
+    <col min="14845" max="14845" width="5.125" style="3" customWidth="1"/>
     <col min="14846" max="14846" width="3" style="3" customWidth="1"/>
-    <col min="14847" max="14847" width="3.6640625" style="3" customWidth="1"/>
-    <col min="14848" max="14848" width="3.21875" style="3" customWidth="1"/>
+    <col min="14847" max="14847" width="3.625" style="3" customWidth="1"/>
+    <col min="14848" max="14848" width="3.25" style="3" customWidth="1"/>
     <col min="14849" max="14849" width="5" style="3" customWidth="1"/>
-    <col min="14850" max="14850" width="4.6640625" style="3" customWidth="1"/>
-    <col min="14851" max="14851" width="4.21875" style="3" customWidth="1"/>
+    <col min="14850" max="14850" width="4.625" style="3" customWidth="1"/>
+    <col min="14851" max="14851" width="4.25" style="3" customWidth="1"/>
     <col min="14852" max="14852" width="3" style="3" customWidth="1"/>
-    <col min="14853" max="14853" width="6.21875" style="3" customWidth="1"/>
-    <col min="14854" max="14854" width="3.109375" style="3" customWidth="1"/>
-    <col min="14855" max="14855" width="5.33203125" style="3" customWidth="1"/>
+    <col min="14853" max="14853" width="6.25" style="3" customWidth="1"/>
+    <col min="14854" max="14854" width="3.125" style="3" customWidth="1"/>
+    <col min="14855" max="14855" width="5.375" style="3" customWidth="1"/>
     <col min="14856" max="15090" width="9" style="3"/>
-    <col min="15091" max="15091" width="3.77734375" style="3" customWidth="1"/>
-    <col min="15092" max="15092" width="6.33203125" style="3" customWidth="1"/>
-    <col min="15093" max="15093" width="3.109375" style="3" customWidth="1"/>
-    <col min="15094" max="15094" width="2.88671875" style="3" customWidth="1"/>
-    <col min="15095" max="15095" width="4.88671875" style="3" customWidth="1"/>
-    <col min="15096" max="15096" width="8.21875" style="3" customWidth="1"/>
-    <col min="15097" max="15097" width="4.44140625" style="3" customWidth="1"/>
-    <col min="15098" max="15098" width="3.109375" style="3" customWidth="1"/>
-    <col min="15099" max="15099" width="4.6640625" style="3" customWidth="1"/>
-    <col min="15100" max="15100" width="5.33203125" style="3" customWidth="1"/>
-    <col min="15101" max="15101" width="5.109375" style="3" customWidth="1"/>
+    <col min="15091" max="15091" width="3.75" style="3" customWidth="1"/>
+    <col min="15092" max="15092" width="6.375" style="3" customWidth="1"/>
+    <col min="15093" max="15093" width="3.125" style="3" customWidth="1"/>
+    <col min="15094" max="15094" width="2.875" style="3" customWidth="1"/>
+    <col min="15095" max="15095" width="4.875" style="3" customWidth="1"/>
+    <col min="15096" max="15096" width="8.25" style="3" customWidth="1"/>
+    <col min="15097" max="15097" width="4.5" style="3" customWidth="1"/>
+    <col min="15098" max="15098" width="3.125" style="3" customWidth="1"/>
+    <col min="15099" max="15099" width="4.625" style="3" customWidth="1"/>
+    <col min="15100" max="15100" width="5.375" style="3" customWidth="1"/>
+    <col min="15101" max="15101" width="5.125" style="3" customWidth="1"/>
     <col min="15102" max="15102" width="3" style="3" customWidth="1"/>
-    <col min="15103" max="15103" width="3.6640625" style="3" customWidth="1"/>
-    <col min="15104" max="15104" width="3.21875" style="3" customWidth="1"/>
+    <col min="15103" max="15103" width="3.625" style="3" customWidth="1"/>
+    <col min="15104" max="15104" width="3.25" style="3" customWidth="1"/>
     <col min="15105" max="15105" width="5" style="3" customWidth="1"/>
-    <col min="15106" max="15106" width="4.6640625" style="3" customWidth="1"/>
-    <col min="15107" max="15107" width="4.21875" style="3" customWidth="1"/>
+    <col min="15106" max="15106" width="4.625" style="3" customWidth="1"/>
+    <col min="15107" max="15107" width="4.25" style="3" customWidth="1"/>
     <col min="15108" max="15108" width="3" style="3" customWidth="1"/>
-    <col min="15109" max="15109" width="6.21875" style="3" customWidth="1"/>
-    <col min="15110" max="15110" width="3.109375" style="3" customWidth="1"/>
-    <col min="15111" max="15111" width="5.33203125" style="3" customWidth="1"/>
+    <col min="15109" max="15109" width="6.25" style="3" customWidth="1"/>
+    <col min="15110" max="15110" width="3.125" style="3" customWidth="1"/>
+    <col min="15111" max="15111" width="5.375" style="3" customWidth="1"/>
     <col min="15112" max="15346" width="9" style="3"/>
-    <col min="15347" max="15347" width="3.77734375" style="3" customWidth="1"/>
-    <col min="15348" max="15348" width="6.33203125" style="3" customWidth="1"/>
-    <col min="15349" max="15349" width="3.109375" style="3" customWidth="1"/>
-    <col min="15350" max="15350" width="2.88671875" style="3" customWidth="1"/>
-    <col min="15351" max="15351" width="4.88671875" style="3" customWidth="1"/>
-    <col min="15352" max="15352" width="8.21875" style="3" customWidth="1"/>
-    <col min="15353" max="15353" width="4.44140625" style="3" customWidth="1"/>
-    <col min="15354" max="15354" width="3.109375" style="3" customWidth="1"/>
-    <col min="15355" max="15355" width="4.6640625" style="3" customWidth="1"/>
-    <col min="15356" max="15356" width="5.33203125" style="3" customWidth="1"/>
-    <col min="15357" max="15357" width="5.109375" style="3" customWidth="1"/>
+    <col min="15347" max="15347" width="3.75" style="3" customWidth="1"/>
+    <col min="15348" max="15348" width="6.375" style="3" customWidth="1"/>
+    <col min="15349" max="15349" width="3.125" style="3" customWidth="1"/>
+    <col min="15350" max="15350" width="2.875" style="3" customWidth="1"/>
+    <col min="15351" max="15351" width="4.875" style="3" customWidth="1"/>
+    <col min="15352" max="15352" width="8.25" style="3" customWidth="1"/>
+    <col min="15353" max="15353" width="4.5" style="3" customWidth="1"/>
+    <col min="15354" max="15354" width="3.125" style="3" customWidth="1"/>
+    <col min="15355" max="15355" width="4.625" style="3" customWidth="1"/>
+    <col min="15356" max="15356" width="5.375" style="3" customWidth="1"/>
+    <col min="15357" max="15357" width="5.125" style="3" customWidth="1"/>
     <col min="15358" max="15358" width="3" style="3" customWidth="1"/>
-    <col min="15359" max="15359" width="3.6640625" style="3" customWidth="1"/>
-    <col min="15360" max="15360" width="3.21875" style="3" customWidth="1"/>
+    <col min="15359" max="15359" width="3.625" style="3" customWidth="1"/>
+    <col min="15360" max="15360" width="3.25" style="3" customWidth="1"/>
     <col min="15361" max="15361" width="5" style="3" customWidth="1"/>
-    <col min="15362" max="15362" width="4.6640625" style="3" customWidth="1"/>
-    <col min="15363" max="15363" width="4.21875" style="3" customWidth="1"/>
+    <col min="15362" max="15362" width="4.625" style="3" customWidth="1"/>
+    <col min="15363" max="15363" width="4.25" style="3" customWidth="1"/>
     <col min="15364" max="15364" width="3" style="3" customWidth="1"/>
-    <col min="15365" max="15365" width="6.21875" style="3" customWidth="1"/>
-    <col min="15366" max="15366" width="3.109375" style="3" customWidth="1"/>
-    <col min="15367" max="15367" width="5.33203125" style="3" customWidth="1"/>
+    <col min="15365" max="15365" width="6.25" style="3" customWidth="1"/>
+    <col min="15366" max="15366" width="3.125" style="3" customWidth="1"/>
+    <col min="15367" max="15367" width="5.375" style="3" customWidth="1"/>
     <col min="15368" max="15602" width="9" style="3"/>
-    <col min="15603" max="15603" width="3.77734375" style="3" customWidth="1"/>
-    <col min="15604" max="15604" width="6.33203125" style="3" customWidth="1"/>
-    <col min="15605" max="15605" width="3.109375" style="3" customWidth="1"/>
-    <col min="15606" max="15606" width="2.88671875" style="3" customWidth="1"/>
-    <col min="15607" max="15607" width="4.88671875" style="3" customWidth="1"/>
-    <col min="15608" max="15608" width="8.21875" style="3" customWidth="1"/>
-    <col min="15609" max="15609" width="4.44140625" style="3" customWidth="1"/>
-    <col min="15610" max="15610" width="3.109375" style="3" customWidth="1"/>
-    <col min="15611" max="15611" width="4.6640625" style="3" customWidth="1"/>
-    <col min="15612" max="15612" width="5.33203125" style="3" customWidth="1"/>
-    <col min="15613" max="15613" width="5.109375" style="3" customWidth="1"/>
+    <col min="15603" max="15603" width="3.75" style="3" customWidth="1"/>
+    <col min="15604" max="15604" width="6.375" style="3" customWidth="1"/>
+    <col min="15605" max="15605" width="3.125" style="3" customWidth="1"/>
+    <col min="15606" max="15606" width="2.875" style="3" customWidth="1"/>
+    <col min="15607" max="15607" width="4.875" style="3" customWidth="1"/>
+    <col min="15608" max="15608" width="8.25" style="3" customWidth="1"/>
+    <col min="15609" max="15609" width="4.5" style="3" customWidth="1"/>
+    <col min="15610" max="15610" width="3.125" style="3" customWidth="1"/>
+    <col min="15611" max="15611" width="4.625" style="3" customWidth="1"/>
+    <col min="15612" max="15612" width="5.375" style="3" customWidth="1"/>
+    <col min="15613" max="15613" width="5.125" style="3" customWidth="1"/>
     <col min="15614" max="15614" width="3" style="3" customWidth="1"/>
-    <col min="15615" max="15615" width="3.6640625" style="3" customWidth="1"/>
-    <col min="15616" max="15616" width="3.21875" style="3" customWidth="1"/>
+    <col min="15615" max="15615" width="3.625" style="3" customWidth="1"/>
+    <col min="15616" max="15616" width="3.25" style="3" customWidth="1"/>
     <col min="15617" max="15617" width="5" style="3" customWidth="1"/>
-    <col min="15618" max="15618" width="4.6640625" style="3" customWidth="1"/>
-    <col min="15619" max="15619" width="4.21875" style="3" customWidth="1"/>
+    <col min="15618" max="15618" width="4.625" style="3" customWidth="1"/>
+    <col min="15619" max="15619" width="4.25" style="3" customWidth="1"/>
     <col min="15620" max="15620" width="3" style="3" customWidth="1"/>
-    <col min="15621" max="15621" width="6.21875" style="3" customWidth="1"/>
-    <col min="15622" max="15622" width="3.109375" style="3" customWidth="1"/>
-    <col min="15623" max="15623" width="5.33203125" style="3" customWidth="1"/>
+    <col min="15621" max="15621" width="6.25" style="3" customWidth="1"/>
+    <col min="15622" max="15622" width="3.125" style="3" customWidth="1"/>
+    <col min="15623" max="15623" width="5.375" style="3" customWidth="1"/>
     <col min="15624" max="15858" width="9" style="3"/>
-    <col min="15859" max="15859" width="3.77734375" style="3" customWidth="1"/>
-    <col min="15860" max="15860" width="6.33203125" style="3" customWidth="1"/>
-    <col min="15861" max="15861" width="3.109375" style="3" customWidth="1"/>
-    <col min="15862" max="15862" width="2.88671875" style="3" customWidth="1"/>
-    <col min="15863" max="15863" width="4.88671875" style="3" customWidth="1"/>
-    <col min="15864" max="15864" width="8.21875" style="3" customWidth="1"/>
-    <col min="15865" max="15865" width="4.44140625" style="3" customWidth="1"/>
-    <col min="15866" max="15866" width="3.109375" style="3" customWidth="1"/>
-    <col min="15867" max="15867" width="4.6640625" style="3" customWidth="1"/>
-    <col min="15868" max="15868" width="5.33203125" style="3" customWidth="1"/>
-    <col min="15869" max="15869" width="5.109375" style="3" customWidth="1"/>
+    <col min="15859" max="15859" width="3.75" style="3" customWidth="1"/>
+    <col min="15860" max="15860" width="6.375" style="3" customWidth="1"/>
+    <col min="15861" max="15861" width="3.125" style="3" customWidth="1"/>
+    <col min="15862" max="15862" width="2.875" style="3" customWidth="1"/>
+    <col min="15863" max="15863" width="4.875" style="3" customWidth="1"/>
+    <col min="15864" max="15864" width="8.25" style="3" customWidth="1"/>
+    <col min="15865" max="15865" width="4.5" style="3" customWidth="1"/>
+    <col min="15866" max="15866" width="3.125" style="3" customWidth="1"/>
+    <col min="15867" max="15867" width="4.625" style="3" customWidth="1"/>
+    <col min="15868" max="15868" width="5.375" style="3" customWidth="1"/>
+    <col min="15869" max="15869" width="5.125" style="3" customWidth="1"/>
     <col min="15870" max="15870" width="3" style="3" customWidth="1"/>
-    <col min="15871" max="15871" width="3.6640625" style="3" customWidth="1"/>
-    <col min="15872" max="15872" width="3.21875" style="3" customWidth="1"/>
+    <col min="15871" max="15871" width="3.625" style="3" customWidth="1"/>
+    <col min="15872" max="15872" width="3.25" style="3" customWidth="1"/>
     <col min="15873" max="15873" width="5" style="3" customWidth="1"/>
-    <col min="15874" max="15874" width="4.6640625" style="3" customWidth="1"/>
-    <col min="15875" max="15875" width="4.21875" style="3" customWidth="1"/>
+    <col min="15874" max="15874" width="4.625" style="3" customWidth="1"/>
+    <col min="15875" max="15875" width="4.25" style="3" customWidth="1"/>
     <col min="15876" max="15876" width="3" style="3" customWidth="1"/>
-    <col min="15877" max="15877" width="6.21875" style="3" customWidth="1"/>
-    <col min="15878" max="15878" width="3.109375" style="3" customWidth="1"/>
-    <col min="15879" max="15879" width="5.33203125" style="3" customWidth="1"/>
+    <col min="15877" max="15877" width="6.25" style="3" customWidth="1"/>
+    <col min="15878" max="15878" width="3.125" style="3" customWidth="1"/>
+    <col min="15879" max="15879" width="5.375" style="3" customWidth="1"/>
     <col min="15880" max="16114" width="9" style="3"/>
-    <col min="16115" max="16115" width="3.77734375" style="3" customWidth="1"/>
-    <col min="16116" max="16116" width="6.33203125" style="3" customWidth="1"/>
-    <col min="16117" max="16117" width="3.109375" style="3" customWidth="1"/>
-    <col min="16118" max="16118" width="2.88671875" style="3" customWidth="1"/>
-    <col min="16119" max="16119" width="4.88671875" style="3" customWidth="1"/>
-    <col min="16120" max="16120" width="8.21875" style="3" customWidth="1"/>
-    <col min="16121" max="16121" width="4.44140625" style="3" customWidth="1"/>
-    <col min="16122" max="16122" width="3.109375" style="3" customWidth="1"/>
-    <col min="16123" max="16123" width="4.6640625" style="3" customWidth="1"/>
-    <col min="16124" max="16124" width="5.33203125" style="3" customWidth="1"/>
-    <col min="16125" max="16125" width="5.109375" style="3" customWidth="1"/>
+    <col min="16115" max="16115" width="3.75" style="3" customWidth="1"/>
+    <col min="16116" max="16116" width="6.375" style="3" customWidth="1"/>
+    <col min="16117" max="16117" width="3.125" style="3" customWidth="1"/>
+    <col min="16118" max="16118" width="2.875" style="3" customWidth="1"/>
+    <col min="16119" max="16119" width="4.875" style="3" customWidth="1"/>
+    <col min="16120" max="16120" width="8.25" style="3" customWidth="1"/>
+    <col min="16121" max="16121" width="4.5" style="3" customWidth="1"/>
+    <col min="16122" max="16122" width="3.125" style="3" customWidth="1"/>
+    <col min="16123" max="16123" width="4.625" style="3" customWidth="1"/>
+    <col min="16124" max="16124" width="5.375" style="3" customWidth="1"/>
+    <col min="16125" max="16125" width="5.125" style="3" customWidth="1"/>
     <col min="16126" max="16126" width="3" style="3" customWidth="1"/>
-    <col min="16127" max="16127" width="3.6640625" style="3" customWidth="1"/>
-    <col min="16128" max="16128" width="3.21875" style="3" customWidth="1"/>
+    <col min="16127" max="16127" width="3.625" style="3" customWidth="1"/>
+    <col min="16128" max="16128" width="3.25" style="3" customWidth="1"/>
     <col min="16129" max="16129" width="5" style="3" customWidth="1"/>
-    <col min="16130" max="16130" width="4.6640625" style="3" customWidth="1"/>
-    <col min="16131" max="16131" width="4.21875" style="3" customWidth="1"/>
+    <col min="16130" max="16130" width="4.625" style="3" customWidth="1"/>
+    <col min="16131" max="16131" width="4.25" style="3" customWidth="1"/>
     <col min="16132" max="16132" width="3" style="3" customWidth="1"/>
-    <col min="16133" max="16133" width="6.21875" style="3" customWidth="1"/>
-    <col min="16134" max="16134" width="3.109375" style="3" customWidth="1"/>
-    <col min="16135" max="16135" width="5.33203125" style="3" customWidth="1"/>
+    <col min="16133" max="16133" width="6.25" style="3" customWidth="1"/>
+    <col min="16134" max="16134" width="3.125" style="3" customWidth="1"/>
+    <col min="16135" max="16135" width="5.375" style="3" customWidth="1"/>
     <col min="16136" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="136.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3962,19 +3929,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3996,7 +3963,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="8" customFormat="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4018,7 +3985,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="8" customFormat="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4040,7 +4007,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="8" customFormat="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4062,7 +4029,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="8" customFormat="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4084,7 +4051,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="8" customFormat="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4106,7 +4073,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="8" customFormat="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4128,7 +4095,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4150,7 +4117,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="8" customFormat="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4172,7 +4139,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="8" customFormat="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4194,7 +4161,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="8" customFormat="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -4216,7 +4183,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="8" customFormat="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4238,7 +4205,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="8" customFormat="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -4260,7 +4227,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="8" customFormat="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4282,7 +4249,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="8" customFormat="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4304,7 +4271,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4326,7 +4293,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="8" customFormat="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -4348,7 +4315,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="8" customFormat="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -4370,7 +4337,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="8" customFormat="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4392,7 +4359,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="8" customFormat="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -4414,7 +4381,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="8" customFormat="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4436,7 +4403,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="8" customFormat="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4458,7 +4425,7 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="8" customFormat="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4480,7 +4447,7 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="8" customFormat="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4502,7 +4469,7 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="8" customFormat="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4524,7 +4491,7 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4546,7 +4513,7 @@
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="8" customFormat="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4568,7 +4535,7 @@
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="8" customFormat="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4590,7 +4557,7 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="8" customFormat="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4612,7 +4579,7 @@
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="8" customFormat="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4634,7 +4601,7 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="8" customFormat="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4656,7 +4623,7 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4678,7 +4645,7 @@
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="8" customFormat="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4700,7 +4667,7 @@
       </c>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4722,7 +4689,7 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="8" customFormat="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4744,7 +4711,7 @@
       </c>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="8" customFormat="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4766,7 +4733,7 @@
       </c>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="8" customFormat="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4788,7 +4755,7 @@
       </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="8" customFormat="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4810,7 +4777,7 @@
       </c>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="8" customFormat="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4832,7 +4799,7 @@
       </c>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="8" customFormat="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4854,7 +4821,7 @@
       </c>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="8" customFormat="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4876,7 +4843,7 @@
       </c>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="8" customFormat="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4898,7 +4865,7 @@
       </c>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="8" customFormat="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4920,7 +4887,7 @@
       </c>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="8" customFormat="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4942,7 +4909,7 @@
       </c>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4964,7 +4931,7 @@
       </c>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="8" customFormat="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4986,7 +4953,7 @@
       </c>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="8" customFormat="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5008,7 +4975,7 @@
       </c>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5030,7 +4997,7 @@
       </c>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="8" customFormat="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -5052,7 +5019,7 @@
       </c>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5074,7 +5041,7 @@
       </c>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5096,7 +5063,7 @@
       </c>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="8" customFormat="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -5118,7 +5085,7 @@
       </c>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="8" customFormat="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -5140,7 +5107,7 @@
       </c>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -5162,7 +5129,7 @@
       </c>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="8" customFormat="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -5184,7 +5151,7 @@
       </c>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -5206,7 +5173,7 @@
       </c>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5228,7 +5195,7 @@
       </c>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="8" customFormat="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5250,7 +5217,7 @@
       </c>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="8" customFormat="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5272,7 +5239,7 @@
       </c>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5294,7 +5261,7 @@
       </c>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="8" customFormat="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5316,7 +5283,7 @@
       </c>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="8" customFormat="1">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -5338,7 +5305,7 @@
       </c>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="8" customFormat="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -5360,7 +5327,7 @@
       </c>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="8" customFormat="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -5382,7 +5349,7 @@
       </c>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="8" customFormat="1">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -5404,7 +5371,7 @@
       </c>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="8" customFormat="1">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -5426,7 +5393,7 @@
       </c>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -5448,7 +5415,7 @@
       </c>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="8" customFormat="1">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -5470,7 +5437,7 @@
       </c>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="8" customFormat="1">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -5492,7 +5459,7 @@
       </c>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="8" customFormat="1">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -5514,7 +5481,7 @@
       </c>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -5536,7 +5503,7 @@
       </c>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="8" customFormat="1">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -5558,7 +5525,7 @@
       </c>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -5580,7 +5547,7 @@
       </c>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="8" customFormat="1">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -5602,7 +5569,7 @@
       </c>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -5624,7 +5591,7 @@
       </c>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -5646,7 +5613,7 @@
       </c>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -5668,7 +5635,7 @@
       </c>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="8" customFormat="1">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -5690,7 +5657,7 @@
       </c>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="8" customFormat="1">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -5712,7 +5679,7 @@
       </c>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="8" customFormat="1">
       <c r="A81" s="4">
         <v>1</v>
       </c>
@@ -5734,7 +5701,7 @@
       </c>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="8" customFormat="1">
       <c r="A82" s="4">
         <v>2</v>
       </c>
@@ -5756,7 +5723,7 @@
       </c>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="8" customFormat="1">
       <c r="A83" s="4">
         <v>3</v>
       </c>
@@ -5778,7 +5745,7 @@
       </c>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="8" customFormat="1">
       <c r="A84" s="4">
         <v>4</v>
       </c>
@@ -5800,7 +5767,7 @@
       </c>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="8" customFormat="1">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -5822,7 +5789,7 @@
       </c>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="8" customFormat="1">
       <c r="A86" s="4">
         <v>6</v>
       </c>
@@ -5844,7 +5811,7 @@
       </c>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="8" customFormat="1">
       <c r="A87" s="4">
         <v>7</v>
       </c>
@@ -5866,7 +5833,7 @@
       </c>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="8" customFormat="1">
       <c r="A88" s="4">
         <v>8</v>
       </c>
@@ -5888,7 +5855,7 @@
       </c>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="8" customFormat="1">
       <c r="A89" s="4">
         <v>9</v>
       </c>
@@ -5910,7 +5877,7 @@
       </c>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="8" customFormat="1">
       <c r="A90" s="4">
         <v>10</v>
       </c>
@@ -5932,7 +5899,7 @@
       </c>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="8" customFormat="1">
       <c r="A91" s="4">
         <v>11</v>
       </c>
@@ -5954,7 +5921,7 @@
       </c>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="8" customFormat="1">
       <c r="A92" s="4">
         <v>12</v>
       </c>
@@ -5976,7 +5943,7 @@
       </c>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="8" customFormat="1">
       <c r="A93" s="4">
         <v>13</v>
       </c>
@@ -5998,7 +5965,7 @@
       </c>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="8" customFormat="1">
       <c r="A94" s="4">
         <v>14</v>
       </c>
@@ -6020,7 +5987,7 @@
       </c>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="8" customFormat="1">
       <c r="A95" s="4">
         <v>15</v>
       </c>
@@ -6042,7 +6009,7 @@
       </c>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A96" s="4">
         <v>16</v>
       </c>
@@ -6064,7 +6031,7 @@
       </c>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="8" customFormat="1">
       <c r="A97" s="4">
         <v>17</v>
       </c>
@@ -6086,7 +6053,7 @@
       </c>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="8" customFormat="1">
       <c r="A98" s="4">
         <v>18</v>
       </c>
@@ -6108,7 +6075,7 @@
       </c>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="8" customFormat="1">
       <c r="A99" s="4">
         <v>19</v>
       </c>
@@ -6130,7 +6097,7 @@
       </c>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="8" customFormat="1">
       <c r="A100" s="4">
         <v>20</v>
       </c>
@@ -6152,7 +6119,7 @@
       </c>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A101" s="4">
         <v>21</v>
       </c>
@@ -6174,7 +6141,7 @@
       </c>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A102" s="4">
         <v>22</v>
       </c>
@@ -6196,7 +6163,7 @@
       </c>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="8" customFormat="1">
       <c r="A103" s="4">
         <v>23</v>
       </c>
@@ -6218,7 +6185,7 @@
       </c>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="8" customFormat="1">
       <c r="A104" s="4">
         <v>24</v>
       </c>
@@ -6240,7 +6207,7 @@
       </c>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="8" customFormat="1">
       <c r="A105" s="4">
         <v>25</v>
       </c>
@@ -6262,7 +6229,7 @@
       </c>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="8" customFormat="1">
       <c r="A106" s="4">
         <v>26</v>
       </c>
@@ -6284,7 +6251,7 @@
       </c>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="8" customFormat="1">
       <c r="A107" s="4">
         <v>27</v>
       </c>
@@ -6306,7 +6273,7 @@
       </c>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="8" customFormat="1">
       <c r="A108" s="4">
         <v>28</v>
       </c>
@@ -6328,7 +6295,7 @@
       </c>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A109" s="4">
         <v>29</v>
       </c>
@@ -6350,7 +6317,7 @@
       </c>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A110" s="4">
         <v>30</v>
       </c>
@@ -6372,7 +6339,7 @@
       </c>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="8" customFormat="1">
       <c r="A111" s="4">
         <v>31</v>
       </c>
@@ -6394,7 +6361,7 @@
       </c>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A112" s="4">
         <v>32</v>
       </c>
@@ -6416,7 +6383,7 @@
       </c>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="8" customFormat="1">
       <c r="A113" s="4">
         <v>33</v>
       </c>
@@ -6438,7 +6405,7 @@
       </c>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A114" s="4">
         <v>34</v>
       </c>
@@ -6460,7 +6427,7 @@
       </c>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="8" customFormat="1">
       <c r="A115" s="4">
         <v>35</v>
       </c>
@@ -6482,7 +6449,7 @@
       </c>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="8" customFormat="1">
       <c r="A116" s="4">
         <v>36</v>
       </c>
@@ -6504,7 +6471,7 @@
       </c>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A117" s="4">
         <v>37</v>
       </c>
@@ -6526,7 +6493,7 @@
       </c>
       <c r="H117" s="13"/>
     </row>
-    <row r="118" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="8" customFormat="1">
       <c r="A118" s="4">
         <v>38</v>
       </c>
@@ -6548,7 +6515,7 @@
       </c>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A119" s="4">
         <v>39</v>
       </c>
@@ -6570,7 +6537,7 @@
       </c>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="8" customFormat="1">
       <c r="A120" s="4">
         <v>40</v>
       </c>
@@ -6592,7 +6559,7 @@
       </c>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="8" customFormat="1">
       <c r="A121" s="4">
         <v>41</v>
       </c>
@@ -6614,7 +6581,7 @@
       </c>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="8" customFormat="1">
       <c r="A122" s="4">
         <v>42</v>
       </c>
@@ -6636,7 +6603,7 @@
       </c>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A123" s="4">
         <v>43</v>
       </c>
@@ -6658,7 +6625,7 @@
       </c>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="8" customFormat="1">
       <c r="A124" s="4">
         <v>44</v>
       </c>
@@ -6680,7 +6647,7 @@
       </c>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="8" customFormat="1">
       <c r="A125" s="4">
         <v>45</v>
       </c>
@@ -6702,7 +6669,7 @@
       </c>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="8" customFormat="1">
       <c r="A126" s="4">
         <v>46</v>
       </c>
@@ -6724,7 +6691,7 @@
       </c>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="8" customFormat="1">
       <c r="A127" s="4">
         <v>47</v>
       </c>
@@ -6746,7 +6713,7 @@
       </c>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A128" s="4">
         <v>48</v>
       </c>
@@ -6768,7 +6735,7 @@
       </c>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="8" customFormat="1">
       <c r="A129" s="4">
         <v>49</v>
       </c>
@@ -6790,7 +6757,7 @@
       </c>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="8" customFormat="1">
       <c r="A130" s="4">
         <v>50</v>
       </c>
@@ -6812,7 +6779,7 @@
       </c>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="8" customFormat="1">
       <c r="A131" s="4">
         <v>51</v>
       </c>
@@ -6834,7 +6801,7 @@
       </c>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="8" customFormat="1">
       <c r="A132" s="4">
         <v>52</v>
       </c>
@@ -6856,7 +6823,7 @@
       </c>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A133" s="4">
         <v>53</v>
       </c>
@@ -6878,7 +6845,7 @@
       </c>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="8" customFormat="1">
       <c r="A134" s="4">
         <v>54</v>
       </c>
@@ -6900,7 +6867,7 @@
       </c>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="8" customFormat="1">
       <c r="A135" s="4">
         <v>55</v>
       </c>
@@ -6922,7 +6889,7 @@
       </c>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A136" s="4">
         <v>56</v>
       </c>
@@ -6944,7 +6911,7 @@
       </c>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="8" customFormat="1">
       <c r="A137" s="4">
         <v>57</v>
       </c>
@@ -6966,7 +6933,7 @@
       </c>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="8" customFormat="1">
       <c r="A138" s="4">
         <v>58</v>
       </c>
@@ -6988,7 +6955,7 @@
       </c>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="8" customFormat="1">
       <c r="A139" s="4">
         <v>59</v>
       </c>
@@ -7010,7 +6977,7 @@
       </c>
       <c r="H139" s="6"/>
     </row>
-    <row r="140" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A140" s="4">
         <v>60</v>
       </c>
@@ -7032,7 +6999,7 @@
       </c>
       <c r="H140" s="6"/>
     </row>
-    <row r="141" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="8" customFormat="1">
       <c r="A141" s="4">
         <v>61</v>
       </c>
@@ -7054,7 +7021,7 @@
       </c>
       <c r="H141" s="6"/>
     </row>
-    <row r="142" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="8" customFormat="1">
       <c r="A142" s="4">
         <v>62</v>
       </c>
@@ -7076,7 +7043,7 @@
       </c>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A143" s="4">
         <v>63</v>
       </c>
@@ -7098,7 +7065,7 @@
       </c>
       <c r="H143" s="6"/>
     </row>
-    <row r="144" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="8" customFormat="1">
       <c r="A144" s="4">
         <v>64</v>
       </c>
@@ -7120,7 +7087,7 @@
       </c>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A145" s="4">
         <v>65</v>
       </c>
@@ -7142,7 +7109,7 @@
       </c>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="8" customFormat="1">
       <c r="A146" s="4">
         <v>66</v>
       </c>
@@ -7164,7 +7131,7 @@
       </c>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="8" customFormat="1">
       <c r="A147" s="4">
         <v>67</v>
       </c>
@@ -7186,7 +7153,7 @@
       </c>
       <c r="H147" s="6"/>
     </row>
-    <row r="148" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="8" customFormat="1">
       <c r="A148" s="4">
         <v>68</v>
       </c>
@@ -7208,7 +7175,7 @@
       </c>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="8" customFormat="1">
       <c r="A149" s="4">
         <v>69</v>
       </c>
@@ -7230,7 +7197,7 @@
       </c>
       <c r="H149" s="6"/>
     </row>
-    <row r="150" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A150" s="4">
         <v>70</v>
       </c>
@@ -7252,7 +7219,7 @@
       </c>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="8" customFormat="1">
       <c r="A151" s="4">
         <v>71</v>
       </c>
@@ -7274,7 +7241,7 @@
       </c>
       <c r="H151" s="6"/>
     </row>
-    <row r="152" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="8" customFormat="1">
       <c r="A152" s="4">
         <v>72</v>
       </c>
@@ -7296,7 +7263,7 @@
       </c>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="8" customFormat="1">
       <c r="A153" s="4">
         <v>73</v>
       </c>
@@ -7318,7 +7285,7 @@
       </c>
       <c r="H153" s="6"/>
     </row>
-    <row r="154" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A154" s="4">
         <v>74</v>
       </c>
@@ -7340,7 +7307,7 @@
       </c>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="8" customFormat="1">
       <c r="A155" s="4">
         <v>75</v>
       </c>
@@ -7362,7 +7329,7 @@
       </c>
       <c r="H155" s="6"/>
     </row>
-    <row r="156" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A156" s="4">
         <v>76</v>
       </c>
@@ -7384,7 +7351,7 @@
       </c>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="8" customFormat="1">
       <c r="A157" s="4">
         <v>77</v>
       </c>
@@ -7406,7 +7373,7 @@
       </c>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="8" customFormat="1">
       <c r="A158" s="4">
         <v>78</v>
       </c>
@@ -7428,7 +7395,7 @@
       </c>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A159" s="4">
         <v>79</v>
       </c>
@@ -7450,7 +7417,7 @@
       </c>
       <c r="H159" s="6"/>
     </row>
-    <row r="160" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="8" customFormat="1">
       <c r="A160" s="4">
         <v>80</v>
       </c>
@@ -7472,7 +7439,7 @@
       </c>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="8" customFormat="1">
       <c r="A161" s="4">
         <v>81</v>
       </c>
@@ -7494,7 +7461,7 @@
       </c>
       <c r="H161" s="6"/>
     </row>
-    <row r="162" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="8" customFormat="1">
       <c r="A162" s="4">
         <v>82</v>
       </c>
@@ -7516,7 +7483,7 @@
       </c>
       <c r="H162" s="6"/>
     </row>
-    <row r="163" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="8" customFormat="1">
       <c r="A163" s="4">
         <v>83</v>
       </c>
@@ -7538,7 +7505,7 @@
       </c>
       <c r="H163" s="6"/>
     </row>
-    <row r="164" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A164" s="4">
         <v>84</v>
       </c>
@@ -7560,7 +7527,7 @@
       </c>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="8" customFormat="1">
       <c r="A165" s="4">
         <v>85</v>
       </c>
@@ -7582,7 +7549,7 @@
       </c>
       <c r="H165" s="6"/>
     </row>
-    <row r="166" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="8" customFormat="1">
       <c r="A166" s="4">
         <v>86</v>
       </c>
@@ -7604,7 +7571,7 @@
       </c>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A167" s="4">
         <v>87</v>
       </c>
@@ -7626,7 +7593,7 @@
       </c>
       <c r="H167" s="6"/>
     </row>
-    <row r="168" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A168" s="4">
         <v>88</v>
       </c>
@@ -7648,7 +7615,7 @@
       </c>
       <c r="H168" s="6"/>
     </row>
-    <row r="169" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="8" customFormat="1">
       <c r="A169" s="4">
         <v>89</v>
       </c>
@@ -7670,7 +7637,7 @@
       </c>
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="8" customFormat="1">
       <c r="A170" s="4">
         <v>90</v>
       </c>
@@ -7692,7 +7659,7 @@
       </c>
       <c r="H170" s="6"/>
     </row>
-    <row r="171" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="8" customFormat="1">
       <c r="A171" s="4">
         <v>91</v>
       </c>
@@ -7714,7 +7681,7 @@
       </c>
       <c r="H171" s="6"/>
     </row>
-    <row r="172" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A172" s="4">
         <v>92</v>
       </c>
@@ -7736,7 +7703,7 @@
       </c>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="8" customFormat="1">
       <c r="A173" s="4">
         <v>93</v>
       </c>
@@ -7758,7 +7725,7 @@
       </c>
       <c r="H173" s="6"/>
     </row>
-    <row r="174" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A174" s="4">
         <v>94</v>
       </c>
@@ -7780,7 +7747,7 @@
       </c>
       <c r="H174" s="6"/>
     </row>
-    <row r="175" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="8" customFormat="1">
       <c r="A175" s="4">
         <v>95</v>
       </c>
@@ -7802,7 +7769,7 @@
       </c>
       <c r="H175" s="6"/>
     </row>
-    <row r="176" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A176" s="4">
         <v>96</v>
       </c>
@@ -7824,7 +7791,7 @@
       </c>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="8" customFormat="1">
       <c r="A177" s="4">
         <v>97</v>
       </c>
@@ -7846,7 +7813,7 @@
       </c>
       <c r="H177" s="6"/>
     </row>
-    <row r="178" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="8" customFormat="1">
       <c r="A178" s="4">
         <v>98</v>
       </c>
@@ -7868,7 +7835,7 @@
       </c>
       <c r="H178" s="6"/>
     </row>
-    <row r="179" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="8" customFormat="1">
       <c r="A179" s="4">
         <v>99</v>
       </c>
@@ -7890,7 +7857,7 @@
       </c>
       <c r="H179" s="6"/>
     </row>
-    <row r="180" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A180" s="4">
         <v>100</v>
       </c>
@@ -7912,7 +7879,7 @@
       </c>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="8" customFormat="1">
       <c r="A181" s="4">
         <v>101</v>
       </c>
@@ -7934,7 +7901,7 @@
       </c>
       <c r="H181" s="6"/>
     </row>
-    <row r="182" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A182" s="4">
         <v>102</v>
       </c>
@@ -7956,7 +7923,7 @@
       </c>
       <c r="H182" s="6"/>
     </row>
-    <row r="183" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="8" customFormat="1">
       <c r="A183" s="4">
         <v>103</v>
       </c>
@@ -7978,7 +7945,7 @@
       </c>
       <c r="H183" s="6"/>
     </row>
-    <row r="184" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="8" customFormat="1">
       <c r="A184" s="4">
         <v>104</v>
       </c>
@@ -8000,7 +7967,7 @@
       </c>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A185" s="4">
         <v>105</v>
       </c>
@@ -8022,7 +7989,7 @@
       </c>
       <c r="H185" s="6"/>
     </row>
-    <row r="186" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A186" s="4">
         <v>106</v>
       </c>
@@ -8044,7 +8011,7 @@
       </c>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="8" customFormat="1">
       <c r="A187" s="4">
         <v>107</v>
       </c>
@@ -8066,7 +8033,7 @@
       </c>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="8" customFormat="1">
       <c r="A188" s="4">
         <v>108</v>
       </c>
@@ -8088,7 +8055,7 @@
       </c>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="8" customFormat="1">
       <c r="A189" s="4">
         <v>109</v>
       </c>
@@ -8110,7 +8077,7 @@
       </c>
       <c r="H189" s="6"/>
     </row>
-    <row r="190" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="8" customFormat="1">
       <c r="A190" s="4">
         <v>110</v>
       </c>
@@ -8132,7 +8099,7 @@
       </c>
       <c r="H190" s="6"/>
     </row>
-    <row r="191" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="8" customFormat="1">
       <c r="A191" s="4">
         <v>111</v>
       </c>
@@ -8154,7 +8121,7 @@
       </c>
       <c r="H191" s="6"/>
     </row>
-    <row r="192" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="8" customFormat="1">
       <c r="A192" s="4">
         <v>112</v>
       </c>
@@ -8176,7 +8143,7 @@
       </c>
       <c r="H192" s="6"/>
     </row>
-    <row r="193" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A193" s="4">
         <v>113</v>
       </c>
@@ -8198,7 +8165,7 @@
       </c>
       <c r="H193" s="6"/>
     </row>
-    <row r="194" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="8" customFormat="1">
       <c r="A194" s="4">
         <v>114</v>
       </c>
@@ -8220,7 +8187,7 @@
       </c>
       <c r="H194" s="6"/>
     </row>
-    <row r="195" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A195" s="4">
         <v>115</v>
       </c>
@@ -8242,7 +8209,7 @@
       </c>
       <c r="H195" s="6"/>
     </row>
-    <row r="196" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="8" customFormat="1">
       <c r="A196" s="4">
         <v>116</v>
       </c>
@@ -8264,7 +8231,7 @@
       </c>
       <c r="H196" s="6"/>
     </row>
-    <row r="197" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="8" customFormat="1">
       <c r="A197" s="4">
         <v>117</v>
       </c>
@@ -8286,7 +8253,7 @@
       </c>
       <c r="H197" s="6"/>
     </row>
-    <row r="198" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A198" s="4">
         <v>118</v>
       </c>
@@ -8308,7 +8275,7 @@
       </c>
       <c r="H198" s="6"/>
     </row>
-    <row r="199" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="8" customFormat="1">
       <c r="A199" s="4">
         <v>119</v>
       </c>
@@ -8330,7 +8297,7 @@
       </c>
       <c r="H199" s="6"/>
     </row>
-    <row r="200" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A200" s="4">
         <v>120</v>
       </c>
@@ -8352,7 +8319,7 @@
       </c>
       <c r="H200" s="6"/>
     </row>
-    <row r="201" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="8" customFormat="1">
       <c r="A201" s="4">
         <v>121</v>
       </c>
@@ -8374,7 +8341,7 @@
       </c>
       <c r="H201" s="6"/>
     </row>
-    <row r="202" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="8" customFormat="1">
       <c r="A202" s="4">
         <v>122</v>
       </c>
@@ -8396,7 +8363,7 @@
       </c>
       <c r="H202" s="6"/>
     </row>
-    <row r="203" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="8" customFormat="1">
       <c r="A203" s="4">
         <v>123</v>
       </c>
@@ -8418,7 +8385,7 @@
       </c>
       <c r="H203" s="6"/>
     </row>
-    <row r="204" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="8" customFormat="1">
       <c r="A204" s="4">
         <v>124</v>
       </c>
@@ -8440,7 +8407,7 @@
       </c>
       <c r="H204" s="6"/>
     </row>
-    <row r="205" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="8" customFormat="1">
       <c r="A205" s="4">
         <v>125</v>
       </c>
@@ -8462,7 +8429,7 @@
       </c>
       <c r="H205" s="6"/>
     </row>
-    <row r="206" spans="1:8" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A206" s="4">
         <v>1</v>
       </c>
@@ -8484,7 +8451,7 @@
       </c>
       <c r="H206" s="6"/>
     </row>
-    <row r="207" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A207" s="4">
         <v>2</v>
       </c>
@@ -8506,7 +8473,7 @@
       </c>
       <c r="H207" s="6"/>
     </row>
-    <row r="208" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="8" customFormat="1">
       <c r="A208" s="4">
         <v>3</v>
       </c>
@@ -8528,7 +8495,7 @@
       </c>
       <c r="H208" s="6"/>
     </row>
-    <row r="209" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="8" customFormat="1">
       <c r="A209" s="4">
         <v>4</v>
       </c>
@@ -8550,7 +8517,7 @@
       </c>
       <c r="H209" s="6"/>
     </row>
-    <row r="210" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A210" s="4">
         <v>5</v>
       </c>
@@ -8572,7 +8539,7 @@
       </c>
       <c r="H210" s="6"/>
     </row>
-    <row r="211" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="8" customFormat="1">
       <c r="A211" s="4">
         <v>6</v>
       </c>
@@ -8594,7 +8561,7 @@
       </c>
       <c r="H211" s="6"/>
     </row>
-    <row r="212" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="8" customFormat="1">
       <c r="A212" s="4">
         <v>7</v>
       </c>
@@ -8616,7 +8583,7 @@
       </c>
       <c r="H212" s="6"/>
     </row>
-    <row r="213" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="8" customFormat="1">
       <c r="A213" s="4">
         <v>8</v>
       </c>
@@ -8638,7 +8605,7 @@
       </c>
       <c r="H213" s="6"/>
     </row>
-    <row r="214" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="8" customFormat="1">
       <c r="A214" s="4">
         <v>9</v>
       </c>
@@ -8660,7 +8627,7 @@
       </c>
       <c r="H214" s="6"/>
     </row>
-    <row r="215" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="8" customFormat="1">
       <c r="A215" s="4">
         <v>10</v>
       </c>
@@ -8682,7 +8649,7 @@
       </c>
       <c r="H215" s="6"/>
     </row>
-    <row r="216" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="8" customFormat="1">
       <c r="A216" s="4">
         <v>11</v>
       </c>
@@ -8704,7 +8671,7 @@
       </c>
       <c r="H216" s="6"/>
     </row>
-    <row r="217" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="8" customFormat="1">
       <c r="A217" s="4">
         <v>12</v>
       </c>
@@ -8726,7 +8693,7 @@
       </c>
       <c r="H217" s="6"/>
     </row>
-    <row r="218" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="8" customFormat="1">
       <c r="A218" s="4">
         <v>13</v>
       </c>
@@ -8748,7 +8715,7 @@
       </c>
       <c r="H218" s="6"/>
     </row>
-    <row r="219" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="8" customFormat="1">
       <c r="A219" s="4">
         <v>14</v>
       </c>
@@ -8770,7 +8737,7 @@
       </c>
       <c r="H219" s="6"/>
     </row>
-    <row r="220" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A220" s="4">
         <v>15</v>
       </c>
@@ -8792,7 +8759,7 @@
       </c>
       <c r="H220" s="6"/>
     </row>
-    <row r="221" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="8" customFormat="1">
       <c r="A221" s="4">
         <v>16</v>
       </c>
@@ -8814,7 +8781,7 @@
       </c>
       <c r="H221" s="6"/>
     </row>
-    <row r="222" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A222" s="4">
         <v>17</v>
       </c>
@@ -8836,7 +8803,7 @@
       </c>
       <c r="H222" s="6"/>
     </row>
-    <row r="223" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="8" customFormat="1">
       <c r="A223" s="4">
         <v>18</v>
       </c>
@@ -8858,7 +8825,7 @@
       </c>
       <c r="H223" s="6"/>
     </row>
-    <row r="224" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" s="8" customFormat="1">
       <c r="A224" s="4">
         <v>19</v>
       </c>
@@ -8880,7 +8847,7 @@
       </c>
       <c r="H224" s="6"/>
     </row>
-    <row r="225" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A225" s="4">
         <v>20</v>
       </c>
@@ -8902,7 +8869,7 @@
       </c>
       <c r="H225" s="6"/>
     </row>
-    <row r="226" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" s="8" customFormat="1">
       <c r="A226" s="4">
         <v>21</v>
       </c>
@@ -8924,7 +8891,7 @@
       </c>
       <c r="H226" s="6"/>
     </row>
-    <row r="227" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" s="8" customFormat="1">
       <c r="A227" s="4">
         <v>22</v>
       </c>
@@ -8946,7 +8913,7 @@
       </c>
       <c r="H227" s="6"/>
     </row>
-    <row r="228" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" s="8" customFormat="1">
       <c r="A228" s="4">
         <v>23</v>
       </c>
@@ -8968,7 +8935,7 @@
       </c>
       <c r="H228" s="6"/>
     </row>
-    <row r="229" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A229" s="4">
         <v>24</v>
       </c>
@@ -8990,7 +8957,7 @@
       </c>
       <c r="H229" s="6"/>
     </row>
-    <row r="230" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" s="8" customFormat="1">
       <c r="A230" s="4">
         <v>25</v>
       </c>
@@ -9012,7 +8979,7 @@
       </c>
       <c r="H230" s="6"/>
     </row>
-    <row r="231" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A231" s="4">
         <v>26</v>
       </c>
@@ -9034,7 +9001,7 @@
       </c>
       <c r="H231" s="6"/>
     </row>
-    <row r="232" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" s="8" customFormat="1">
       <c r="A232" s="4">
         <v>27</v>
       </c>
@@ -9056,7 +9023,7 @@
       </c>
       <c r="H232" s="6"/>
     </row>
-    <row r="233" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" s="8" customFormat="1">
       <c r="A233" s="4">
         <v>28</v>
       </c>
@@ -9078,7 +9045,7 @@
       </c>
       <c r="H233" s="6"/>
     </row>
-    <row r="234" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A234" s="4">
         <v>29</v>
       </c>
@@ -9100,7 +9067,7 @@
       </c>
       <c r="H234" s="6"/>
     </row>
-    <row r="235" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" s="8" customFormat="1">
       <c r="A235" s="4">
         <v>30</v>
       </c>
@@ -9122,7 +9089,7 @@
       </c>
       <c r="H235" s="6"/>
     </row>
-    <row r="236" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" s="8" customFormat="1">
       <c r="A236" s="4">
         <v>31</v>
       </c>
@@ -9144,7 +9111,7 @@
       </c>
       <c r="H236" s="6"/>
     </row>
-    <row r="237" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" s="8" customFormat="1">
       <c r="A237" s="4">
         <v>32</v>
       </c>
@@ -9166,7 +9133,7 @@
       </c>
       <c r="H237" s="6"/>
     </row>
-    <row r="238" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" s="8" customFormat="1">
       <c r="A238" s="4">
         <v>33</v>
       </c>
@@ -9188,7 +9155,7 @@
       </c>
       <c r="H238" s="13"/>
     </row>
-    <row r="239" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A239" s="4">
         <v>34</v>
       </c>
@@ -9210,7 +9177,7 @@
       </c>
       <c r="H239" s="6"/>
     </row>
-    <row r="240" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A240" s="4">
         <v>35</v>
       </c>
@@ -9232,7 +9199,7 @@
       </c>
       <c r="H240" s="6"/>
     </row>
-    <row r="241" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" s="8" customFormat="1">
       <c r="A241" s="4">
         <v>36</v>
       </c>
@@ -9254,7 +9221,7 @@
       </c>
       <c r="H241" s="6"/>
     </row>
-    <row r="242" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" s="8" customFormat="1">
       <c r="A242" s="4">
         <v>37</v>
       </c>
@@ -9276,7 +9243,7 @@
       </c>
       <c r="H242" s="6"/>
     </row>
-    <row r="243" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A243" s="4">
         <v>38</v>
       </c>
@@ -9298,7 +9265,7 @@
       </c>
       <c r="H243" s="13"/>
     </row>
-    <row r="244" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A244" s="4">
         <v>39</v>
       </c>
@@ -9320,7 +9287,7 @@
       </c>
       <c r="H244" s="6"/>
     </row>
-    <row r="245" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" s="8" customFormat="1">
       <c r="A245" s="4">
         <v>40</v>
       </c>
@@ -9342,7 +9309,7 @@
       </c>
       <c r="H245" s="6"/>
     </row>
-    <row r="246" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" s="8" customFormat="1">
       <c r="A246" s="4">
         <v>41</v>
       </c>
@@ -9364,7 +9331,7 @@
       </c>
       <c r="H246" s="6"/>
     </row>
-    <row r="247" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" s="8" customFormat="1">
       <c r="A247" s="4">
         <v>42</v>
       </c>
@@ -9386,7 +9353,7 @@
       </c>
       <c r="H247" s="6"/>
     </row>
-    <row r="248" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A248" s="4">
         <v>43</v>
       </c>
@@ -9408,7 +9375,7 @@
       </c>
       <c r="H248" s="6"/>
     </row>
-    <row r="249" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" s="8" customFormat="1">
       <c r="A249" s="4">
         <v>44</v>
       </c>
@@ -9430,7 +9397,7 @@
       </c>
       <c r="H249" s="6"/>
     </row>
-    <row r="250" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" s="8" customFormat="1">
       <c r="A250" s="4">
         <v>45</v>
       </c>
@@ -9452,7 +9419,7 @@
       </c>
       <c r="H250" s="6"/>
     </row>
-    <row r="251" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" s="8" customFormat="1">
       <c r="A251" s="4">
         <v>46</v>
       </c>
@@ -9474,7 +9441,7 @@
       </c>
       <c r="H251" s="6"/>
     </row>
-    <row r="252" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A252" s="4">
         <v>47</v>
       </c>
@@ -9496,7 +9463,7 @@
       </c>
       <c r="H252" s="13"/>
     </row>
-    <row r="253" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" s="8" customFormat="1">
       <c r="A253" s="4">
         <v>48</v>
       </c>
@@ -9518,7 +9485,7 @@
       </c>
       <c r="H253" s="6"/>
     </row>
-    <row r="254" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" s="8" customFormat="1">
       <c r="A254" s="4">
         <v>49</v>
       </c>
@@ -9540,7 +9507,7 @@
       </c>
       <c r="H254" s="6"/>
     </row>
-    <row r="255" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" s="8" customFormat="1">
       <c r="A255" s="4">
         <v>50</v>
       </c>
@@ -9562,7 +9529,7 @@
       </c>
       <c r="H255" s="6"/>
     </row>
-    <row r="256" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" s="8" customFormat="1">
       <c r="A256" s="4">
         <v>51</v>
       </c>
@@ -9584,7 +9551,7 @@
       </c>
       <c r="H256" s="6"/>
     </row>
-    <row r="257" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" s="8" customFormat="1">
       <c r="A257" s="4">
         <v>52</v>
       </c>
@@ -9606,7 +9573,7 @@
       </c>
       <c r="H257" s="6"/>
     </row>
-    <row r="258" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" s="8" customFormat="1">
       <c r="A258" s="4">
         <v>53</v>
       </c>
@@ -9628,7 +9595,7 @@
       </c>
       <c r="H258" s="6"/>
     </row>
-    <row r="259" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A259" s="4">
         <v>54</v>
       </c>
@@ -9650,7 +9617,7 @@
       </c>
       <c r="H259" s="6"/>
     </row>
-    <row r="260" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A260" s="4">
         <v>55</v>
       </c>
@@ -9672,7 +9639,7 @@
       </c>
       <c r="H260" s="6"/>
     </row>
-    <row r="261" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" s="8" customFormat="1">
       <c r="A261" s="4">
         <v>56</v>
       </c>
@@ -9694,7 +9661,7 @@
       </c>
       <c r="H261" s="6"/>
     </row>
-    <row r="262" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" s="8" customFormat="1">
       <c r="A262" s="4">
         <v>57</v>
       </c>
@@ -9716,7 +9683,7 @@
       </c>
       <c r="H262" s="6"/>
     </row>
-    <row r="263" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A263" s="4">
         <v>58</v>
       </c>
@@ -9738,7 +9705,7 @@
       </c>
       <c r="H263" s="6"/>
     </row>
-    <row r="264" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" s="8" customFormat="1">
       <c r="A264" s="4">
         <v>59</v>
       </c>
@@ -9760,7 +9727,7 @@
       </c>
       <c r="H264" s="6"/>
     </row>
-    <row r="265" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" s="8" customFormat="1">
       <c r="A265" s="4">
         <v>60</v>
       </c>
@@ -9782,7 +9749,7 @@
       </c>
       <c r="H265" s="6"/>
     </row>
-    <row r="266" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" s="8" customFormat="1">
       <c r="A266" s="4">
         <v>61</v>
       </c>
@@ -9804,7 +9771,7 @@
       </c>
       <c r="H266" s="6"/>
     </row>
-    <row r="267" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A267" s="4">
         <v>62</v>
       </c>
@@ -9826,7 +9793,7 @@
       </c>
       <c r="H267" s="6"/>
     </row>
-    <row r="268" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" s="8" customFormat="1">
       <c r="A268" s="4">
         <v>63</v>
       </c>
@@ -9848,7 +9815,7 @@
       </c>
       <c r="H268" s="6"/>
     </row>
-    <row r="269" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" s="8" customFormat="1">
       <c r="A269" s="4">
         <v>64</v>
       </c>
@@ -9870,7 +9837,7 @@
       </c>
       <c r="H269" s="6"/>
     </row>
-    <row r="270" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A270" s="4">
         <v>65</v>
       </c>
@@ -9892,7 +9859,7 @@
       </c>
       <c r="H270" s="6"/>
     </row>
-    <row r="271" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" s="8" customFormat="1">
       <c r="A271" s="4">
         <v>66</v>
       </c>
@@ -9914,7 +9881,7 @@
       </c>
       <c r="H271" s="6"/>
     </row>
-    <row r="272" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A272" s="4">
         <v>67</v>
       </c>
@@ -9936,7 +9903,7 @@
       </c>
       <c r="H272" s="6"/>
     </row>
-    <row r="273" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" s="8" customFormat="1">
       <c r="A273" s="4">
         <v>68</v>
       </c>
@@ -9958,7 +9925,7 @@
       </c>
       <c r="H273" s="6"/>
     </row>
-    <row r="274" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A274" s="4">
         <v>69</v>
       </c>
@@ -9980,7 +9947,7 @@
       </c>
       <c r="H274" s="6"/>
     </row>
-    <row r="275" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" s="8" customFormat="1">
       <c r="A275" s="4">
         <v>70</v>
       </c>
@@ -10002,7 +9969,7 @@
       </c>
       <c r="H275" s="6"/>
     </row>
-    <row r="276" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A276" s="4">
         <v>71</v>
       </c>
@@ -10024,7 +9991,7 @@
       </c>
       <c r="H276" s="6"/>
     </row>
-    <row r="277" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A277" s="4">
         <v>72</v>
       </c>
@@ -10046,7 +10013,7 @@
       </c>
       <c r="H277" s="6"/>
     </row>
-    <row r="278" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" s="8" customFormat="1">
       <c r="A278" s="4">
         <v>73</v>
       </c>
@@ -10068,7 +10035,7 @@
       </c>
       <c r="H278" s="6"/>
     </row>
-    <row r="279" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" s="8" customFormat="1">
       <c r="A279" s="4">
         <v>74</v>
       </c>
@@ -10090,7 +10057,7 @@
       </c>
       <c r="H279" s="6"/>
     </row>
-    <row r="280" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" s="8" customFormat="1">
       <c r="A280" s="4">
         <v>75</v>
       </c>
@@ -10112,7 +10079,7 @@
       </c>
       <c r="H280" s="6"/>
     </row>
-    <row r="281" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A281" s="4">
         <v>76</v>
       </c>
@@ -10134,7 +10101,7 @@
       </c>
       <c r="H281" s="6"/>
     </row>
-    <row r="282" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" s="8" customFormat="1">
       <c r="A282" s="4">
         <v>77</v>
       </c>
@@ -10156,7 +10123,7 @@
       </c>
       <c r="H282" s="6"/>
     </row>
-    <row r="283" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" s="8" customFormat="1">
       <c r="A283" s="4">
         <v>78</v>
       </c>
@@ -10178,7 +10145,7 @@
       </c>
       <c r="H283" s="6"/>
     </row>
-    <row r="284" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" s="8" customFormat="1">
       <c r="A284" s="4">
         <v>79</v>
       </c>
@@ -10200,7 +10167,7 @@
       </c>
       <c r="H284" s="6"/>
     </row>
-    <row r="285" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A285" s="4">
         <v>80</v>
       </c>
@@ -10222,7 +10189,7 @@
       </c>
       <c r="H285" s="6"/>
     </row>
-    <row r="286" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A286" s="4">
         <v>81</v>
       </c>
@@ -10244,7 +10211,7 @@
       </c>
       <c r="H286" s="6"/>
     </row>
-    <row r="287" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" s="8" customFormat="1">
       <c r="A287" s="4">
         <v>82</v>
       </c>
@@ -10266,7 +10233,7 @@
       </c>
       <c r="H287" s="6"/>
     </row>
-    <row r="288" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A288" s="4">
         <v>83</v>
       </c>
@@ -10288,7 +10255,7 @@
       </c>
       <c r="H288" s="6"/>
     </row>
-    <row r="289" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A289" s="4">
         <v>84</v>
       </c>
@@ -10310,7 +10277,7 @@
       </c>
       <c r="H289" s="6"/>
     </row>
-    <row r="290" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" s="8" customFormat="1">
       <c r="A290" s="4">
         <v>85</v>
       </c>
@@ -10332,7 +10299,7 @@
       </c>
       <c r="H290" s="6"/>
     </row>
-    <row r="291" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" s="8" customFormat="1">
       <c r="A291" s="4">
         <v>86</v>
       </c>
@@ -10354,7 +10321,7 @@
       </c>
       <c r="H291" s="6"/>
     </row>
-    <row r="292" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A292" s="4">
         <v>87</v>
       </c>
@@ -10376,7 +10343,7 @@
       </c>
       <c r="H292" s="6"/>
     </row>
-    <row r="293" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" s="8" customFormat="1">
       <c r="A293" s="4">
         <v>88</v>
       </c>
@@ -10398,7 +10365,7 @@
       </c>
       <c r="H293" s="6"/>
     </row>
-    <row r="294" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" s="8" customFormat="1">
       <c r="A294" s="4">
         <v>89</v>
       </c>
@@ -10420,7 +10387,7 @@
       </c>
       <c r="H294" s="6"/>
     </row>
-    <row r="295" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" s="8" customFormat="1">
       <c r="A295" s="4">
         <v>90</v>
       </c>
@@ -10442,7 +10409,7 @@
       </c>
       <c r="H295" s="6"/>
     </row>
-    <row r="296" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" s="8" customFormat="1">
       <c r="A296" s="4">
         <v>91</v>
       </c>
@@ -10464,7 +10431,7 @@
       </c>
       <c r="H296" s="6"/>
     </row>
-    <row r="297" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" s="8" customFormat="1">
       <c r="A297" s="4">
         <v>92</v>
       </c>
@@ -10486,7 +10453,7 @@
       </c>
       <c r="H297" s="6"/>
     </row>
-    <row r="298" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" s="8" customFormat="1">
       <c r="A298" s="4">
         <v>93</v>
       </c>
@@ -10508,7 +10475,7 @@
       </c>
       <c r="H298" s="6"/>
     </row>
-    <row r="299" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" s="8" customFormat="1">
       <c r="A299" s="4">
         <v>94</v>
       </c>
@@ -10530,7 +10497,7 @@
       </c>
       <c r="H299" s="6"/>
     </row>
-    <row r="300" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" s="8" customFormat="1">
       <c r="A300" s="4">
         <v>95</v>
       </c>
@@ -10552,7 +10519,7 @@
       </c>
       <c r="H300" s="6"/>
     </row>
-    <row r="301" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A301" s="4">
         <v>96</v>
       </c>
@@ -10574,7 +10541,7 @@
       </c>
       <c r="H301" s="6"/>
     </row>
-    <row r="302" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A302" s="4">
         <v>97</v>
       </c>
@@ -10596,7 +10563,7 @@
       </c>
       <c r="H302" s="6"/>
     </row>
-    <row r="303" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" s="8" customFormat="1">
       <c r="A303" s="4">
         <v>98</v>
       </c>
@@ -10618,7 +10585,7 @@
       </c>
       <c r="H303" s="6"/>
     </row>
-    <row r="304" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" s="8" customFormat="1">
       <c r="A304" s="4">
         <v>99</v>
       </c>
@@ -10640,7 +10607,7 @@
       </c>
       <c r="H304" s="6"/>
     </row>
-    <row r="305" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A305" s="4">
         <v>100</v>
       </c>
@@ -10662,7 +10629,7 @@
       </c>
       <c r="H305" s="6"/>
     </row>
-    <row r="306" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" s="8" customFormat="1">
       <c r="A306" s="4">
         <v>101</v>
       </c>
@@ -10684,7 +10651,7 @@
       </c>
       <c r="H306" s="6"/>
     </row>
-    <row r="307" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" s="8" customFormat="1">
       <c r="A307" s="4">
         <v>102</v>
       </c>
@@ -10706,7 +10673,7 @@
       </c>
       <c r="H307" s="6"/>
     </row>
-    <row r="308" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" s="8" customFormat="1">
       <c r="A308" s="4">
         <v>103</v>
       </c>
@@ -10728,7 +10695,7 @@
       </c>
       <c r="H308" s="6"/>
     </row>
-    <row r="309" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" s="8" customFormat="1">
       <c r="A309" s="4">
         <v>104</v>
       </c>
@@ -10750,7 +10717,7 @@
       </c>
       <c r="H309" s="6"/>
     </row>
-    <row r="310" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A310" s="4">
         <v>105</v>
       </c>
@@ -10772,7 +10739,7 @@
       </c>
       <c r="H310" s="6"/>
     </row>
-    <row r="311" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A311" s="4">
         <v>106</v>
       </c>
@@ -10794,7 +10761,7 @@
       </c>
       <c r="H311" s="6"/>
     </row>
-    <row r="312" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" s="8" customFormat="1">
       <c r="A312" s="4">
         <v>107</v>
       </c>
@@ -10816,7 +10783,7 @@
       </c>
       <c r="H312" s="6"/>
     </row>
-    <row r="313" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" s="8" customFormat="1">
       <c r="A313" s="4">
         <v>108</v>
       </c>
@@ -10838,7 +10805,7 @@
       </c>
       <c r="H313" s="6"/>
     </row>
-    <row r="314" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A314" s="4">
         <v>109</v>
       </c>
@@ -10860,7 +10827,7 @@
       </c>
       <c r="H314" s="6"/>
     </row>
-    <row r="315" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" s="8" customFormat="1">
       <c r="A315" s="4">
         <v>110</v>
       </c>
@@ -10882,7 +10849,7 @@
       </c>
       <c r="H315" s="6"/>
     </row>
-    <row r="316" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" s="8" customFormat="1">
       <c r="A316" s="4">
         <v>111</v>
       </c>
@@ -10904,7 +10871,7 @@
       </c>
       <c r="H316" s="6"/>
     </row>
-    <row r="317" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A317" s="4">
         <v>112</v>
       </c>
@@ -10926,7 +10893,7 @@
       </c>
       <c r="H317" s="6"/>
     </row>
-    <row r="318" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" s="8" customFormat="1">
       <c r="A318" s="4">
         <v>113</v>
       </c>
@@ -10948,7 +10915,7 @@
       </c>
       <c r="H318" s="6"/>
     </row>
-    <row r="319" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" s="8" customFormat="1">
       <c r="A319" s="4">
         <v>114</v>
       </c>
@@ -10970,7 +10937,7 @@
       </c>
       <c r="H319" s="6"/>
     </row>
-    <row r="320" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" s="8" customFormat="1">
       <c r="A320" s="4">
         <v>115</v>
       </c>
@@ -10992,7 +10959,7 @@
       </c>
       <c r="H320" s="6"/>
     </row>
-    <row r="321" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" s="8" customFormat="1">
       <c r="A321" s="4">
         <v>116</v>
       </c>
@@ -11014,7 +10981,7 @@
       </c>
       <c r="H321" s="6"/>
     </row>
-    <row r="322" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" s="8" customFormat="1">
       <c r="A322" s="4">
         <v>117</v>
       </c>
@@ -11036,7 +11003,7 @@
       </c>
       <c r="H322" s="6"/>
     </row>
-    <row r="323" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" s="8" customFormat="1">
       <c r="A323" s="4">
         <v>118</v>
       </c>
@@ -11058,7 +11025,7 @@
       </c>
       <c r="H323" s="6"/>
     </row>
-    <row r="324" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A324" s="4">
         <v>119</v>
       </c>
@@ -11080,7 +11047,7 @@
       </c>
       <c r="H324" s="6"/>
     </row>
-    <row r="325" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" s="8" customFormat="1">
       <c r="A325" s="4">
         <v>120</v>
       </c>
@@ -11102,7 +11069,7 @@
       </c>
       <c r="H325" s="6"/>
     </row>
-    <row r="326" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" s="8" customFormat="1">
       <c r="A326" s="4">
         <v>121</v>
       </c>
@@ -11124,7 +11091,7 @@
       </c>
       <c r="H326" s="6"/>
     </row>
-    <row r="327" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" s="8" customFormat="1">
       <c r="A327" s="4">
         <v>122</v>
       </c>
@@ -11146,7 +11113,7 @@
       </c>
       <c r="H327" s="6"/>
     </row>
-    <row r="328" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" s="8" customFormat="1">
       <c r="A328" s="4">
         <v>123</v>
       </c>
@@ -11168,7 +11135,7 @@
       </c>
       <c r="H328" s="6"/>
     </row>
-    <row r="329" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A329" s="4">
         <v>124</v>
       </c>
@@ -11190,7 +11157,7 @@
       </c>
       <c r="H329" s="6"/>
     </row>
-    <row r="330" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" s="8" customFormat="1">
       <c r="A330" s="4">
         <v>125</v>
       </c>
@@ -11212,7 +11179,7 @@
       </c>
       <c r="H330" s="6"/>
     </row>
-    <row r="331" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" s="8" customFormat="1">
       <c r="A331" s="4">
         <v>126</v>
       </c>
@@ -11234,7 +11201,7 @@
       </c>
       <c r="H331" s="6"/>
     </row>
-    <row r="332" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A332" s="4">
         <v>127</v>
       </c>
@@ -11256,7 +11223,7 @@
       </c>
       <c r="H332" s="6"/>
     </row>
-    <row r="333" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" s="8" customFormat="1">
       <c r="A333" s="4">
         <v>128</v>
       </c>
@@ -11278,7 +11245,7 @@
       </c>
       <c r="H333" s="6"/>
     </row>
-    <row r="334" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" s="8" customFormat="1">
       <c r="A334" s="4">
         <v>129</v>
       </c>
@@ -11300,7 +11267,7 @@
       </c>
       <c r="H334" s="6"/>
     </row>
-    <row r="335" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" s="8" customFormat="1">
       <c r="A335" s="4">
         <v>130</v>
       </c>
@@ -11322,7 +11289,7 @@
       </c>
       <c r="H335" s="6"/>
     </row>
-    <row r="336" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" s="8" customFormat="1">
       <c r="A336" s="4">
         <v>131</v>
       </c>
@@ -11344,7 +11311,7 @@
       </c>
       <c r="H336" s="6"/>
     </row>
-    <row r="337" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" s="8" customFormat="1">
       <c r="A337" s="4">
         <v>132</v>
       </c>
@@ -11366,7 +11333,7 @@
       </c>
       <c r="H337" s="6"/>
     </row>
-    <row r="338" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" s="8" customFormat="1">
       <c r="A338" s="4">
         <v>133</v>
       </c>
@@ -11388,7 +11355,7 @@
       </c>
       <c r="H338" s="6"/>
     </row>
-    <row r="339" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" s="8" customFormat="1">
       <c r="A339" s="4">
         <v>134</v>
       </c>
@@ -11410,7 +11377,7 @@
       </c>
       <c r="H339" s="6"/>
     </row>
-    <row r="340" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A340" s="4">
         <v>135</v>
       </c>
@@ -11432,7 +11399,7 @@
       </c>
       <c r="H340" s="6"/>
     </row>
-    <row r="341" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" s="8" customFormat="1">
       <c r="A341" s="4">
         <v>136</v>
       </c>
@@ -11454,7 +11421,7 @@
       </c>
       <c r="H341" s="6"/>
     </row>
-    <row r="342" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" s="8" customFormat="1">
       <c r="A342" s="4">
         <v>137</v>
       </c>
@@ -11476,7 +11443,7 @@
       </c>
       <c r="H342" s="6"/>
     </row>
-    <row r="343" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A343" s="4">
         <v>138</v>
       </c>
@@ -11498,7 +11465,7 @@
       </c>
       <c r="H343" s="6"/>
     </row>
-    <row r="344" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" s="8" customFormat="1">
       <c r="A344" s="4">
         <v>139</v>
       </c>
@@ -11520,7 +11487,7 @@
       </c>
       <c r="H344" s="6"/>
     </row>
-    <row r="345" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A345" s="4">
         <v>140</v>
       </c>
@@ -11542,7 +11509,7 @@
       </c>
       <c r="H345" s="6"/>
     </row>
-    <row r="346" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" s="8" customFormat="1">
       <c r="A346" s="4">
         <v>141</v>
       </c>
@@ -11564,7 +11531,7 @@
       </c>
       <c r="H346" s="6"/>
     </row>
-    <row r="347" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" s="8" customFormat="1">
       <c r="A347" s="4">
         <v>142</v>
       </c>
@@ -11586,7 +11553,7 @@
       </c>
       <c r="H347" s="6"/>
     </row>
-    <row r="348" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" s="8" customFormat="1">
       <c r="A348" s="4">
         <v>143</v>
       </c>
@@ -11608,7 +11575,7 @@
       </c>
       <c r="H348" s="6"/>
     </row>
-    <row r="349" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" s="8" customFormat="1">
       <c r="A349" s="4">
         <v>144</v>
       </c>
@@ -11630,7 +11597,7 @@
       </c>
       <c r="H349" s="6"/>
     </row>
-    <row r="350" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" s="8" customFormat="1">
       <c r="A350" s="4">
         <v>145</v>
       </c>
@@ -11652,7 +11619,7 @@
       </c>
       <c r="H350" s="6"/>
     </row>
-    <row r="351" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" s="8" customFormat="1">
       <c r="A351" s="4">
         <v>146</v>
       </c>
@@ -11674,7 +11641,7 @@
       </c>
       <c r="H351" s="6"/>
     </row>
-    <row r="352" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" s="8" customFormat="1">
       <c r="A352" s="4">
         <v>147</v>
       </c>
@@ -11696,7 +11663,7 @@
       </c>
       <c r="H352" s="6"/>
     </row>
-    <row r="353" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" s="8" customFormat="1">
       <c r="A353" s="4">
         <v>148</v>
       </c>
@@ -11718,7 +11685,7 @@
       </c>
       <c r="H353" s="6"/>
     </row>
-    <row r="354" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" s="8" customFormat="1">
       <c r="A354" s="10">
         <v>1</v>
       </c>
@@ -11740,7 +11707,7 @@
       </c>
       <c r="H354" s="6"/>
     </row>
-    <row r="355" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" s="8" customFormat="1">
       <c r="A355" s="10">
         <v>2</v>
       </c>
@@ -11762,7 +11729,7 @@
       </c>
       <c r="H355" s="6"/>
     </row>
-    <row r="356" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" s="8" customFormat="1">
       <c r="A356" s="10">
         <v>3</v>
       </c>
@@ -11784,7 +11751,7 @@
       </c>
       <c r="H356" s="6"/>
     </row>
-    <row r="357" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" s="8" customFormat="1">
       <c r="A357" s="10">
         <v>4</v>
       </c>
@@ -11806,7 +11773,7 @@
       </c>
       <c r="H357" s="6"/>
     </row>
-    <row r="358" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A358" s="10">
         <v>5</v>
       </c>
@@ -11828,7 +11795,7 @@
       </c>
       <c r="H358" s="6"/>
     </row>
-    <row r="359" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" s="8" customFormat="1">
       <c r="A359" s="10">
         <v>6</v>
       </c>
@@ -11850,7 +11817,7 @@
       </c>
       <c r="H359" s="6"/>
     </row>
-    <row r="360" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" s="8" customFormat="1">
       <c r="A360" s="10">
         <v>7</v>
       </c>
@@ -11872,7 +11839,7 @@
       </c>
       <c r="H360" s="6"/>
     </row>
-    <row r="361" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" s="8" customFormat="1">
       <c r="A361" s="10">
         <v>8</v>
       </c>
@@ -11894,7 +11861,7 @@
       </c>
       <c r="H361" s="6"/>
     </row>
-    <row r="362" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" s="8" customFormat="1">
       <c r="A362" s="10">
         <v>9</v>
       </c>
@@ -11916,7 +11883,7 @@
       </c>
       <c r="H362" s="6"/>
     </row>
-    <row r="363" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A363" s="10">
         <v>10</v>
       </c>
@@ -11938,7 +11905,7 @@
       </c>
       <c r="H363" s="6"/>
     </row>
-    <row r="364" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" s="8" customFormat="1">
       <c r="A364" s="10">
         <v>11</v>
       </c>
@@ -11960,7 +11927,7 @@
       </c>
       <c r="H364" s="6"/>
     </row>
-    <row r="365" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A365" s="10">
         <v>12</v>
       </c>
@@ -11982,7 +11949,7 @@
       </c>
       <c r="H365" s="6"/>
     </row>
-    <row r="366" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" s="8" customFormat="1">
       <c r="A366" s="10">
         <v>13</v>
       </c>
@@ -12004,7 +11971,7 @@
       </c>
       <c r="H366" s="6"/>
     </row>
-    <row r="367" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" s="8" customFormat="1">
       <c r="A367" s="10">
         <v>14</v>
       </c>
@@ -12026,7 +11993,7 @@
       </c>
       <c r="H367" s="6"/>
     </row>
-    <row r="368" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" s="8" customFormat="1">
       <c r="A368" s="10">
         <v>15</v>
       </c>
@@ -12048,7 +12015,7 @@
       </c>
       <c r="H368" s="6"/>
     </row>
-    <row r="369" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A369" s="10">
         <v>16</v>
       </c>
@@ -12070,7 +12037,7 @@
       </c>
       <c r="H369" s="6"/>
     </row>
-    <row r="370" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" s="8" customFormat="1">
       <c r="A370" s="10">
         <v>17</v>
       </c>
@@ -12092,7 +12059,7 @@
       </c>
       <c r="H370" s="6"/>
     </row>
-    <row r="371" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" s="8" customFormat="1">
       <c r="A371" s="10">
         <v>18</v>
       </c>
@@ -12114,7 +12081,7 @@
       </c>
       <c r="H371" s="6"/>
     </row>
-    <row r="372" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" s="8" customFormat="1">
       <c r="A372" s="10">
         <v>19</v>
       </c>
@@ -12136,7 +12103,7 @@
       </c>
       <c r="H372" s="6"/>
     </row>
-    <row r="373" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" s="8" customFormat="1">
       <c r="A373" s="10">
         <v>20</v>
       </c>
@@ -12158,7 +12125,7 @@
       </c>
       <c r="H373" s="6"/>
     </row>
-    <row r="374" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A374" s="10">
         <v>21</v>
       </c>
@@ -12180,7 +12147,7 @@
       </c>
       <c r="H374" s="6"/>
     </row>
-    <row r="375" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" s="8" customFormat="1">
       <c r="A375" s="10">
         <v>22</v>
       </c>
@@ -12202,7 +12169,7 @@
       </c>
       <c r="H375" s="6"/>
     </row>
-    <row r="376" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" s="8" customFormat="1">
       <c r="A376" s="10">
         <v>23</v>
       </c>
@@ -12224,7 +12191,7 @@
       </c>
       <c r="H376" s="6"/>
     </row>
-    <row r="377" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" s="8" customFormat="1">
       <c r="A377" s="10">
         <v>24</v>
       </c>
@@ -12246,7 +12213,7 @@
       </c>
       <c r="H377" s="6"/>
     </row>
-    <row r="378" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A378" s="10">
         <v>25</v>
       </c>
@@ -12268,7 +12235,7 @@
       </c>
       <c r="H378" s="6"/>
     </row>
-    <row r="379" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" s="8" customFormat="1">
       <c r="A379" s="10">
         <v>26</v>
       </c>
@@ -12290,7 +12257,7 @@
       </c>
       <c r="H379" s="6"/>
     </row>
-    <row r="380" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" s="8" customFormat="1">
       <c r="A380" s="10">
         <v>27</v>
       </c>
@@ -12312,7 +12279,7 @@
       </c>
       <c r="H380" s="6"/>
     </row>
-    <row r="381" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" s="8" customFormat="1">
       <c r="A381" s="10">
         <v>28</v>
       </c>
@@ -12334,7 +12301,7 @@
       </c>
       <c r="H381" s="6"/>
     </row>
-    <row r="382" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" s="8" customFormat="1">
       <c r="A382" s="10">
         <v>29</v>
       </c>
@@ -12356,7 +12323,7 @@
       </c>
       <c r="H382" s="6"/>
     </row>
-    <row r="383" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" s="8" customFormat="1">
       <c r="A383" s="10">
         <v>30</v>
       </c>
@@ -12378,7 +12345,7 @@
       </c>
       <c r="H383" s="6"/>
     </row>
-    <row r="384" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" s="8" customFormat="1">
       <c r="A384" s="10">
         <v>31</v>
       </c>
@@ -12400,7 +12367,7 @@
       </c>
       <c r="H384" s="6"/>
     </row>
-    <row r="385" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" s="8" customFormat="1">
       <c r="A385" s="10">
         <v>32</v>
       </c>
@@ -12422,7 +12389,7 @@
       </c>
       <c r="H385" s="6"/>
     </row>
-    <row r="386" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" s="8" customFormat="1">
       <c r="A386" s="10">
         <v>33</v>
       </c>
@@ -12444,7 +12411,7 @@
       </c>
       <c r="H386" s="6"/>
     </row>
-    <row r="387" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" s="8" customFormat="1">
       <c r="A387" s="10">
         <v>34</v>
       </c>
@@ -12466,7 +12433,7 @@
       </c>
       <c r="H387" s="6"/>
     </row>
-    <row r="388" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" s="8" customFormat="1">
       <c r="A388" s="10">
         <v>35</v>
       </c>
@@ -12488,7 +12455,7 @@
       </c>
       <c r="H388" s="6"/>
     </row>
-    <row r="389" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" s="8" customFormat="1">
       <c r="A389" s="10">
         <v>36</v>
       </c>
@@ -12510,7 +12477,7 @@
       </c>
       <c r="H389" s="6"/>
     </row>
-    <row r="390" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A390" s="10">
         <v>37</v>
       </c>
@@ -12532,7 +12499,7 @@
       </c>
       <c r="H390" s="6"/>
     </row>
-    <row r="391" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" s="8" customFormat="1">
       <c r="A391" s="10">
         <v>38</v>
       </c>
@@ -12554,7 +12521,7 @@
       </c>
       <c r="H391" s="6"/>
     </row>
-    <row r="392" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" s="8" customFormat="1">
       <c r="A392" s="10">
         <v>39</v>
       </c>
@@ -12576,7 +12543,7 @@
       </c>
       <c r="H392" s="6"/>
     </row>
-    <row r="393" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A393" s="10">
         <v>40</v>
       </c>
@@ -12598,7 +12565,7 @@
       </c>
       <c r="H393" s="6"/>
     </row>
-    <row r="394" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" s="8" customFormat="1">
       <c r="A394" s="10">
         <v>41</v>
       </c>
@@ -12620,7 +12587,7 @@
       </c>
       <c r="H394" s="6"/>
     </row>
-    <row r="395" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" s="8" customFormat="1">
       <c r="A395" s="10">
         <v>42</v>
       </c>
@@ -12642,7 +12609,7 @@
       </c>
       <c r="H395" s="6"/>
     </row>
-    <row r="396" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A396" s="10">
         <v>43</v>
       </c>
@@ -12664,7 +12631,7 @@
       </c>
       <c r="H396" s="6"/>
     </row>
-    <row r="397" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" s="8" customFormat="1">
       <c r="A397" s="10">
         <v>44</v>
       </c>
@@ -12686,7 +12653,7 @@
       </c>
       <c r="H397" s="6"/>
     </row>
-    <row r="398" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" s="8" customFormat="1">
       <c r="A398" s="10">
         <v>45</v>
       </c>
@@ -12708,7 +12675,7 @@
       </c>
       <c r="H398" s="6"/>
     </row>
-    <row r="399" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" s="8" customFormat="1">
       <c r="A399" s="10">
         <v>46</v>
       </c>
@@ -12730,7 +12697,7 @@
       </c>
       <c r="H399" s="6"/>
     </row>
-    <row r="400" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" s="8" customFormat="1">
       <c r="A400" s="10">
         <v>47</v>
       </c>
@@ -12752,7 +12719,7 @@
       </c>
       <c r="H400" s="6"/>
     </row>
-    <row r="401" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" s="8" customFormat="1">
       <c r="A401" s="10">
         <v>48</v>
       </c>
@@ -12774,7 +12741,7 @@
       </c>
       <c r="H401" s="6"/>
     </row>
-    <row r="402" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" s="8" customFormat="1">
       <c r="A402" s="10">
         <v>49</v>
       </c>
@@ -12796,7 +12763,7 @@
       </c>
       <c r="H402" s="6"/>
     </row>
-    <row r="403" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" s="8" customFormat="1">
       <c r="A403" s="10">
         <v>50</v>
       </c>
@@ -12818,7 +12785,7 @@
       </c>
       <c r="H403" s="6"/>
     </row>
-    <row r="404" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" s="8" customFormat="1">
       <c r="A404" s="10">
         <v>51</v>
       </c>
@@ -12840,7 +12807,7 @@
       </c>
       <c r="H404" s="6"/>
     </row>
-    <row r="405" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" s="8" customFormat="1">
       <c r="A405" s="10">
         <v>52</v>
       </c>
@@ -12862,7 +12829,7 @@
       </c>
       <c r="H405" s="6"/>
     </row>
-    <row r="406" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A406" s="10">
         <v>53</v>
       </c>
@@ -12884,7 +12851,7 @@
       </c>
       <c r="H406" s="6"/>
     </row>
-    <row r="407" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" s="8" customFormat="1">
       <c r="A407" s="10">
         <v>54</v>
       </c>
@@ -12906,7 +12873,7 @@
       </c>
       <c r="H407" s="6"/>
     </row>
-    <row r="408" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A408" s="10">
         <v>55</v>
       </c>
@@ -12928,7 +12895,7 @@
       </c>
       <c r="H408" s="6"/>
     </row>
-    <row r="409" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" s="8" customFormat="1">
       <c r="A409" s="10">
         <v>56</v>
       </c>
@@ -12950,7 +12917,7 @@
       </c>
       <c r="H409" s="6"/>
     </row>
-    <row r="410" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" s="8" customFormat="1">
       <c r="A410" s="10">
         <v>57</v>
       </c>
@@ -12972,7 +12939,7 @@
       </c>
       <c r="H410" s="6"/>
     </row>
-    <row r="411" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" s="8" customFormat="1">
       <c r="A411" s="10">
         <v>58</v>
       </c>
@@ -12994,7 +12961,7 @@
       </c>
       <c r="H411" s="6"/>
     </row>
-    <row r="412" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" s="8" customFormat="1">
       <c r="A412" s="10">
         <v>59</v>
       </c>
@@ -13016,7 +12983,7 @@
       </c>
       <c r="H412" s="6"/>
     </row>
-    <row r="413" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" s="8" customFormat="1">
       <c r="A413" s="10">
         <v>60</v>
       </c>
@@ -13038,7 +13005,7 @@
       </c>
       <c r="H413" s="6"/>
     </row>
-    <row r="414" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" s="8" customFormat="1">
       <c r="A414" s="10">
         <v>61</v>
       </c>
@@ -13060,7 +13027,7 @@
       </c>
       <c r="H414" s="6"/>
     </row>
-    <row r="415" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A415" s="10">
         <v>62</v>
       </c>
@@ -13082,7 +13049,7 @@
       </c>
       <c r="H415" s="6"/>
     </row>
-    <row r="416" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" s="8" customFormat="1">
       <c r="A416" s="10">
         <v>63</v>
       </c>
@@ -13104,7 +13071,7 @@
       </c>
       <c r="H416" s="6"/>
     </row>
-    <row r="417" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" s="8" customFormat="1">
       <c r="A417" s="10">
         <v>64</v>
       </c>
@@ -13126,7 +13093,7 @@
       </c>
       <c r="H417" s="6"/>
     </row>
-    <row r="418" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" s="8" customFormat="1">
       <c r="A418" s="10">
         <v>65</v>
       </c>
@@ -13148,7 +13115,7 @@
       </c>
       <c r="H418" s="6"/>
     </row>
-    <row r="419" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" s="8" customFormat="1">
       <c r="A419" s="10">
         <v>66</v>
       </c>
@@ -13170,7 +13137,7 @@
       </c>
       <c r="H419" s="6"/>
     </row>
-    <row r="420" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" s="8" customFormat="1">
       <c r="A420" s="10">
         <v>67</v>
       </c>
@@ -13192,7 +13159,7 @@
       </c>
       <c r="H420" s="6"/>
     </row>
-    <row r="421" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" s="8" customFormat="1">
       <c r="A421" s="10">
         <v>68</v>
       </c>
@@ -13214,7 +13181,7 @@
       </c>
       <c r="H421" s="6"/>
     </row>
-    <row r="422" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" s="8" customFormat="1">
       <c r="A422" s="10">
         <v>69</v>
       </c>
@@ -13236,7 +13203,7 @@
       </c>
       <c r="H422" s="6"/>
     </row>
-    <row r="423" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" s="8" customFormat="1">
       <c r="A423" s="10">
         <v>70</v>
       </c>
@@ -13258,7 +13225,7 @@
       </c>
       <c r="H423" s="6"/>
     </row>
-    <row r="424" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" s="8" customFormat="1">
       <c r="A424" s="10">
         <v>71</v>
       </c>
@@ -13280,7 +13247,7 @@
       </c>
       <c r="H424" s="6"/>
     </row>
-    <row r="425" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" s="8" customFormat="1">
       <c r="A425" s="10">
         <v>72</v>
       </c>
@@ -13302,7 +13269,7 @@
       </c>
       <c r="H425" s="6"/>
     </row>
-    <row r="426" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" s="8" customFormat="1">
       <c r="A426" s="10">
         <v>73</v>
       </c>
@@ -13324,7 +13291,7 @@
       </c>
       <c r="H426" s="6"/>
     </row>
-    <row r="427" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" s="8" customFormat="1">
       <c r="A427" s="10">
         <v>74</v>
       </c>
@@ -13346,7 +13313,7 @@
       </c>
       <c r="H427" s="6"/>
     </row>
-    <row r="428" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A428" s="10">
         <v>75</v>
       </c>
@@ -13368,7 +13335,7 @@
       </c>
       <c r="H428" s="6"/>
     </row>
-    <row r="429" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" s="8" customFormat="1">
       <c r="A429" s="10">
         <v>76</v>
       </c>
@@ -13390,7 +13357,7 @@
       </c>
       <c r="H429" s="6"/>
     </row>
-    <row r="430" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" s="8" customFormat="1">
       <c r="A430" s="10">
         <v>77</v>
       </c>
@@ -13412,7 +13379,7 @@
       </c>
       <c r="H430" s="6"/>
     </row>
-    <row r="431" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" s="8" customFormat="1">
       <c r="A431" s="10">
         <v>78</v>
       </c>
@@ -13434,7 +13401,7 @@
       </c>
       <c r="H431" s="6"/>
     </row>
-    <row r="432" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" s="8" customFormat="1">
       <c r="A432" s="10">
         <v>79</v>
       </c>
@@ -13456,7 +13423,7 @@
       </c>
       <c r="H432" s="6"/>
     </row>
-    <row r="433" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" s="8" customFormat="1">
       <c r="A433" s="10">
         <v>80</v>
       </c>
@@ -13478,7 +13445,7 @@
       </c>
       <c r="H433" s="6"/>
     </row>
-    <row r="434" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" s="8" customFormat="1">
       <c r="A434" s="10">
         <v>81</v>
       </c>
@@ -13500,7 +13467,7 @@
       </c>
       <c r="H434" s="6"/>
     </row>
-    <row r="435" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" s="8" customFormat="1">
       <c r="A435" s="10">
         <v>82</v>
       </c>
@@ -13522,7 +13489,7 @@
       </c>
       <c r="H435" s="6"/>
     </row>
-    <row r="436" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A436" s="10">
         <v>83</v>
       </c>
@@ -13544,7 +13511,7 @@
       </c>
       <c r="H436" s="6"/>
     </row>
-    <row r="437" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" s="8" customFormat="1">
       <c r="A437" s="10">
         <v>84</v>
       </c>
@@ -13566,7 +13533,7 @@
       </c>
       <c r="H437" s="6"/>
     </row>
-    <row r="438" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" s="8" customFormat="1">
       <c r="A438" s="10">
         <v>85</v>
       </c>
@@ -13588,7 +13555,7 @@
       </c>
       <c r="H438" s="6"/>
     </row>
-    <row r="439" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" s="8" customFormat="1">
       <c r="A439" s="10">
         <v>86</v>
       </c>
@@ -13610,7 +13577,7 @@
       </c>
       <c r="H439" s="6"/>
     </row>
-    <row r="440" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A440" s="10">
         <v>87</v>
       </c>
@@ -13632,7 +13599,7 @@
       </c>
       <c r="H440" s="6"/>
     </row>
-    <row r="441" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" s="8" customFormat="1">
       <c r="A441" s="10">
         <v>88</v>
       </c>
@@ -13654,7 +13621,7 @@
       </c>
       <c r="H441" s="6"/>
     </row>
-    <row r="442" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" s="8" customFormat="1">
       <c r="A442" s="10">
         <v>89</v>
       </c>
@@ -13676,7 +13643,7 @@
       </c>
       <c r="H442" s="6"/>
     </row>
-    <row r="443" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" s="8" customFormat="1">
       <c r="A443" s="10">
         <v>90</v>
       </c>
@@ -13698,7 +13665,7 @@
       </c>
       <c r="H443" s="6"/>
     </row>
-    <row r="444" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" s="8" customFormat="1">
       <c r="A444" s="10">
         <v>91</v>
       </c>
@@ -13720,7 +13687,7 @@
       </c>
       <c r="H444" s="6"/>
     </row>
-    <row r="445" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" s="8" customFormat="1">
       <c r="A445" s="10">
         <v>92</v>
       </c>
@@ -13742,7 +13709,7 @@
       </c>
       <c r="H445" s="6"/>
     </row>
-    <row r="446" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" s="8" customFormat="1">
       <c r="A446" s="10">
         <v>93</v>
       </c>
@@ -13764,7 +13731,7 @@
       </c>
       <c r="H446" s="6"/>
     </row>
-    <row r="447" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A447" s="10">
         <v>94</v>
       </c>
@@ -13786,7 +13753,7 @@
       </c>
       <c r="H447" s="6"/>
     </row>
-    <row r="448" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" s="8" customFormat="1">
       <c r="A448" s="10">
         <v>95</v>
       </c>
@@ -13808,7 +13775,7 @@
       </c>
       <c r="H448" s="6"/>
     </row>
-    <row r="449" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" s="8" customFormat="1">
       <c r="A449" s="10">
         <v>96</v>
       </c>
@@ -13830,7 +13797,7 @@
       </c>
       <c r="H449" s="6"/>
     </row>
-    <row r="450" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" s="8" customFormat="1">
       <c r="A450" s="10">
         <v>97</v>
       </c>
@@ -13852,7 +13819,7 @@
       </c>
       <c r="H450" s="6"/>
     </row>
-    <row r="451" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A451" s="10">
         <v>98</v>
       </c>
@@ -13874,7 +13841,7 @@
       </c>
       <c r="H451" s="6"/>
     </row>
-    <row r="452" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" s="8" customFormat="1">
       <c r="A452" s="10">
         <v>99</v>
       </c>
@@ -13896,7 +13863,7 @@
       </c>
       <c r="H452" s="6"/>
     </row>
-    <row r="453" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" s="8" customFormat="1">
       <c r="A453" s="10">
         <v>100</v>
       </c>
@@ -13918,7 +13885,7 @@
       </c>
       <c r="H453" s="6"/>
     </row>
-    <row r="454" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" s="8" customFormat="1">
       <c r="A454" s="10">
         <v>101</v>
       </c>
@@ -13940,7 +13907,7 @@
       </c>
       <c r="H454" s="6"/>
     </row>
-    <row r="455" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" s="8" customFormat="1">
       <c r="A455" s="10">
         <v>102</v>
       </c>
@@ -13962,7 +13929,7 @@
       </c>
       <c r="H455" s="6"/>
     </row>
-    <row r="456" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A456" s="10">
         <v>103</v>
       </c>
@@ -13984,7 +13951,7 @@
       </c>
       <c r="H456" s="6"/>
     </row>
-    <row r="457" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" s="8" customFormat="1">
       <c r="A457" s="10">
         <v>104</v>
       </c>
@@ -14006,7 +13973,7 @@
       </c>
       <c r="H457" s="6"/>
     </row>
-    <row r="458" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" s="8" customFormat="1">
       <c r="A458" s="10">
         <v>105</v>
       </c>
@@ -14028,7 +13995,7 @@
       </c>
       <c r="H458" s="6"/>
     </row>
-    <row r="459" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" s="8" customFormat="1">
       <c r="A459" s="10">
         <v>106</v>
       </c>
@@ -14050,7 +14017,7 @@
       </c>
       <c r="H459" s="6"/>
     </row>
-    <row r="460" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" s="8" customFormat="1">
       <c r="A460" s="10">
         <v>107</v>
       </c>
@@ -14072,7 +14039,7 @@
       </c>
       <c r="H460" s="6"/>
     </row>
-    <row r="461" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" s="8" customFormat="1">
       <c r="A461" s="10">
         <v>108</v>
       </c>
@@ -14094,7 +14061,7 @@
       </c>
       <c r="H461" s="6"/>
     </row>
-    <row r="462" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" s="8" customFormat="1">
       <c r="A462" s="10">
         <v>109</v>
       </c>
@@ -14116,7 +14083,7 @@
       </c>
       <c r="H462" s="6"/>
     </row>
-    <row r="463" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" s="8" customFormat="1">
       <c r="A463" s="10">
         <v>110</v>
       </c>
@@ -14138,7 +14105,7 @@
       </c>
       <c r="H463" s="6"/>
     </row>
-    <row r="464" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" s="8" customFormat="1">
       <c r="A464" s="10">
         <v>111</v>
       </c>
@@ -14160,7 +14127,7 @@
       </c>
       <c r="H464" s="6"/>
     </row>
-    <row r="465" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" s="8" customFormat="1">
       <c r="A465" s="10">
         <v>112</v>
       </c>
@@ -14182,7 +14149,7 @@
       </c>
       <c r="H465" s="6"/>
     </row>
-    <row r="466" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" s="8" customFormat="1">
       <c r="A466" s="10">
         <v>113</v>
       </c>
@@ -14204,7 +14171,7 @@
       </c>
       <c r="H466" s="6"/>
     </row>
-    <row r="467" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" s="8" customFormat="1">
       <c r="A467" s="10">
         <v>114</v>
       </c>
@@ -14226,7 +14193,7 @@
       </c>
       <c r="H467" s="6"/>
     </row>
-    <row r="468" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" s="8" customFormat="1">
       <c r="A468" s="10">
         <v>115</v>
       </c>
@@ -14248,7 +14215,7 @@
       </c>
       <c r="H468" s="6"/>
     </row>
-    <row r="469" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A469" s="10">
         <v>116</v>
       </c>
@@ -14270,7 +14237,7 @@
       </c>
       <c r="H469" s="6"/>
     </row>
-    <row r="470" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" s="8" customFormat="1">
       <c r="A470" s="10">
         <v>117</v>
       </c>
@@ -14292,7 +14259,7 @@
       </c>
       <c r="H470" s="6"/>
     </row>
-    <row r="471" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" s="8" customFormat="1">
       <c r="A471" s="10">
         <v>118</v>
       </c>
@@ -14314,7 +14281,7 @@
       </c>
       <c r="H471" s="6"/>
     </row>
-    <row r="472" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" s="8" customFormat="1">
       <c r="A472" s="10">
         <v>119</v>
       </c>
@@ -14336,7 +14303,7 @@
       </c>
       <c r="H472" s="6"/>
     </row>
-    <row r="473" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" s="8" customFormat="1">
       <c r="A473" s="10">
         <v>120</v>
       </c>
@@ -14358,7 +14325,7 @@
       </c>
       <c r="H473" s="6"/>
     </row>
-    <row r="474" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" s="8" customFormat="1">
       <c r="A474" s="10">
         <v>121</v>
       </c>
@@ -14380,7 +14347,7 @@
       </c>
       <c r="H474" s="6"/>
     </row>
-    <row r="475" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" s="8" customFormat="1">
       <c r="A475" s="10">
         <v>122</v>
       </c>
@@ -14402,7 +14369,7 @@
       </c>
       <c r="H475" s="6"/>
     </row>
-    <row r="476" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" s="8" customFormat="1">
       <c r="A476" s="10">
         <v>123</v>
       </c>
@@ -14424,7 +14391,7 @@
       </c>
       <c r="H476" s="6"/>
     </row>
-    <row r="477" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" s="8" customFormat="1">
       <c r="A477" s="10">
         <v>124</v>
       </c>
@@ -14446,7 +14413,7 @@
       </c>
       <c r="H477" s="6"/>
     </row>
-    <row r="478" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" s="8" customFormat="1">
       <c r="A478" s="10">
         <v>125</v>
       </c>
@@ -14468,7 +14435,7 @@
       </c>
       <c r="H478" s="6"/>
     </row>
-    <row r="479" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" s="8" customFormat="1">
       <c r="A479" s="10">
         <v>126</v>
       </c>
@@ -14490,7 +14457,7 @@
       </c>
       <c r="H479" s="6"/>
     </row>
-    <row r="480" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" s="8" customFormat="1">
       <c r="A480" s="10">
         <v>127</v>
       </c>
@@ -14512,7 +14479,7 @@
       </c>
       <c r="H480" s="6"/>
     </row>
-    <row r="481" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" s="8" customFormat="1">
       <c r="A481" s="10">
         <v>128</v>
       </c>
@@ -14534,7 +14501,7 @@
       </c>
       <c r="H481" s="6"/>
     </row>
-    <row r="482" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A482" s="10">
         <v>129</v>
       </c>
@@ -14556,7 +14523,7 @@
       </c>
       <c r="H482" s="6"/>
     </row>
-    <row r="483" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" s="8" customFormat="1">
       <c r="A483" s="10">
         <v>130</v>
       </c>
@@ -14578,7 +14545,7 @@
       </c>
       <c r="H483" s="6"/>
     </row>
-    <row r="484" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" s="8" customFormat="1">
       <c r="A484" s="10">
         <v>131</v>
       </c>
@@ -14600,7 +14567,7 @@
       </c>
       <c r="H484" s="6"/>
     </row>
-    <row r="485" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" s="8" customFormat="1">
       <c r="A485" s="10">
         <v>132</v>
       </c>
@@ -14622,7 +14589,7 @@
       </c>
       <c r="H485" s="6"/>
     </row>
-    <row r="486" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" s="8" customFormat="1">
       <c r="A486" s="10">
         <v>133</v>
       </c>
@@ -14644,7 +14611,7 @@
       </c>
       <c r="H486" s="6"/>
     </row>
-    <row r="487" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" s="8" customFormat="1">
       <c r="A487" s="10">
         <v>134</v>
       </c>
@@ -14666,7 +14633,7 @@
       </c>
       <c r="H487" s="6"/>
     </row>
-    <row r="488" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" s="8" customFormat="1">
       <c r="A488" s="10">
         <v>135</v>
       </c>
@@ -14688,7 +14655,7 @@
       </c>
       <c r="H488" s="6"/>
     </row>
-    <row r="489" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" s="8" customFormat="1">
       <c r="A489" s="10">
         <v>136</v>
       </c>
@@ -14710,7 +14677,7 @@
       </c>
       <c r="H489" s="6"/>
     </row>
-    <row r="490" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" s="8" customFormat="1">
       <c r="A490" s="10">
         <v>137</v>
       </c>
@@ -14732,7 +14699,7 @@
       </c>
       <c r="H490" s="6"/>
     </row>
-    <row r="491" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" s="8" customFormat="1">
       <c r="A491" s="10">
         <v>138</v>
       </c>
@@ -14754,7 +14721,7 @@
       </c>
       <c r="H491" s="6"/>
     </row>
-    <row r="492" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A492" s="10">
         <v>139</v>
       </c>
@@ -14776,7 +14743,7 @@
       </c>
       <c r="H492" s="6"/>
     </row>
-    <row r="493" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" s="8" customFormat="1">
       <c r="A493" s="10">
         <v>140</v>
       </c>
@@ -14798,7 +14765,7 @@
       </c>
       <c r="H493" s="6"/>
     </row>
-    <row r="494" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" s="8" customFormat="1">
       <c r="A494" s="10">
         <v>141</v>
       </c>
@@ -14820,7 +14787,7 @@
       </c>
       <c r="H494" s="6"/>
     </row>
-    <row r="495" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" s="8" customFormat="1">
       <c r="A495" s="10">
         <v>142</v>
       </c>
@@ -14842,7 +14809,7 @@
       </c>
       <c r="H495" s="14"/>
     </row>
-    <row r="496" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" s="8" customFormat="1">
       <c r="A496" s="10">
         <v>143</v>
       </c>
@@ -14864,7 +14831,7 @@
       </c>
       <c r="H496" s="6"/>
     </row>
-    <row r="497" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" s="8" customFormat="1">
       <c r="A497" s="10">
         <v>144</v>
       </c>
@@ -14886,7 +14853,7 @@
       </c>
       <c r="H497" s="6"/>
     </row>
-    <row r="498" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" s="8" customFormat="1">
       <c r="A498" s="10">
         <v>145</v>
       </c>
@@ -14908,7 +14875,7 @@
       </c>
       <c r="H498" s="6"/>
     </row>
-    <row r="499" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" s="8" customFormat="1">
       <c r="A499" s="10">
         <v>146</v>
       </c>
@@ -14930,7 +14897,7 @@
       </c>
       <c r="H499" s="6"/>
     </row>
-    <row r="500" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" s="8" customFormat="1">
       <c r="A500" s="10">
         <v>147</v>
       </c>
@@ -14952,7 +14919,7 @@
       </c>
       <c r="H500" s="6"/>
     </row>
-    <row r="501" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A501" s="10">
         <v>148</v>
       </c>
@@ -14974,7 +14941,7 @@
       </c>
       <c r="H501" s="6"/>
     </row>
-    <row r="502" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" s="8" customFormat="1">
       <c r="A502" s="10">
         <v>149</v>
       </c>
@@ -14996,7 +14963,7 @@
       </c>
       <c r="H502" s="6"/>
     </row>
-    <row r="503" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" s="8" customFormat="1">
       <c r="A503" s="10">
         <v>150</v>
       </c>
@@ -15018,7 +14985,7 @@
       </c>
       <c r="H503" s="6"/>
     </row>
-    <row r="504" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" s="8" customFormat="1">
       <c r="A504" s="10">
         <v>151</v>
       </c>
@@ -15040,7 +15007,7 @@
       </c>
       <c r="H504" s="6"/>
     </row>
-    <row r="505" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" s="8" customFormat="1">
       <c r="A505" s="10">
         <v>152</v>
       </c>
@@ -15062,7 +15029,7 @@
       </c>
       <c r="H505" s="6"/>
     </row>
-    <row r="506" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" s="8" customFormat="1">
       <c r="A506" s="10">
         <v>153</v>
       </c>
@@ -15084,7 +15051,7 @@
       </c>
       <c r="H506" s="6"/>
     </row>
-    <row r="507" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" s="8" customFormat="1">
       <c r="A507" s="10">
         <v>154</v>
       </c>
@@ -15106,7 +15073,7 @@
       </c>
       <c r="H507" s="6"/>
     </row>
-    <row r="508" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" s="8" customFormat="1">
       <c r="A508" s="10">
         <v>155</v>
       </c>
@@ -15128,7 +15095,7 @@
       </c>
       <c r="H508" s="6"/>
     </row>
-    <row r="509" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" s="8" customFormat="1">
       <c r="A509" s="10">
         <v>156</v>
       </c>
@@ -15150,7 +15117,7 @@
       </c>
       <c r="H509" s="6"/>
     </row>
-    <row r="510" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" s="8" customFormat="1">
       <c r="A510" s="10">
         <v>157</v>
       </c>
@@ -15172,7 +15139,7 @@
       </c>
       <c r="H510" s="6"/>
     </row>
-    <row r="511" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" s="8" customFormat="1">
       <c r="A511" s="10">
         <v>158</v>
       </c>
@@ -15194,7 +15161,7 @@
       </c>
       <c r="H511" s="6"/>
     </row>
-    <row r="512" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" s="8" customFormat="1">
       <c r="A512" s="10">
         <v>159</v>
       </c>
@@ -15216,7 +15183,7 @@
       </c>
       <c r="H512" s="6"/>
     </row>
-    <row r="513" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" s="8" customFormat="1">
       <c r="A513" s="10">
         <v>160</v>
       </c>
@@ -15238,7 +15205,7 @@
       </c>
       <c r="H513" s="6"/>
     </row>
-    <row r="514" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" s="8" customFormat="1">
       <c r="A514" s="10">
         <v>161</v>
       </c>
@@ -15260,7 +15227,7 @@
       </c>
       <c r="H514" s="6"/>
     </row>
-    <row r="515" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" s="8" customFormat="1">
       <c r="A515" s="10">
         <v>162</v>
       </c>
@@ -15282,7 +15249,7 @@
       </c>
       <c r="H515" s="6"/>
     </row>
-    <row r="516" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" s="8" customFormat="1">
       <c r="A516" s="10">
         <v>163</v>
       </c>
@@ -15304,7 +15271,7 @@
       </c>
       <c r="H516" s="6"/>
     </row>
-    <row r="517" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" s="8" customFormat="1">
       <c r="A517" s="10">
         <v>164</v>
       </c>
@@ -15326,7 +15293,7 @@
       </c>
       <c r="H517" s="6"/>
     </row>
-    <row r="518" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A518" s="10">
         <v>165</v>
       </c>
@@ -15348,7 +15315,7 @@
       </c>
       <c r="H518" s="6"/>
     </row>
-    <row r="519" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" s="8" customFormat="1">
       <c r="A519" s="10">
         <v>166</v>
       </c>
@@ -15370,7 +15337,7 @@
       </c>
       <c r="H519" s="6"/>
     </row>
-    <row r="520" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" s="8" customFormat="1">
       <c r="A520" s="10">
         <v>167</v>
       </c>
@@ -15392,7 +15359,7 @@
       </c>
       <c r="H520" s="6"/>
     </row>
-    <row r="521" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" s="8" customFormat="1">
       <c r="A521" s="10">
         <v>168</v>
       </c>
@@ -15414,7 +15381,7 @@
       </c>
       <c r="H521" s="6"/>
     </row>
-    <row r="522" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" s="8" customFormat="1">
       <c r="A522" s="10">
         <v>169</v>
       </c>
@@ -15436,7 +15403,7 @@
       </c>
       <c r="H522" s="6"/>
     </row>
-    <row r="523" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" s="8" customFormat="1">
       <c r="A523" s="10">
         <v>170</v>
       </c>
@@ -15458,7 +15425,7 @@
       </c>
       <c r="H523" s="6"/>
     </row>
-    <row r="524" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A524" s="10">
         <v>171</v>
       </c>
@@ -15480,7 +15447,7 @@
       </c>
       <c r="H524" s="6"/>
     </row>
-    <row r="525" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" s="8" customFormat="1">
       <c r="A525" s="10">
         <v>172</v>
       </c>
@@ -15502,7 +15469,7 @@
       </c>
       <c r="H525" s="6"/>
     </row>
-    <row r="526" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" s="8" customFormat="1">
       <c r="A526" s="10">
         <v>173</v>
       </c>
@@ -15524,7 +15491,7 @@
       </c>
       <c r="H526" s="6"/>
     </row>
-    <row r="527" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" s="8" customFormat="1">
       <c r="A527" s="10">
         <v>174</v>
       </c>
@@ -15546,7 +15513,7 @@
       </c>
       <c r="H527" s="6"/>
     </row>
-    <row r="528" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" s="8" customFormat="1">
       <c r="A528" s="10">
         <v>175</v>
       </c>
@@ -15568,7 +15535,7 @@
       </c>
       <c r="H528" s="6"/>
     </row>
-    <row r="529" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" s="8" customFormat="1">
       <c r="A529" s="10">
         <v>176</v>
       </c>
@@ -15590,7 +15557,7 @@
       </c>
       <c r="H529" s="6"/>
     </row>
-    <row r="530" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" s="8" customFormat="1">
       <c r="A530" s="10">
         <v>177</v>
       </c>
@@ -15612,7 +15579,7 @@
       </c>
       <c r="H530" s="6"/>
     </row>
-    <row r="531" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" s="8" customFormat="1">
       <c r="A531" s="10">
         <v>178</v>
       </c>
@@ -15634,7 +15601,7 @@
       </c>
       <c r="H531" s="6"/>
     </row>
-    <row r="532" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" s="8" customFormat="1">
       <c r="A532" s="10">
         <v>179</v>
       </c>
@@ -15656,7 +15623,7 @@
       </c>
       <c r="H532" s="6"/>
     </row>
-    <row r="533" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" s="8" customFormat="1">
       <c r="A533" s="10">
         <v>180</v>
       </c>
@@ -15678,7 +15645,7 @@
       </c>
       <c r="H533" s="6"/>
     </row>
-    <row r="534" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" s="8" customFormat="1">
       <c r="A534" s="10">
         <v>181</v>
       </c>
@@ -15700,7 +15667,7 @@
       </c>
       <c r="H534" s="14"/>
     </row>
-    <row r="535" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" s="8" customFormat="1">
       <c r="A535" s="10">
         <v>182</v>
       </c>
@@ -15722,7 +15689,7 @@
       </c>
       <c r="H535" s="6"/>
     </row>
-    <row r="536" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" s="8" customFormat="1">
       <c r="A536" s="10">
         <v>183</v>
       </c>
@@ -15744,7 +15711,7 @@
       </c>
       <c r="H536" s="6"/>
     </row>
-    <row r="537" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" s="8" customFormat="1">
       <c r="A537" s="10">
         <v>184</v>
       </c>
@@ -15766,7 +15733,7 @@
       </c>
       <c r="H537" s="6"/>
     </row>
-    <row r="538" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" s="8" customFormat="1">
       <c r="A538" s="10">
         <v>185</v>
       </c>
@@ -15788,7 +15755,7 @@
       </c>
       <c r="H538" s="6"/>
     </row>
-    <row r="539" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A539" s="10">
         <v>186</v>
       </c>
@@ -15810,7 +15777,7 @@
       </c>
       <c r="H539" s="6"/>
     </row>
-    <row r="540" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" s="8" customFormat="1">
       <c r="A540" s="10">
         <v>187</v>
       </c>
@@ -15832,7 +15799,7 @@
       </c>
       <c r="H540" s="6"/>
     </row>
-    <row r="541" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" s="8" customFormat="1">
       <c r="A541" s="10">
         <v>188</v>
       </c>
@@ -15854,7 +15821,7 @@
       </c>
       <c r="H541" s="6"/>
     </row>
-    <row r="542" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" s="8" customFormat="1">
       <c r="A542" s="10">
         <v>189</v>
       </c>
@@ -15876,7 +15843,7 @@
       </c>
       <c r="H542" s="6"/>
     </row>
-    <row r="543" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" s="8" customFormat="1">
       <c r="A543" s="10">
         <v>190</v>
       </c>
@@ -15898,7 +15865,7 @@
       </c>
       <c r="H543" s="6"/>
     </row>
-    <row r="544" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" s="8" customFormat="1">
       <c r="A544" s="10">
         <v>191</v>
       </c>
@@ -15920,7 +15887,7 @@
       </c>
       <c r="H544" s="6"/>
     </row>
-    <row r="545" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" s="8" customFormat="1">
       <c r="A545" s="10">
         <v>192</v>
       </c>
@@ -15942,7 +15909,7 @@
       </c>
       <c r="H545" s="6"/>
     </row>
-    <row r="546" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A546" s="10">
         <v>193</v>
       </c>
@@ -15964,7 +15931,7 @@
       </c>
       <c r="H546" s="6"/>
     </row>
-    <row r="547" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" s="8" customFormat="1">
       <c r="A547" s="10">
         <v>194</v>
       </c>
@@ -15986,7 +15953,7 @@
       </c>
       <c r="H547" s="6"/>
     </row>
-    <row r="548" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A548" s="10">
         <v>195</v>
       </c>
@@ -16008,7 +15975,7 @@
       </c>
       <c r="H548" s="6"/>
     </row>
-    <row r="549" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" s="8" customFormat="1">
       <c r="A549" s="10">
         <v>196</v>
       </c>
@@ -16030,7 +15997,7 @@
       </c>
       <c r="H549" s="6"/>
     </row>
-    <row r="550" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" s="8" customFormat="1">
       <c r="A550" s="10">
         <v>197</v>
       </c>
@@ -16052,7 +16019,7 @@
       </c>
       <c r="H550" s="6"/>
     </row>
-    <row r="551" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" s="8" customFormat="1">
       <c r="A551" s="10">
         <v>198</v>
       </c>
@@ -16074,7 +16041,7 @@
       </c>
       <c r="H551" s="6"/>
     </row>
-    <row r="552" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" s="8" customFormat="1">
       <c r="A552" s="10">
         <v>199</v>
       </c>
@@ -16096,7 +16063,7 @@
       </c>
       <c r="H552" s="6"/>
     </row>
-    <row r="553" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" s="8" customFormat="1">
       <c r="A553" s="10">
         <v>200</v>
       </c>
@@ -16118,7 +16085,7 @@
       </c>
       <c r="H553" s="6"/>
     </row>
-    <row r="554" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" s="8" customFormat="1">
       <c r="A554" s="10">
         <v>201</v>
       </c>
@@ -16140,7 +16107,7 @@
       </c>
       <c r="H554" s="6"/>
     </row>
-    <row r="555" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" s="8" customFormat="1">
       <c r="A555" s="10">
         <v>202</v>
       </c>
@@ -16162,7 +16129,7 @@
       </c>
       <c r="H555" s="6"/>
     </row>
-    <row r="556" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" s="8" customFormat="1">
       <c r="A556" s="10">
         <v>203</v>
       </c>
@@ -16184,7 +16151,7 @@
       </c>
       <c r="H556" s="6"/>
     </row>
-    <row r="557" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" s="8" customFormat="1">
       <c r="A557" s="10">
         <v>204</v>
       </c>
@@ -16206,7 +16173,7 @@
       </c>
       <c r="H557" s="6"/>
     </row>
-    <row r="558" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" s="8" customFormat="1">
       <c r="A558" s="10">
         <v>205</v>
       </c>
@@ -16228,7 +16195,7 @@
       </c>
       <c r="H558" s="6"/>
     </row>
-    <row r="559" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" s="8" customFormat="1">
       <c r="A559" s="10">
         <v>206</v>
       </c>
@@ -16250,7 +16217,7 @@
       </c>
       <c r="H559" s="6"/>
     </row>
-    <row r="560" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" s="8" customFormat="1">
       <c r="A560" s="10">
         <v>207</v>
       </c>
@@ -16272,7 +16239,7 @@
       </c>
       <c r="H560" s="6"/>
     </row>
-    <row r="561" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A561" s="10">
         <v>208</v>
       </c>
@@ -16294,7 +16261,7 @@
       </c>
       <c r="H561" s="6"/>
     </row>
-    <row r="562" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" s="8" customFormat="1">
       <c r="A562" s="10">
         <v>209</v>
       </c>
@@ -16316,7 +16283,7 @@
       </c>
       <c r="H562" s="6"/>
     </row>
-    <row r="563" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" s="8" customFormat="1">
       <c r="A563" s="10">
         <v>210</v>
       </c>
@@ -16338,7 +16305,7 @@
       </c>
       <c r="H563" s="6"/>
     </row>
-    <row r="564" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" s="8" customFormat="1">
       <c r="A564" s="10">
         <v>211</v>
       </c>
@@ -16360,7 +16327,7 @@
       </c>
       <c r="H564" s="6"/>
     </row>
-    <row r="565" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A565" s="10">
         <v>212</v>
       </c>
@@ -16382,7 +16349,7 @@
       </c>
       <c r="H565" s="6"/>
     </row>
-    <row r="566" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" s="8" customFormat="1">
       <c r="A566" s="10">
         <v>213</v>
       </c>
@@ -16404,7 +16371,7 @@
       </c>
       <c r="H566" s="6"/>
     </row>
-    <row r="567" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" s="8" customFormat="1">
       <c r="A567" s="10">
         <v>214</v>
       </c>
@@ -16426,7 +16393,7 @@
       </c>
       <c r="H567" s="6"/>
     </row>
-    <row r="568" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" s="8" customFormat="1">
       <c r="A568" s="10">
         <v>215</v>
       </c>
@@ -16448,7 +16415,7 @@
       </c>
       <c r="H568" s="6"/>
     </row>
-    <row r="569" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" s="8" customFormat="1">
       <c r="A569" s="10">
         <v>216</v>
       </c>
@@ -16470,7 +16437,7 @@
       </c>
       <c r="H569" s="6"/>
     </row>
-    <row r="570" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" s="8" customFormat="1">
       <c r="A570" s="10">
         <v>217</v>
       </c>
@@ -16492,7 +16459,7 @@
       </c>
       <c r="H570" s="6"/>
     </row>
-    <row r="571" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" s="8" customFormat="1">
       <c r="A571" s="10">
         <v>218</v>
       </c>
@@ -16514,7 +16481,7 @@
       </c>
       <c r="H571" s="6"/>
     </row>
-    <row r="572" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" s="8" customFormat="1">
       <c r="A572" s="10">
         <v>219</v>
       </c>
@@ -16536,7 +16503,7 @@
       </c>
       <c r="H572" s="6"/>
     </row>
-    <row r="573" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" s="8" customFormat="1">
       <c r="A573" s="10">
         <v>220</v>
       </c>
@@ -16558,7 +16525,7 @@
       </c>
       <c r="H573" s="6"/>
     </row>
-    <row r="574" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" s="8" customFormat="1">
       <c r="A574" s="10">
         <v>221</v>
       </c>
@@ -16580,7 +16547,7 @@
       </c>
       <c r="H574" s="6"/>
     </row>
-    <row r="575" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" s="8" customFormat="1">
       <c r="A575" s="10">
         <v>222</v>
       </c>
@@ -16602,7 +16569,7 @@
       </c>
       <c r="H575" s="6"/>
     </row>
-    <row r="576" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" s="8" customFormat="1">
       <c r="A576" s="10">
         <v>223</v>
       </c>
@@ -16624,7 +16591,7 @@
       </c>
       <c r="H576" s="14"/>
     </row>
-    <row r="577" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" s="8" customFormat="1">
       <c r="A577" s="10">
         <v>224</v>
       </c>
@@ -16646,7 +16613,7 @@
       </c>
       <c r="H577" s="6"/>
     </row>
-    <row r="578" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" s="8" customFormat="1">
       <c r="A578" s="10">
         <v>225</v>
       </c>
@@ -16668,7 +16635,7 @@
       </c>
       <c r="H578" s="6"/>
     </row>
-    <row r="579" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" s="8" customFormat="1">
       <c r="A579" s="10">
         <v>226</v>
       </c>
@@ -16690,7 +16657,7 @@
       </c>
       <c r="H579" s="6"/>
     </row>
-    <row r="580" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" s="8" customFormat="1">
       <c r="A580" s="10">
         <v>227</v>
       </c>
@@ -16712,7 +16679,7 @@
       </c>
       <c r="H580" s="6"/>
     </row>
-    <row r="581" spans="1:9" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A581" s="10">
         <v>228</v>
       </c>
@@ -16734,7 +16701,7 @@
       </c>
       <c r="H581" s="6"/>
     </row>
-    <row r="582" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" s="8" customFormat="1">
       <c r="A582" s="10">
         <v>229</v>
       </c>
@@ -16757,7 +16724,7 @@
       <c r="H582" s="6"/>
       <c r="I582" s="11"/>
     </row>
-    <row r="583" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" s="8" customFormat="1">
       <c r="A583" s="10">
         <v>230</v>
       </c>
@@ -16779,7 +16746,7 @@
       </c>
       <c r="H583" s="6"/>
     </row>
-    <row r="584" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" s="8" customFormat="1">
       <c r="A584" s="10">
         <v>231</v>
       </c>
@@ -16801,7 +16768,7 @@
       </c>
       <c r="H584" s="6"/>
     </row>
-    <row r="585" spans="1:9" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A585" s="10">
         <v>232</v>
       </c>
@@ -16823,7 +16790,7 @@
       </c>
       <c r="H585" s="6"/>
     </row>
-    <row r="586" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" s="8" customFormat="1">
       <c r="A586" s="10">
         <v>233</v>
       </c>
@@ -16845,7 +16812,7 @@
       </c>
       <c r="H586" s="6"/>
     </row>
-    <row r="587" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" s="8" customFormat="1">
       <c r="A587" s="10">
         <v>234</v>
       </c>
@@ -16867,7 +16834,7 @@
       </c>
       <c r="H587" s="6"/>
     </row>
-    <row r="588" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" s="8" customFormat="1">
       <c r="A588" s="10">
         <v>235</v>
       </c>
@@ -16889,7 +16856,7 @@
       </c>
       <c r="H588" s="6"/>
     </row>
-    <row r="589" spans="1:9" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A589" s="10">
         <v>236</v>
       </c>
@@ -16911,7 +16878,7 @@
       </c>
       <c r="H589" s="6"/>
     </row>
-    <row r="590" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" s="8" customFormat="1">
       <c r="A590" s="10">
         <v>237</v>
       </c>
@@ -16933,7 +16900,7 @@
       </c>
       <c r="H590" s="6"/>
     </row>
-    <row r="591" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" s="8" customFormat="1">
       <c r="A591" s="10">
         <v>238</v>
       </c>
@@ -16955,7 +16922,7 @@
       </c>
       <c r="H591" s="6"/>
     </row>
-    <row r="592" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" s="8" customFormat="1">
       <c r="A592" s="10">
         <v>239</v>
       </c>
@@ -16977,7 +16944,7 @@
       </c>
       <c r="H592" s="6"/>
     </row>
-    <row r="593" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" s="8" customFormat="1">
       <c r="A593" s="10">
         <v>240</v>
       </c>
@@ -16999,7 +16966,7 @@
       </c>
       <c r="H593" s="6"/>
     </row>
-    <row r="594" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" s="8" customFormat="1">
       <c r="A594" s="10">
         <v>241</v>
       </c>
@@ -17021,7 +16988,7 @@
       </c>
       <c r="H594" s="6"/>
     </row>
-    <row r="595" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" s="8" customFormat="1">
       <c r="A595" s="10">
         <v>242</v>
       </c>
@@ -17043,7 +17010,7 @@
       </c>
       <c r="H595" s="6"/>
     </row>
-    <row r="596" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" s="8" customFormat="1">
       <c r="A596" s="10">
         <v>243</v>
       </c>
@@ -17065,7 +17032,7 @@
       </c>
       <c r="H596" s="6"/>
     </row>
-    <row r="597" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" s="8" customFormat="1">
       <c r="A597" s="10">
         <v>244</v>
       </c>
@@ -17087,7 +17054,7 @@
       </c>
       <c r="H597" s="14"/>
     </row>
-    <row r="598" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A598" s="10">
         <v>245</v>
       </c>
@@ -17109,7 +17076,7 @@
       </c>
       <c r="H598" s="6"/>
     </row>
-    <row r="599" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" s="8" customFormat="1">
       <c r="A599" s="10">
         <v>246</v>
       </c>
@@ -17131,7 +17098,7 @@
       </c>
       <c r="H599" s="6"/>
     </row>
-    <row r="600" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" s="8" customFormat="1">
       <c r="A600" s="10">
         <v>247</v>
       </c>
@@ -17153,7 +17120,7 @@
       </c>
       <c r="H600" s="6"/>
     </row>
-    <row r="601" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" s="8" customFormat="1">
       <c r="A601" s="10">
         <v>248</v>
       </c>
@@ -17175,7 +17142,7 @@
       </c>
       <c r="H601" s="6"/>
     </row>
-    <row r="602" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" s="8" customFormat="1">
       <c r="A602" s="10">
         <v>249</v>
       </c>
@@ -17197,7 +17164,7 @@
       </c>
       <c r="H602" s="6"/>
     </row>
-    <row r="603" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A603" s="10">
         <v>250</v>
       </c>
@@ -17219,7 +17186,7 @@
       </c>
       <c r="H603" s="6"/>
     </row>
-    <row r="604" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" s="8" customFormat="1">
       <c r="A604" s="10">
         <v>251</v>
       </c>
@@ -17241,7 +17208,7 @@
       </c>
       <c r="H604" s="6"/>
     </row>
-    <row r="605" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" s="8" customFormat="1">
       <c r="A605" s="10">
         <v>252</v>
       </c>
@@ -17263,7 +17230,7 @@
       </c>
       <c r="H605" s="6"/>
     </row>
-    <row r="606" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" s="8" customFormat="1">
       <c r="A606" s="10">
         <v>253</v>
       </c>
@@ -17285,7 +17252,7 @@
       </c>
       <c r="H606" s="6"/>
     </row>
-    <row r="607" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" s="8" customFormat="1">
       <c r="A607" s="10">
         <v>254</v>
       </c>
@@ -17307,7 +17274,7 @@
       </c>
       <c r="H607" s="6"/>
     </row>
-    <row r="608" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" s="8" customFormat="1">
       <c r="A608" s="10">
         <v>255</v>
       </c>
@@ -17329,7 +17296,7 @@
       </c>
       <c r="H608" s="6"/>
     </row>
-    <row r="609" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" s="8" customFormat="1">
       <c r="A609" s="10">
         <v>256</v>
       </c>
@@ -17351,7 +17318,7 @@
       </c>
       <c r="H609" s="6"/>
     </row>
-    <row r="610" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" s="8" customFormat="1">
       <c r="A610" s="10">
         <v>257</v>
       </c>
@@ -17373,7 +17340,7 @@
       </c>
       <c r="H610" s="6"/>
     </row>
-    <row r="611" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A611" s="10">
         <v>258</v>
       </c>
@@ -17395,7 +17362,7 @@
       </c>
       <c r="H611" s="6"/>
     </row>
-    <row r="612" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" s="8" customFormat="1">
       <c r="A612" s="10">
         <v>259</v>
       </c>
@@ -17417,7 +17384,7 @@
       </c>
       <c r="H612" s="14"/>
     </row>
-    <row r="613" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" s="8" customFormat="1">
       <c r="A613" s="10">
         <v>260</v>
       </c>
@@ -17439,7 +17406,7 @@
       </c>
       <c r="H613" s="14"/>
     </row>
-    <row r="614" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" s="8" customFormat="1">
       <c r="A614" s="10">
         <v>261</v>
       </c>
@@ -17461,7 +17428,7 @@
       </c>
       <c r="H614" s="6"/>
     </row>
-    <row r="615" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" s="8" customFormat="1">
       <c r="A615" s="10">
         <v>262</v>
       </c>
@@ -17483,7 +17450,7 @@
       </c>
       <c r="H615" s="6"/>
     </row>
-    <row r="616" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" s="8" customFormat="1">
       <c r="A616" s="10">
         <v>263</v>
       </c>
@@ -17505,7 +17472,7 @@
       </c>
       <c r="H616" s="6"/>
     </row>
-    <row r="617" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" s="8" customFormat="1">
       <c r="A617" s="10">
         <v>264</v>
       </c>
@@ -17527,7 +17494,7 @@
       </c>
       <c r="H617" s="6"/>
     </row>
-    <row r="618" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" s="8" customFormat="1">
       <c r="A618" s="10">
         <v>265</v>
       </c>
@@ -17549,7 +17516,7 @@
       </c>
       <c r="H618" s="6"/>
     </row>
-    <row r="619" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" s="8" customFormat="1">
       <c r="A619" s="10">
         <v>266</v>
       </c>
@@ -17571,7 +17538,7 @@
       </c>
       <c r="H619" s="6"/>
     </row>
-    <row r="620" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A620" s="10">
         <v>267</v>
       </c>
@@ -17593,7 +17560,7 @@
       </c>
       <c r="H620" s="6"/>
     </row>
-    <row r="621" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" s="8" customFormat="1">
       <c r="A621" s="10">
         <v>268</v>
       </c>
@@ -17615,7 +17582,7 @@
       </c>
       <c r="H621" s="6"/>
     </row>
-    <row r="622" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" s="8" customFormat="1">
       <c r="A622" s="10">
         <v>269</v>
       </c>
@@ -17637,7 +17604,7 @@
       </c>
       <c r="H622" s="6"/>
     </row>
-    <row r="623" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" s="8" customFormat="1">
       <c r="A623" s="10">
         <v>270</v>
       </c>
@@ -17659,7 +17626,7 @@
       </c>
       <c r="H623" s="6"/>
     </row>
-    <row r="624" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" s="8" customFormat="1">
       <c r="A624" s="10">
         <v>271</v>
       </c>
@@ -17681,7 +17648,7 @@
       </c>
       <c r="H624" s="6"/>
     </row>
-    <row r="625" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" s="8" customFormat="1">
       <c r="A625" s="10">
         <v>272</v>
       </c>
@@ -17703,7 +17670,7 @@
       </c>
       <c r="H625" s="6"/>
     </row>
-    <row r="626" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" s="8" customFormat="1">
       <c r="A626" s="10">
         <v>273</v>
       </c>
@@ -17725,7 +17692,7 @@
       </c>
       <c r="H626" s="6"/>
     </row>
-    <row r="627" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" s="8" customFormat="1">
       <c r="A627" s="10">
         <v>274</v>
       </c>
@@ -17747,7 +17714,7 @@
       </c>
       <c r="H627" s="6"/>
     </row>
-    <row r="628" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" s="8" customFormat="1">
       <c r="A628" s="10">
         <v>275</v>
       </c>
@@ -17769,7 +17736,7 @@
       </c>
       <c r="H628" s="6"/>
     </row>
-    <row r="629" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" s="8" customFormat="1">
       <c r="A629" s="10">
         <v>276</v>
       </c>
@@ -17791,7 +17758,7 @@
       </c>
       <c r="H629" s="6"/>
     </row>
-    <row r="630" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" s="8" customFormat="1">
       <c r="A630" s="10">
         <v>277</v>
       </c>
@@ -17813,7 +17780,7 @@
       </c>
       <c r="H630" s="6"/>
     </row>
-    <row r="631" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" s="8" customFormat="1">
       <c r="A631" s="10">
         <v>278</v>
       </c>
@@ -17835,7 +17802,7 @@
       </c>
       <c r="H631" s="14"/>
     </row>
-    <row r="632" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" s="8" customFormat="1">
       <c r="A632" s="10">
         <v>279</v>
       </c>
@@ -17857,7 +17824,7 @@
       </c>
       <c r="H632" s="6"/>
     </row>
-    <row r="633" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A633" s="10">
         <v>280</v>
       </c>
@@ -17879,7 +17846,7 @@
       </c>
       <c r="H633" s="6"/>
     </row>
-    <row r="634" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" s="8" customFormat="1">
       <c r="A634" s="10">
         <v>281</v>
       </c>
@@ -17901,7 +17868,7 @@
       </c>
       <c r="H634" s="6"/>
     </row>
-    <row r="635" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" s="8" customFormat="1">
       <c r="A635" s="10">
         <v>282</v>
       </c>
@@ -17923,7 +17890,7 @@
       </c>
       <c r="H635" s="6"/>
     </row>
-    <row r="636" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" s="8" customFormat="1">
       <c r="A636" s="10">
         <v>283</v>
       </c>
@@ -17945,7 +17912,7 @@
       </c>
       <c r="H636" s="6"/>
     </row>
-    <row r="637" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" s="8" customFormat="1">
       <c r="A637" s="10">
         <v>284</v>
       </c>
@@ -17967,7 +17934,7 @@
       </c>
       <c r="H637" s="6"/>
     </row>
-    <row r="638" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" s="8" customFormat="1">
       <c r="A638" s="10">
         <v>285</v>
       </c>
@@ -17989,7 +17956,7 @@
       </c>
       <c r="H638" s="6"/>
     </row>
-    <row r="639" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" s="8" customFormat="1">
       <c r="A639" s="10">
         <v>286</v>
       </c>
@@ -18011,7 +17978,7 @@
       </c>
       <c r="H639" s="6"/>
     </row>
-    <row r="640" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" s="8" customFormat="1">
       <c r="A640" s="10">
         <v>287</v>
       </c>
@@ -18033,7 +18000,7 @@
       </c>
       <c r="H640" s="14"/>
     </row>
-    <row r="641" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" s="8" customFormat="1">
       <c r="A641" s="10">
         <v>288</v>
       </c>
@@ -18055,7 +18022,7 @@
       </c>
       <c r="H641" s="6"/>
     </row>
-    <row r="642" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" s="8" customFormat="1">
       <c r="A642" s="10">
         <v>289</v>
       </c>
@@ -18077,7 +18044,7 @@
       </c>
       <c r="H642" s="6"/>
     </row>
-    <row r="643" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" s="8" customFormat="1">
       <c r="A643" s="10">
         <v>290</v>
       </c>
@@ -18099,7 +18066,7 @@
       </c>
       <c r="H643" s="6"/>
     </row>
-    <row r="644" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" s="8" customFormat="1">
       <c r="A644" s="10">
         <v>291</v>
       </c>
@@ -18121,7 +18088,7 @@
       </c>
       <c r="H644" s="6"/>
     </row>
-    <row r="645" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" s="8" customFormat="1">
       <c r="A645" s="10">
         <v>292</v>
       </c>
@@ -18143,7 +18110,7 @@
       </c>
       <c r="H645" s="6"/>
     </row>
-    <row r="646" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A646" s="10">
         <v>293</v>
       </c>
@@ -18165,7 +18132,7 @@
       </c>
       <c r="H646" s="6"/>
     </row>
-    <row r="647" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" s="8" customFormat="1">
       <c r="A647" s="10">
         <v>294</v>
       </c>
@@ -18187,7 +18154,7 @@
       </c>
       <c r="H647" s="6"/>
     </row>
-    <row r="648" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" s="8" customFormat="1">
       <c r="A648" s="10">
         <v>295</v>
       </c>
@@ -18209,7 +18176,7 @@
       </c>
       <c r="H648" s="14"/>
     </row>
-    <row r="649" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" s="8" customFormat="1">
       <c r="A649" s="10">
         <v>296</v>
       </c>
@@ -18231,7 +18198,7 @@
       </c>
       <c r="H649" s="6"/>
     </row>
-    <row r="650" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" s="8" customFormat="1">
       <c r="A650" s="10">
         <v>297</v>
       </c>
@@ -18253,7 +18220,7 @@
       </c>
       <c r="H650" s="6"/>
     </row>
-    <row r="651" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" s="8" customFormat="1">
       <c r="A651" s="10">
         <v>298</v>
       </c>
@@ -18275,7 +18242,7 @@
       </c>
       <c r="H651" s="6"/>
     </row>
-    <row r="652" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" s="8" customFormat="1">
       <c r="A652" s="10">
         <v>299</v>
       </c>
@@ -18297,7 +18264,7 @@
       </c>
       <c r="H652" s="6"/>
     </row>
-    <row r="653" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" s="8" customFormat="1">
       <c r="A653" s="10">
         <v>300</v>
       </c>
@@ -18319,7 +18286,7 @@
       </c>
       <c r="H653" s="6"/>
     </row>
-    <row r="654" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" s="8" customFormat="1">
       <c r="A654" s="10">
         <v>301</v>
       </c>
@@ -18341,7 +18308,7 @@
       </c>
       <c r="H654" s="6"/>
     </row>
-    <row r="655" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" s="8" customFormat="1">
       <c r="A655" s="10">
         <v>302</v>
       </c>
@@ -18363,8 +18330,10 @@
       </c>
       <c r="H655" s="6"/>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="12"/>
+    <row r="657" spans="1:1">
+      <c r="A657" s="12" t="s">
+        <v>661</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
